--- a/Dados_Forchheimer.xlsx
+++ b/Dados_Forchheimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEC9E9-F595-426D-9CCC-07B869EF6C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360283A5-864C-4151-9ED3-F7F1AC80E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -669,11 +669,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -793,6 +811,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,31 +862,16 @@
     <xf numFmtId="2" fontId="9" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,6 +980,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1457,6 +1488,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1964,6 +1996,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2477,6 +2510,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2990,6 +3024,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3491,6 +3526,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3992,6 +4028,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4493,6 +4530,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -10055,7 +10093,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10548,7 +10586,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10565,42 +10603,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="Q1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56"/>
-      <c r="Y1" s="54" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
+      <c r="Y1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="56"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="45"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -12173,42 +12211,42 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="I17" s="57" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="I17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="Q17" s="57" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
+      <c r="Q17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
-      <c r="Y17" s="57" t="s">
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
+      <c r="Y17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="48"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -15391,164 +15429,164 @@
       </c>
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="49">
         <f>Parâmetros!$H$3 / F48</f>
-        <v>2.1438427197497402E-8</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
-      <c r="F48" s="43">
-        <v>39823</v>
-      </c>
-      <c r="G48" s="44"/>
-      <c r="I48" s="53" t="s">
+        <v>2.7269148022420438E-8</v>
+      </c>
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
+      <c r="F48" s="52">
+        <v>31308</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="I48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="49">
         <f>Parâmetros!$H$3 / N48</f>
-        <v>4.2087379161249149E-8</v>
-      </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
-      <c r="N48" s="43">
-        <v>20285</v>
-      </c>
-      <c r="O48" s="44"/>
-      <c r="Q48" s="53" t="s">
+        <v>5.4298956069830125E-8</v>
+      </c>
+      <c r="K48" s="49"/>
+      <c r="L48" s="50"/>
+      <c r="N48" s="52">
+        <v>15723</v>
+      </c>
+      <c r="O48" s="53"/>
+      <c r="Q48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="49">
         <f>Parâmetros!$H$3 / V48</f>
-        <v>5.9539890249385525E-8</v>
-      </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="52"/>
-      <c r="V48" s="43">
-        <v>14339</v>
-      </c>
-      <c r="W48" s="44"/>
-      <c r="Y48" s="53" t="s">
+        <v>7.7754324798355109E-8</v>
+      </c>
+      <c r="S48" s="49"/>
+      <c r="T48" s="50"/>
+      <c r="V48" s="52">
+        <v>10980</v>
+      </c>
+      <c r="W48" s="53"/>
+      <c r="Y48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Z48" s="51">
+      <c r="Z48" s="49">
         <f>Parâmetros!$H$3 / AD48</f>
-        <v>7.341495281502615E-8</v>
-      </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="52"/>
-      <c r="AD48" s="43">
-        <v>11629</v>
-      </c>
-      <c r="AE48" s="44"/>
+        <v>9.8334771514160225E-8</v>
+      </c>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="50"/>
+      <c r="AD48" s="52">
+        <v>8682</v>
+      </c>
+      <c r="AE48" s="53"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="46"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="52"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="52"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="46"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="50"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="55"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="50"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="55"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="51">
-        <f>Parâmetros!$H$3 / F50</f>
-        <v>7.330338089638602E-9</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="F50" s="47">
-        <v>116467</v>
-      </c>
-      <c r="G50" s="48"/>
-      <c r="I50" s="53" t="s">
+      <c r="B50" s="49">
+        <f>Parâmetros!$G$3 / F50</f>
+        <v>8.3693236613694502E-3</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="F50" s="56">
+        <v>119245</v>
+      </c>
+      <c r="G50" s="57"/>
+      <c r="I50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="51">
-        <f>Parâmetros!$H$3 / N50</f>
-        <v>1.0684468885375621E-8</v>
-      </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
-      <c r="N50" s="47">
-        <v>79905</v>
-      </c>
-      <c r="O50" s="48"/>
-      <c r="Q50" s="53" t="s">
+      <c r="J50" s="49">
+        <f>Parâmetros!$G$3 / N50</f>
+        <v>1.2233390536896298E-2</v>
+      </c>
+      <c r="K50" s="49"/>
+      <c r="L50" s="50"/>
+      <c r="N50" s="56">
+        <v>81580</v>
+      </c>
+      <c r="O50" s="57"/>
+      <c r="Q50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="51">
-        <f>Parâmetros!$H$3 / V50</f>
-        <v>1.307435774339483E-8</v>
-      </c>
-      <c r="S50" s="51"/>
-      <c r="T50" s="52"/>
-      <c r="V50" s="47">
-        <v>65299</v>
-      </c>
-      <c r="W50" s="48"/>
-      <c r="Y50" s="53" t="s">
+      <c r="R50" s="49">
+        <f>Parâmetros!$G$3 / V50</f>
+        <v>1.4981385853248468E-2</v>
+      </c>
+      <c r="S50" s="49"/>
+      <c r="T50" s="50"/>
+      <c r="V50" s="56">
+        <v>66616</v>
+      </c>
+      <c r="W50" s="57"/>
+      <c r="Y50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Z50" s="51">
-        <f>Parâmetros!$H$3 / AD50</f>
-        <v>1.462689292567741E-8</v>
-      </c>
-      <c r="AA50" s="51"/>
-      <c r="AB50" s="52"/>
-      <c r="AD50" s="47">
-        <v>58368</v>
-      </c>
-      <c r="AE50" s="48"/>
+      <c r="Z50" s="49">
+        <f>Parâmetros!$G$3 / AD50</f>
+        <v>1.6753399362095016E-2</v>
+      </c>
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="50"/>
+      <c r="AD50" s="56">
+        <v>59570</v>
+      </c>
+      <c r="AE50" s="57"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="52"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="50"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="52"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="50"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="51"/>
-      <c r="AB51" s="52"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="50"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="59"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="50"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="59"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="50"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="59"/>
     </row>
     <row r="52" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="N52" s="32"/>
@@ -15556,22 +15594,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B50:D51"/>
     <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="AD50:AE51"/>
     <mergeCell ref="F48:G49"/>
@@ -15588,6 +15610,22 @@
     <mergeCell ref="Y50:Y51"/>
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="Y17:AE17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15599,7 +15637,7 @@
   <dimension ref="A1:AF66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:D49"/>
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15616,43 +15654,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="Q1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56"/>
-      <c r="Y1" s="54" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
+      <c r="Y1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="56"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -17270,43 +17308,43 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="I17" s="57" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="I17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="Q17" s="57" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
+      <c r="Q17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
-      <c r="Y17" s="57" t="s">
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
+      <c r="Y17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="59"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="48"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -20361,164 +20399,164 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="49">
         <f>Parâmetros!$H$3 / F46</f>
-        <v>3.2054008383335112E-9</v>
-      </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
-      <c r="F46" s="43">
-        <v>266345</v>
-      </c>
-      <c r="G46" s="44"/>
-      <c r="I46" s="53" t="s">
+        <v>3.9761660167474977E-9</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="F46" s="52">
+        <v>214715</v>
+      </c>
+      <c r="G46" s="53"/>
+      <c r="I46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="51">
+      <c r="J46" s="49">
         <f>Parâmetros!$H$3 / N46</f>
-        <v>4.4331375013549507E-9</v>
-      </c>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
-      <c r="N46" s="43">
-        <v>192582</v>
-      </c>
-      <c r="O46" s="44"/>
-      <c r="Q46" s="53" t="s">
+        <v>5.8778261062867577E-9</v>
+      </c>
+      <c r="K46" s="49"/>
+      <c r="L46" s="50"/>
+      <c r="N46" s="52">
+        <v>145248</v>
+      </c>
+      <c r="O46" s="53"/>
+      <c r="Q46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="51">
+      <c r="R46" s="49">
         <f>Parâmetros!$H$3 / V46</f>
-        <v>6.6080674186392796E-9</v>
-      </c>
-      <c r="S46" s="51"/>
-      <c r="T46" s="52"/>
-      <c r="V46" s="43">
-        <v>129197</v>
-      </c>
-      <c r="W46" s="44"/>
-      <c r="Y46" s="53" t="s">
+        <v>8.6965721328913011E-9</v>
+      </c>
+      <c r="S46" s="49"/>
+      <c r="T46" s="50"/>
+      <c r="V46" s="52">
+        <v>98170</v>
+      </c>
+      <c r="W46" s="53"/>
+      <c r="Y46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Z46" s="51">
+      <c r="Z46" s="49">
         <f>Parâmetros!$H$3 / AE46</f>
-        <v>1.0992345349838915E-8</v>
-      </c>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="52"/>
-      <c r="AE46" s="43">
-        <v>77667</v>
-      </c>
-      <c r="AF46" s="44"/>
+        <v>1.4028434820170546E-8</v>
+      </c>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="50"/>
+      <c r="AE46" s="52">
+        <v>60858</v>
+      </c>
+      <c r="AF46" s="53"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="52"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="52"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="46"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="52"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="46"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="50"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="50"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="55"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="50"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="55"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="50"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="55"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="51">
-        <f>Parâmetros!$H$3 / F48</f>
-        <v>2.288430521662049E-9</v>
-      </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
-      <c r="F48" s="47">
-        <v>373069</v>
-      </c>
-      <c r="G48" s="48"/>
-      <c r="I48" s="53" t="s">
+      <c r="B48" s="60">
+        <f>Parâmetros!$G$3 / F48</f>
+        <v>2.6111095122353244E-3</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="F48" s="56">
+        <v>382213</v>
+      </c>
+      <c r="G48" s="57"/>
+      <c r="I48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="51">
-        <f>Parâmetros!$H$3 / N48</f>
-        <v>3.6487840254976454E-9</v>
-      </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
-      <c r="N48" s="47">
-        <v>233980</v>
-      </c>
-      <c r="O48" s="48"/>
-      <c r="Q48" s="53" t="s">
+      <c r="J48" s="60">
+        <f>Parâmetros!$G$3 / N48</f>
+        <v>4.0999096212307948E-3</v>
+      </c>
+      <c r="K48" s="60"/>
+      <c r="L48" s="61"/>
+      <c r="N48" s="56">
+        <v>243420</v>
+      </c>
+      <c r="O48" s="57"/>
+      <c r="Q48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R48" s="51">
-        <f>Parâmetros!$H$3 / V48</f>
-        <v>4.468428859295927E-9</v>
-      </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="52"/>
-      <c r="V48" s="47">
-        <v>191061</v>
-      </c>
-      <c r="W48" s="48"/>
-      <c r="Y48" s="53" t="s">
+      <c r="R48" s="60">
+        <f>Parâmetros!$G$3 / V48</f>
+        <v>5.0489975362106214E-3</v>
+      </c>
+      <c r="S48" s="60"/>
+      <c r="T48" s="61"/>
+      <c r="V48" s="56">
+        <v>197663</v>
+      </c>
+      <c r="W48" s="57"/>
+      <c r="Y48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Z48" s="51">
-        <f>Parâmetros!$H$3 / AE48</f>
-        <v>5.3420673046080717E-9</v>
-      </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="52"/>
-      <c r="AE48" s="47">
-        <v>159815</v>
-      </c>
-      <c r="AF48" s="48"/>
+      <c r="Z48" s="49">
+        <f>Parâmetros!$G$3 / AE48</f>
+        <v>6.102482573070808E-3</v>
+      </c>
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="50"/>
+      <c r="AE48" s="56">
+        <v>163540</v>
+      </c>
+      <c r="AF48" s="57"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="52"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="50"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="52"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="50"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="63"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="63"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="59"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="50"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="59"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65" s="17" t="s">
@@ -20535,29 +20573,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="N48:O49"/>
     <mergeCell ref="V46:W47"/>
     <mergeCell ref="V48:W49"/>
     <mergeCell ref="J46:L47"/>
@@ -20567,6 +20582,29 @@
     <mergeCell ref="Z46:AB47"/>
     <mergeCell ref="Y48:Y49"/>
     <mergeCell ref="Z48:AB49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Dados_Forchheimer.xlsx
+++ b/Dados_Forchheimer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BEC9E9-F595-426D-9CCC-07B869EF6C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E03C59-8686-4A83-AE0E-8A803C9E6788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros" sheetId="4" r:id="rId1"/>
@@ -793,6 +793,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,33 +842,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10055,7 +10055,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10547,8 +10547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20253A0B-AC37-40BE-81EB-FCE066D46965}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P56" sqref="P56"/>
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10565,42 +10565,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="Q1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56"/>
-      <c r="Y1" s="54" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
+      <c r="Y1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="56"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="45"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -12173,42 +12173,42 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="I17" s="57" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="I17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="Q17" s="57" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
+      <c r="Q17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
-      <c r="Y17" s="57" t="s">
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
+      <c r="Y17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="48"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -15391,164 +15391,164 @@
       </c>
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="49">
         <f>Parâmetros!$H$3 / F48</f>
         <v>2.1438427197497402E-8</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
-      <c r="F48" s="43">
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
+      <c r="F48" s="52">
         <v>39823</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="I48" s="53" t="s">
+      <c r="G48" s="53"/>
+      <c r="I48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="49">
         <f>Parâmetros!$H$3 / N48</f>
         <v>4.2087379161249149E-8</v>
       </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
-      <c r="N48" s="43">
+      <c r="K48" s="49"/>
+      <c r="L48" s="50"/>
+      <c r="N48" s="52">
         <v>20285</v>
       </c>
-      <c r="O48" s="44"/>
-      <c r="Q48" s="53" t="s">
+      <c r="O48" s="53"/>
+      <c r="Q48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="49">
         <f>Parâmetros!$H$3 / V48</f>
         <v>5.9539890249385525E-8</v>
       </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="52"/>
-      <c r="V48" s="43">
+      <c r="S48" s="49"/>
+      <c r="T48" s="50"/>
+      <c r="V48" s="52">
         <v>14339</v>
       </c>
-      <c r="W48" s="44"/>
-      <c r="Y48" s="53" t="s">
+      <c r="W48" s="53"/>
+      <c r="Y48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Z48" s="51">
+      <c r="Z48" s="49">
         <f>Parâmetros!$H$3 / AD48</f>
         <v>7.341495281502615E-8</v>
       </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="52"/>
-      <c r="AD48" s="43">
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="50"/>
+      <c r="AD48" s="52">
         <v>11629</v>
       </c>
-      <c r="AE48" s="44"/>
+      <c r="AE48" s="53"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="46"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="52"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="52"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="46"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="55"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="55"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="50"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="55"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="50"/>
+      <c r="AD49" s="54"/>
+      <c r="AE49" s="55"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="51">
+      <c r="B50" s="49">
         <f>Parâmetros!$H$3 / F50</f>
         <v>7.330338089638602E-9</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="F50" s="47">
+      <c r="C50" s="49"/>
+      <c r="D50" s="50"/>
+      <c r="F50" s="56">
         <v>116467</v>
       </c>
-      <c r="G50" s="48"/>
-      <c r="I50" s="53" t="s">
+      <c r="G50" s="57"/>
+      <c r="I50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="51">
+      <c r="J50" s="49">
         <f>Parâmetros!$H$3 / N50</f>
         <v>1.0684468885375621E-8</v>
       </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
-      <c r="N50" s="47">
+      <c r="K50" s="49"/>
+      <c r="L50" s="50"/>
+      <c r="N50" s="56">
         <v>79905</v>
       </c>
-      <c r="O50" s="48"/>
-      <c r="Q50" s="53" t="s">
+      <c r="O50" s="57"/>
+      <c r="Q50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="51">
+      <c r="R50" s="49">
         <f>Parâmetros!$H$3 / V50</f>
         <v>1.307435774339483E-8</v>
       </c>
-      <c r="S50" s="51"/>
-      <c r="T50" s="52"/>
-      <c r="V50" s="47">
+      <c r="S50" s="49"/>
+      <c r="T50" s="50"/>
+      <c r="V50" s="56">
         <v>65299</v>
       </c>
-      <c r="W50" s="48"/>
-      <c r="Y50" s="53" t="s">
+      <c r="W50" s="57"/>
+      <c r="Y50" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Z50" s="51">
+      <c r="Z50" s="49">
         <f>Parâmetros!$H$3 / AD50</f>
         <v>1.462689292567741E-8</v>
       </c>
-      <c r="AA50" s="51"/>
-      <c r="AB50" s="52"/>
-      <c r="AD50" s="47">
+      <c r="AA50" s="49"/>
+      <c r="AB50" s="50"/>
+      <c r="AD50" s="56">
         <v>58368</v>
       </c>
-      <c r="AE50" s="48"/>
+      <c r="AE50" s="57"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="52"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="50"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="52"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="50"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="51"/>
-      <c r="AB51" s="52"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="50"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="50"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="50"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="59"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="50"/>
+      <c r="V51" s="58"/>
+      <c r="W51" s="59"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="49"/>
+      <c r="AA51" s="49"/>
+      <c r="AB51" s="50"/>
+      <c r="AD51" s="58"/>
+      <c r="AE51" s="59"/>
     </row>
     <row r="52" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="N52" s="32"/>
@@ -15556,22 +15556,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B50:D51"/>
     <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="AD50:AE51"/>
     <mergeCell ref="F48:G49"/>
@@ -15588,6 +15572,22 @@
     <mergeCell ref="Y50:Y51"/>
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="Y17:AE17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15598,8 +15598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182110-318C-4606-A178-4CC63F538A66}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:D49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R46" sqref="R46:T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15616,43 +15616,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="45"/>
+      <c r="Q1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56"/>
-      <c r="Y1" s="54" t="s">
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="45"/>
+      <c r="Y1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="56"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="45"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -17270,43 +17270,43 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="I17" s="57" t="s">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="I17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="Q17" s="57" t="s">
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="48"/>
+      <c r="Q17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
-      <c r="Y17" s="57" t="s">
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
+      <c r="Y17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="59"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="48"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -20361,164 +20361,164 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="49">
         <f>Parâmetros!$H$3 / F46</f>
         <v>3.2054008383335112E-9</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
-      <c r="F46" s="43">
+      <c r="C46" s="49"/>
+      <c r="D46" s="50"/>
+      <c r="F46" s="52">
         <v>266345</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="I46" s="53" t="s">
+      <c r="G46" s="53"/>
+      <c r="I46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="51">
+      <c r="J46" s="49">
         <f>Parâmetros!$H$3 / N46</f>
         <v>4.4331375013549507E-9</v>
       </c>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
-      <c r="N46" s="43">
+      <c r="K46" s="49"/>
+      <c r="L46" s="50"/>
+      <c r="N46" s="52">
         <v>192582</v>
       </c>
-      <c r="O46" s="44"/>
-      <c r="Q46" s="53" t="s">
+      <c r="O46" s="53"/>
+      <c r="Q46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="51">
+      <c r="R46" s="49">
         <f>Parâmetros!$H$3 / V46</f>
         <v>6.6080674186392796E-9</v>
       </c>
-      <c r="S46" s="51"/>
-      <c r="T46" s="52"/>
-      <c r="V46" s="43">
+      <c r="S46" s="49"/>
+      <c r="T46" s="50"/>
+      <c r="V46" s="52">
         <v>129197</v>
       </c>
-      <c r="W46" s="44"/>
-      <c r="Y46" s="53" t="s">
+      <c r="W46" s="53"/>
+      <c r="Y46" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="Z46" s="51">
+      <c r="Z46" s="49">
         <f>Parâmetros!$H$3 / AE46</f>
         <v>1.0992345349838915E-8</v>
       </c>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="52"/>
-      <c r="AE46" s="43">
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="50"/>
+      <c r="AE46" s="52">
         <v>77667</v>
       </c>
-      <c r="AF46" s="44"/>
+      <c r="AF46" s="53"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="52"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="52"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="46"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="52"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="46"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="50"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="55"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="50"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="55"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="50"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="55"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="50"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="55"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="49">
         <f>Parâmetros!$H$3 / F48</f>
         <v>2.288430521662049E-9</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
-      <c r="F48" s="47">
+      <c r="C48" s="49"/>
+      <c r="D48" s="50"/>
+      <c r="F48" s="56">
         <v>373069</v>
       </c>
-      <c r="G48" s="48"/>
-      <c r="I48" s="53" t="s">
+      <c r="G48" s="57"/>
+      <c r="I48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="49">
         <f>Parâmetros!$H$3 / N48</f>
         <v>3.6487840254976454E-9</v>
       </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
-      <c r="N48" s="47">
+      <c r="K48" s="49"/>
+      <c r="L48" s="50"/>
+      <c r="N48" s="56">
         <v>233980</v>
       </c>
-      <c r="O48" s="48"/>
-      <c r="Q48" s="53" t="s">
+      <c r="O48" s="57"/>
+      <c r="Q48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="49">
         <f>Parâmetros!$H$3 / V48</f>
         <v>4.468428859295927E-9</v>
       </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="52"/>
-      <c r="V48" s="47">
+      <c r="S48" s="49"/>
+      <c r="T48" s="50"/>
+      <c r="V48" s="56">
         <v>191061</v>
       </c>
-      <c r="W48" s="48"/>
-      <c r="Y48" s="53" t="s">
+      <c r="W48" s="57"/>
+      <c r="Y48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="Z48" s="51">
+      <c r="Z48" s="49">
         <f>Parâmetros!$H$3 / AE48</f>
         <v>5.3420673046080717E-9</v>
       </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="52"/>
-      <c r="AE48" s="47">
+      <c r="AA48" s="49"/>
+      <c r="AB48" s="50"/>
+      <c r="AE48" s="56">
         <v>159815</v>
       </c>
-      <c r="AF48" s="48"/>
+      <c r="AF48" s="57"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="52"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="50"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="52"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="50"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="59"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="50"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="59"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="50"/>
+      <c r="V49" s="58"/>
+      <c r="W49" s="59"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="49"/>
+      <c r="AA49" s="49"/>
+      <c r="AB49" s="50"/>
+      <c r="AE49" s="58"/>
+      <c r="AF49" s="59"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65" s="17" t="s">
@@ -20535,29 +20535,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="N48:O49"/>
     <mergeCell ref="V46:W47"/>
     <mergeCell ref="V48:W49"/>
     <mergeCell ref="J46:L47"/>
@@ -20567,6 +20544,29 @@
     <mergeCell ref="Z46:AB47"/>
     <mergeCell ref="Y48:Y49"/>
     <mergeCell ref="Z48:AB49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="R46:T47"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="R48:T49"/>
+    <mergeCell ref="N46:O47"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Dados_Forchheimer.xlsx
+++ b/Dados_Forchheimer.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360283A5-864C-4151-9ED3-F7F1AC80E950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9AF74-DC40-46D7-BD86-1532DE979FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros" sheetId="4" r:id="rId1"/>
     <sheet name="Modelo_1_Ø21,4mm" sheetId="3" r:id="rId2"/>
     <sheet name="Modelo_2_Ø28mm " sheetId="5" r:id="rId3"/>
+    <sheet name="Train" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
   <si>
     <t>m [kg/s]</t>
   </si>
@@ -128,6 +129,24 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>dP/L</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k2</t>
   </si>
 </sst>
 </file>
@@ -691,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,33 +830,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="9" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,6 +854,33 @@
     <xf numFmtId="2" fontId="9" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="10" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -874,6 +893,7 @@
     <xf numFmtId="11" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10093,7 +10113,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10585,8 +10605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20253A0B-AC37-40BE-81EB-FCE066D46965}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+    <sheetView topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18:Z47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10603,42 +10623,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="I1" s="43" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="I1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
-      <c r="Q1" s="43" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="Q1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="45"/>
-      <c r="Y1" s="43" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="56"/>
+      <c r="Y1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="45"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="56"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -12211,42 +12231,42 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="I17" s="46" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="I17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="Q17" s="46" t="s">
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="Q17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="48"/>
-      <c r="Y17" s="46" t="s">
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="59"/>
+      <c r="Y17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="48"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="59"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -15429,164 +15449,164 @@
       </c>
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="51">
         <f>Parâmetros!$H$3 / F48</f>
         <v>2.7269148022420438E-8</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
-      <c r="F48" s="52">
+      <c r="C48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="F48" s="43">
         <v>31308</v>
       </c>
-      <c r="G48" s="53"/>
-      <c r="I48" s="51" t="s">
+      <c r="G48" s="44"/>
+      <c r="I48" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="49">
+      <c r="J48" s="51">
         <f>Parâmetros!$H$3 / N48</f>
         <v>5.4298956069830125E-8</v>
       </c>
-      <c r="K48" s="49"/>
-      <c r="L48" s="50"/>
-      <c r="N48" s="52">
+      <c r="K48" s="51"/>
+      <c r="L48" s="52"/>
+      <c r="N48" s="43">
         <v>15723</v>
       </c>
-      <c r="O48" s="53"/>
-      <c r="Q48" s="51" t="s">
+      <c r="O48" s="44"/>
+      <c r="Q48" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="49">
+      <c r="R48" s="51">
         <f>Parâmetros!$H$3 / V48</f>
         <v>7.7754324798355109E-8</v>
       </c>
-      <c r="S48" s="49"/>
-      <c r="T48" s="50"/>
-      <c r="V48" s="52">
+      <c r="S48" s="51"/>
+      <c r="T48" s="52"/>
+      <c r="V48" s="43">
         <v>10980</v>
       </c>
-      <c r="W48" s="53"/>
-      <c r="Y48" s="51" t="s">
+      <c r="W48" s="44"/>
+      <c r="Y48" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Z48" s="49">
+      <c r="Z48" s="51">
         <f>Parâmetros!$H$3 / AD48</f>
         <v>9.8334771514160225E-8</v>
       </c>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="50"/>
-      <c r="AD48" s="52">
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="52"/>
+      <c r="AD48" s="43">
         <v>8682</v>
       </c>
-      <c r="AE48" s="53"/>
+      <c r="AE48" s="44"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="55"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="50"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="55"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="49"/>
-      <c r="T49" s="50"/>
-      <c r="V49" s="54"/>
-      <c r="W49" s="55"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="50"/>
-      <c r="AD49" s="54"/>
-      <c r="AE49" s="55"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="46"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="52"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="46"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="52"/>
+      <c r="AD49" s="45"/>
+      <c r="AE49" s="46"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51" t="s">
+      <c r="A50" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="51">
         <f>Parâmetros!$G$3 / F50</f>
         <v>8.3693236613694502E-3</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50"/>
-      <c r="F50" s="56">
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="F50" s="47">
         <v>119245</v>
       </c>
-      <c r="G50" s="57"/>
-      <c r="I50" s="51" t="s">
+      <c r="G50" s="48"/>
+      <c r="I50" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="49">
+      <c r="J50" s="51">
         <f>Parâmetros!$G$3 / N50</f>
         <v>1.2233390536896298E-2</v>
       </c>
-      <c r="K50" s="49"/>
-      <c r="L50" s="50"/>
-      <c r="N50" s="56">
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
+      <c r="N50" s="47">
         <v>81580</v>
       </c>
-      <c r="O50" s="57"/>
-      <c r="Q50" s="51" t="s">
+      <c r="O50" s="48"/>
+      <c r="Q50" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="49">
+      <c r="R50" s="51">
         <f>Parâmetros!$G$3 / V50</f>
         <v>1.4981385853248468E-2</v>
       </c>
-      <c r="S50" s="49"/>
-      <c r="T50" s="50"/>
-      <c r="V50" s="56">
+      <c r="S50" s="51"/>
+      <c r="T50" s="52"/>
+      <c r="V50" s="47">
         <v>66616</v>
       </c>
-      <c r="W50" s="57"/>
-      <c r="Y50" s="51" t="s">
+      <c r="W50" s="48"/>
+      <c r="Y50" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Z50" s="49">
+      <c r="Z50" s="51">
         <f>Parâmetros!$G$3 / AD50</f>
         <v>1.6753399362095016E-2</v>
       </c>
-      <c r="AA50" s="49"/>
-      <c r="AB50" s="50"/>
-      <c r="AD50" s="56">
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="52"/>
+      <c r="AD50" s="47">
         <v>59570</v>
       </c>
-      <c r="AE50" s="57"/>
+      <c r="AE50" s="48"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="50"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="50"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="59"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="49"/>
-      <c r="T51" s="50"/>
-      <c r="V51" s="58"/>
-      <c r="W51" s="59"/>
-      <c r="Y51" s="51"/>
-      <c r="Z51" s="49"/>
-      <c r="AA51" s="49"/>
-      <c r="AB51" s="50"/>
-      <c r="AD51" s="58"/>
-      <c r="AE51" s="59"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="50"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="52"/>
+      <c r="V51" s="49"/>
+      <c r="W51" s="50"/>
+      <c r="Y51" s="53"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="52"/>
+      <c r="AD51" s="49"/>
+      <c r="AE51" s="50"/>
     </row>
     <row r="52" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="N52" s="32"/>
@@ -15594,6 +15614,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B50:D51"/>
     <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="AD50:AE51"/>
     <mergeCell ref="F48:G49"/>
@@ -15610,22 +15646,6 @@
     <mergeCell ref="Y50:Y51"/>
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="I48:I49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B50:D51"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="Y17:AE17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15636,8 +15656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182110-318C-4606-A178-4CC63F538A66}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S40" sqref="S40"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15654,43 +15674,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="I1" s="43" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
+      <c r="I1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45"/>
-      <c r="Q1" s="43" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="56"/>
+      <c r="Q1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="45"/>
-      <c r="Y1" s="43" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="56"/>
+      <c r="Y1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="45"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55"/>
+      <c r="AF1" s="56"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -17308,43 +17328,43 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="I17" s="46" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="I17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="48"/>
-      <c r="Q17" s="46" t="s">
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="Q17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="48"/>
-      <c r="Y17" s="46" t="s">
+      <c r="R17" s="58"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="59"/>
+      <c r="Y17" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="48"/>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="58"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="58"/>
+      <c r="AE17" s="58"/>
+      <c r="AF17" s="59"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -20399,87 +20419,87 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="51">
         <f>Parâmetros!$H$3 / F46</f>
         <v>3.9761660167474977E-9</v>
       </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
-      <c r="F46" s="52">
+      <c r="C46" s="51"/>
+      <c r="D46" s="52"/>
+      <c r="F46" s="43">
         <v>214715</v>
       </c>
-      <c r="G46" s="53"/>
-      <c r="I46" s="51" t="s">
+      <c r="G46" s="44"/>
+      <c r="I46" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="49">
+      <c r="J46" s="51">
         <f>Parâmetros!$H$3 / N46</f>
         <v>5.8778261062867577E-9</v>
       </c>
-      <c r="K46" s="49"/>
-      <c r="L46" s="50"/>
-      <c r="N46" s="52">
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
+      <c r="N46" s="43">
         <v>145248</v>
       </c>
-      <c r="O46" s="53"/>
-      <c r="Q46" s="51" t="s">
+      <c r="O46" s="44"/>
+      <c r="Q46" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="49">
+      <c r="R46" s="51">
         <f>Parâmetros!$H$3 / V46</f>
         <v>8.6965721328913011E-9</v>
       </c>
-      <c r="S46" s="49"/>
-      <c r="T46" s="50"/>
-      <c r="V46" s="52">
+      <c r="S46" s="51"/>
+      <c r="T46" s="52"/>
+      <c r="V46" s="43">
         <v>98170</v>
       </c>
-      <c r="W46" s="53"/>
-      <c r="Y46" s="51" t="s">
+      <c r="W46" s="44"/>
+      <c r="Y46" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Z46" s="49">
+      <c r="Z46" s="51">
         <f>Parâmetros!$H$3 / AE46</f>
         <v>1.4028434820170546E-8</v>
       </c>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="50"/>
-      <c r="AE46" s="52">
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="52"/>
+      <c r="AE46" s="43">
         <v>60858</v>
       </c>
-      <c r="AF46" s="53"/>
+      <c r="AF46" s="44"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="50"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="55"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="50"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="55"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="49"/>
-      <c r="S47" s="49"/>
-      <c r="T47" s="50"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="55"/>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="49"/>
-      <c r="AA47" s="49"/>
-      <c r="AB47" s="50"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="55"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="52"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="46"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="52"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="46"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="52"/>
+      <c r="AE47" s="45"/>
+      <c r="AF47" s="46"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51" t="s">
+      <c r="A48" s="53" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="60">
@@ -20488,11 +20508,11 @@
       </c>
       <c r="C48" s="60"/>
       <c r="D48" s="61"/>
-      <c r="F48" s="56">
+      <c r="F48" s="47">
         <v>382213</v>
       </c>
-      <c r="G48" s="57"/>
-      <c r="I48" s="51" t="s">
+      <c r="G48" s="48"/>
+      <c r="I48" s="53" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="60">
@@ -20501,11 +20521,11 @@
       </c>
       <c r="K48" s="60"/>
       <c r="L48" s="61"/>
-      <c r="N48" s="56">
+      <c r="N48" s="47">
         <v>243420</v>
       </c>
-      <c r="O48" s="57"/>
-      <c r="Q48" s="51" t="s">
+      <c r="O48" s="48"/>
+      <c r="Q48" s="53" t="s">
         <v>28</v>
       </c>
       <c r="R48" s="60">
@@ -20514,49 +20534,49 @@
       </c>
       <c r="S48" s="60"/>
       <c r="T48" s="61"/>
-      <c r="V48" s="56">
+      <c r="V48" s="47">
         <v>197663</v>
       </c>
-      <c r="W48" s="57"/>
-      <c r="Y48" s="51" t="s">
+      <c r="W48" s="48"/>
+      <c r="Y48" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Z48" s="49">
+      <c r="Z48" s="51">
         <f>Parâmetros!$G$3 / AE48</f>
         <v>6.102482573070808E-3</v>
       </c>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="50"/>
-      <c r="AE48" s="56">
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="52"/>
+      <c r="AE48" s="47">
         <v>163540</v>
       </c>
-      <c r="AF48" s="57"/>
+      <c r="AF48" s="48"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
       <c r="D49" s="63"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
-      <c r="I49" s="51"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
+      <c r="I49" s="53"/>
       <c r="J49" s="62"/>
       <c r="K49" s="62"/>
       <c r="L49" s="63"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="59"/>
-      <c r="Q49" s="51"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="50"/>
+      <c r="Q49" s="53"/>
       <c r="R49" s="62"/>
       <c r="S49" s="62"/>
       <c r="T49" s="63"/>
-      <c r="V49" s="58"/>
-      <c r="W49" s="59"/>
-      <c r="Y49" s="51"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="50"/>
-      <c r="AE49" s="58"/>
-      <c r="AF49" s="59"/>
+      <c r="V49" s="49"/>
+      <c r="W49" s="50"/>
+      <c r="Y49" s="53"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="52"/>
+      <c r="AE49" s="49"/>
+      <c r="AF49" s="50"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65" s="17" t="s">
@@ -20573,6 +20593,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="I48:I49"/>
     <mergeCell ref="V46:W47"/>
     <mergeCell ref="V48:W49"/>
     <mergeCell ref="J46:L47"/>
@@ -20589,24 +20625,4803 @@
     <mergeCell ref="R48:T49"/>
     <mergeCell ref="N46:O47"/>
     <mergeCell ref="N48:O49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A41B3D0-8C5A-4253-ADCF-68513FA1EDA7}">
+  <dimension ref="A1:F233"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="F206" sqref="F206:F233"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1984.30015</v>
+      </c>
+      <c r="B2">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C2">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D2" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E2" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F2" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6260.6761999999999</v>
+      </c>
+      <c r="B3">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C3">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D3" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E3" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F3" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12544.536041666668</v>
+      </c>
+      <c r="B4">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D4" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E4" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F4" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20745.363700000002</v>
+      </c>
+      <c r="B5">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C5">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D5" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E5" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F5" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30812.633166666667</v>
+      </c>
+      <c r="B6">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C6">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D6" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E6" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F6" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42709.957158333331</v>
+      </c>
+      <c r="B7">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C7">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D7" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E7" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F7" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>56408.862758333344</v>
+      </c>
+      <c r="B8">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C8">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D8" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E8" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F8" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>71884.659233333354</v>
+      </c>
+      <c r="B9">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C9">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D9" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E9" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F9" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>89116.886725000004</v>
+      </c>
+      <c r="B10">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C10">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D10" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E10" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F10" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>108087.39842499999</v>
+      </c>
+      <c r="B11">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C11">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D11" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E11" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F11" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>128778.08180000001</v>
+      </c>
+      <c r="B12">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="C12">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D12" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E12" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F12" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>151171.37594166669</v>
+      </c>
+      <c r="B13">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="C13">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D13" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E13" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F13" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>175249.33963333338</v>
+      </c>
+      <c r="B14">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D14" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E14" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F14" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>200991.95455833332</v>
+      </c>
+      <c r="B15">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D15" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E15" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F15" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>228381.61929166666</v>
+      </c>
+      <c r="B16">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D16" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E16" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F16" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>257402.63368333335</v>
+      </c>
+      <c r="B17">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D17" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E17" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F17" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>288039.42388333339</v>
+      </c>
+      <c r="B18">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="C18">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D18" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E18" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F18" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>320276.39294166671</v>
+      </c>
+      <c r="B19">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="C19">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D19" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E19" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F19" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>354098.83654166671</v>
+      </c>
+      <c r="B20">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="C20">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D20" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E20" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F20" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>389490.67455</v>
+      </c>
+      <c r="B21">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C21">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D21" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E21" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F21" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>426443.1654916667</v>
+      </c>
+      <c r="B22">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="C22">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D22" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E22" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F22" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>464944.02697499999</v>
+      </c>
+      <c r="B23">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="C23">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D23" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E23" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F23" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>504979.74255000002</v>
+      </c>
+      <c r="B24">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="C24">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D24" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E24" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F24" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>546538.74202500016</v>
+      </c>
+      <c r="B25">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="C25">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D25" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E25" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F25" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>589611.87465000001</v>
+      </c>
+      <c r="B26">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C26">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D26" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E26" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F26" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>634185.72375833336</v>
+      </c>
+      <c r="B27">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="C27">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D27" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E27" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F27" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>680249.53991666669</v>
+      </c>
+      <c r="B28">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="C28">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D28" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E28" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F28" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>727795.09903333336</v>
+      </c>
+      <c r="B29">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="C29">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D29" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E29" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F29" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>776808.20810000005</v>
+      </c>
+      <c r="B30">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="C30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D30" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E30" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F30" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>827285.66457500006</v>
+      </c>
+      <c r="B31">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C31">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D31" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E31" s="64">
+        <v>2.73E-8</v>
+      </c>
+      <c r="F31" s="64">
+        <v>8.3700000000000007E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>951.50070833333336</v>
+      </c>
+      <c r="B32">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C32">
+        <v>0.3745</v>
+      </c>
+      <c r="D32" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E32" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F32" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3058.2860500000002</v>
+      </c>
+      <c r="B33">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C33">
+        <v>0.3745</v>
+      </c>
+      <c r="D33" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E33" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F33" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6222.6603750000004</v>
+      </c>
+      <c r="B34">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C34">
+        <v>0.3745</v>
+      </c>
+      <c r="D34" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E34" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F34" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10406.65445</v>
+      </c>
+      <c r="B35">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C35">
+        <v>0.3745</v>
+      </c>
+      <c r="D35" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E35" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F35" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15589.415683333335</v>
+      </c>
+      <c r="B36">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C36">
+        <v>0.3745</v>
+      </c>
+      <c r="D36" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E36" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F36" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21754.013775000003</v>
+      </c>
+      <c r="B37">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C37">
+        <v>0.3745</v>
+      </c>
+      <c r="D37" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E37" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F37" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>28886.681966666667</v>
+      </c>
+      <c r="B38">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C38">
+        <v>0.3745</v>
+      </c>
+      <c r="D38" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E38" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F38" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36975.505591666668</v>
+      </c>
+      <c r="B39">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C39">
+        <v>0.3745</v>
+      </c>
+      <c r="D39" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E39" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F39" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>46008.764925000003</v>
+      </c>
+      <c r="B40">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C40">
+        <v>0.3745</v>
+      </c>
+      <c r="D40" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E40" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F40" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>55975.981683333332</v>
+      </c>
+      <c r="B41">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C41">
+        <v>0.3745</v>
+      </c>
+      <c r="D41" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E41" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F41" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>66867.668358333336</v>
+      </c>
+      <c r="B42">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="C42">
+        <v>0.3745</v>
+      </c>
+      <c r="D42" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E42" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F42" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>78674.377075000011</v>
+      </c>
+      <c r="B43">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="C43">
+        <v>0.3745</v>
+      </c>
+      <c r="D43" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E43" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F43" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>91388.315525000013</v>
+      </c>
+      <c r="B44">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="C44">
+        <v>0.3745</v>
+      </c>
+      <c r="D44" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E44" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F44" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>105001.90495833334</v>
+      </c>
+      <c r="B45">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="C45">
+        <v>0.3745</v>
+      </c>
+      <c r="D45" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E45" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F45" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>119505.832175</v>
+      </c>
+      <c r="B46">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C46">
+        <v>0.3745</v>
+      </c>
+      <c r="D46" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E46" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F46" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>134893.68693333335</v>
+      </c>
+      <c r="B47">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="C47">
+        <v>0.3745</v>
+      </c>
+      <c r="D47" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E47" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F47" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>151157.877175</v>
+      </c>
+      <c r="B48">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="C48">
+        <v>0.3745</v>
+      </c>
+      <c r="D48" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E48" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F48" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>168288.67141666668</v>
+      </c>
+      <c r="B49">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="C49">
+        <v>0.3745</v>
+      </c>
+      <c r="D49" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E49" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F49" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>186278.41414166667</v>
+      </c>
+      <c r="B50">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="C50">
+        <v>0.3745</v>
+      </c>
+      <c r="D50" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E50" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F50" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>205123.83505833332</v>
+      </c>
+      <c r="B51">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C51">
+        <v>0.3745</v>
+      </c>
+      <c r="D51" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E51" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F51" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>224815.91257500002</v>
+      </c>
+      <c r="B52">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="C52">
+        <v>0.3745</v>
+      </c>
+      <c r="D52" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E52" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F52" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>245352.05888333335</v>
+      </c>
+      <c r="B53">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="C53">
+        <v>0.3745</v>
+      </c>
+      <c r="D53" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E53" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F53" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>266723.94503333338</v>
+      </c>
+      <c r="B54">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="C54">
+        <v>0.3745</v>
+      </c>
+      <c r="D54" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E54" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F54" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>288927.59086666669</v>
+      </c>
+      <c r="B55">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="C55">
+        <v>0.3745</v>
+      </c>
+      <c r="D55" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E55" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F55" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>311956.86201666668</v>
+      </c>
+      <c r="B56">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C56">
+        <v>0.3745</v>
+      </c>
+      <c r="D56" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E56" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F56" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>335808.13080000004</v>
+      </c>
+      <c r="B57">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="C57">
+        <v>0.3745</v>
+      </c>
+      <c r="D57" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E57" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F57" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>360473.05765000003</v>
+      </c>
+      <c r="B58">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="C58">
+        <v>0.3745</v>
+      </c>
+      <c r="D58" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E58" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F58" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>385948.3895833334</v>
+      </c>
+      <c r="B59">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="C59">
+        <v>0.3745</v>
+      </c>
+      <c r="D59" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E59" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F59" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>412226.80115833331</v>
+      </c>
+      <c r="B60">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="C60">
+        <v>0.3745</v>
+      </c>
+      <c r="D60" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E60" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F60" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>439306.23170833336</v>
+      </c>
+      <c r="B61">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C61">
+        <v>0.3745</v>
+      </c>
+      <c r="D61" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E61" s="64">
+        <v>5.4300000000000003E-8</v>
+      </c>
+      <c r="F61" s="64">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>658.33333333333337</v>
+      </c>
+      <c r="B62">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C62">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D62" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E62" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F62" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2070.7188750000005</v>
+      </c>
+      <c r="B63">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C63">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D63" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E63" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F63" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4259.6387333333332</v>
+      </c>
+      <c r="B64">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C64">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D64" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E64" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F64" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7184.7886583333338</v>
+      </c>
+      <c r="B65">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C65">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D65" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E65" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F65" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10831.313966666668</v>
+      </c>
+      <c r="B66">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C66">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D66" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E66" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F66" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>15184.644999999999</v>
+      </c>
+      <c r="B67">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C67">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D67" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E67" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F67" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>20232.818541666667</v>
+      </c>
+      <c r="B68">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C68">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D68" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E68" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F68" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>25966.17091666667</v>
+      </c>
+      <c r="B69">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C69">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D69" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E69" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F69" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>32375.484150000004</v>
+      </c>
+      <c r="B70">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C70">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D70" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E70" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F70" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>39452.669925000002</v>
+      </c>
+      <c r="B71">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C71">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D71" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E71" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F71" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>47190.531133333337</v>
+      </c>
+      <c r="B72">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="C72">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D72" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E72" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F72" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>55582.001616666661</v>
+      </c>
+      <c r="B73">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="C73">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D73" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E73" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F73" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>64621.613724999923</v>
+      </c>
+      <c r="B74">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="C74">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D74" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E74" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F74" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74304.092600000004</v>
+      </c>
+      <c r="B75">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="C75">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D75" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E75" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F75" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>84622.464516666674</v>
+      </c>
+      <c r="B76">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C76">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D76" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E76" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F76" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>95573.934475000002</v>
+      </c>
+      <c r="B77">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="C77">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D77" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E77" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F77" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>107150.84085000001</v>
+      </c>
+      <c r="B78">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="C78">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D78" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E78" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F78" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>119349.97729166667</v>
+      </c>
+      <c r="B79">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="C79">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D79" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E79" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F79" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>132168.00186666666</v>
+      </c>
+      <c r="B80">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="C80">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D80" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E80" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F80" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>145601.34756666666</v>
+      </c>
+      <c r="B81">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C81">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D81" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E81" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F81" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>159646.20810833335</v>
+      </c>
+      <c r="B82">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="C82">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D82" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E82" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F82" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>174298.049375</v>
+      </c>
+      <c r="B83">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="C83">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D83" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E83" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F83" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>189553.61316666668</v>
+      </c>
+      <c r="B84">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="C84">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D84" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E84" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F84" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>205411.57796666666</v>
+      </c>
+      <c r="B85">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="C85">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D85" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E85" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F85" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>221863.81237500001</v>
+      </c>
+      <c r="B86">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C86">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D86" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E86" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F86" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>238911.22569166668</v>
+      </c>
+      <c r="B87">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="C87">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D87" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E87" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F87" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>256548.49670833335</v>
+      </c>
+      <c r="B88">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="C88">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D88" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E88" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F88" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>274774.55405833333</v>
+      </c>
+      <c r="B89">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="C89">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D89" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E89" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F89" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>293587.03540833335</v>
+      </c>
+      <c r="B90">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="C90">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D90" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E90" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F90" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>312979.60857499996</v>
+      </c>
+      <c r="B91">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C91">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D91" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E91" s="64">
+        <v>7.7799999999999995E-8</v>
+      </c>
+      <c r="F91" s="64">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>478.19955833333336</v>
+      </c>
+      <c r="B92">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C92">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D92" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E92" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F92" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1586.3299666666669</v>
+      </c>
+      <c r="B93">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C93">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D93" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E93" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F93" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3318.9128333333333</v>
+      </c>
+      <c r="B94">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C94">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D94" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E94" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F94" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5669.6023833333338</v>
+      </c>
+      <c r="B95">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C95">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D95" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E95" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F95" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8629.790766666667</v>
+      </c>
+      <c r="B96">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C96">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D96" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E96" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F96" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>12184.738691666667</v>
+      </c>
+      <c r="B97">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C97">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D97" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E97" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F97" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>16314.634675000001</v>
+      </c>
+      <c r="B98">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C98">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D98" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E98" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F98" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>21008.022183333334</v>
+      </c>
+      <c r="B99">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C99">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D99" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E99" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F99" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>26255.445366666667</v>
+      </c>
+      <c r="B100">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C100">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D100" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E100" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F100" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>32052.476600000002</v>
+      </c>
+      <c r="B101">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C101">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D101" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E101" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F101" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>38391.067608333331</v>
+      </c>
+      <c r="B102">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="C102">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D102" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E102" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F102" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>45263.883133333336</v>
+      </c>
+      <c r="B103">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="C103">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D103" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E103" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F103" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>52666.170158333342</v>
+      </c>
+      <c r="B104">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="C104">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D104" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E104" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F104" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>60592.287825000007</v>
+      </c>
+      <c r="B105">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="C105">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D105" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E105" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F105" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>69039.380533333329</v>
+      </c>
+      <c r="B106">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C106">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D106" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E106" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F106" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>78004.556941666669</v>
+      </c>
+      <c r="B107">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="C107">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D107" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E107" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F107" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>87486.554358333335</v>
+      </c>
+      <c r="B108">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="C108">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D108" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E108" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F108" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>97480.668300000019</v>
+      </c>
+      <c r="B109">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="C109">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D109" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E109" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F109" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>107986.85341666666</v>
+      </c>
+      <c r="B110">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="C110">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D110" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E110" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F110" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>119000.96756666667</v>
+      </c>
+      <c r="B111">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C111">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D111" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E111" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F111" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>130521.46945833333</v>
+      </c>
+      <c r="B112">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="C112">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D112" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E112" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F112" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>142543.85504166668</v>
+      </c>
+      <c r="B113">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="C113">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D113" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E113" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F113" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>155070.88480833333</v>
+      </c>
+      <c r="B114">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="C114">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D114" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E114" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F114" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>168103.15225833331</v>
+      </c>
+      <c r="B115">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="C115">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D115" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E115" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F115" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>181624.43208333335</v>
+      </c>
+      <c r="B116">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C116">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D116" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E116" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F116" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>195633.38156666668</v>
+      </c>
+      <c r="B117">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="C117">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D117" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E117" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F117" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>210130.66870000001</v>
+      </c>
+      <c r="B118">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="C118">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D118" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E118" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F118" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>225115.60618333335</v>
+      </c>
+      <c r="B119">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="C119">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D119" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E119" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F119" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>240589.65677499998</v>
+      </c>
+      <c r="B120">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="C120">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D120" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E120" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F120" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>256545.83039166665</v>
+      </c>
+      <c r="B121">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C121">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D121" s="64">
+        <f>Parâmetros!$B$13</f>
+        <v>3.5968094290949535E-4</v>
+      </c>
+      <c r="E121" s="64">
+        <v>9.83E-8</v>
+      </c>
+      <c r="F121" s="64">
+        <v>1.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2483.3908166666665</v>
+      </c>
+      <c r="B122">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C122">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D122">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E122" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F122" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>7970.5475750000005</v>
+      </c>
+      <c r="B123">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C123">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D123">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E123" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F123" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>16247.063983333333</v>
+      </c>
+      <c r="B124">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C124">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D124">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E124" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F124" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>27169.969674999997</v>
+      </c>
+      <c r="B125">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C125">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D125">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E125" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F125" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>40643.990108333332</v>
+      </c>
+      <c r="B126">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C126">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D126">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E126" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F126" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>56602.313266666672</v>
+      </c>
+      <c r="B127">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C127">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D127">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E127" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F127" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>74991.541116666674</v>
+      </c>
+      <c r="B128">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C128">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D128">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E128" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F128" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>95769.792399999991</v>
+      </c>
+      <c r="B129">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C129">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D129">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E129" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F129" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>118900.28025000001</v>
+      </c>
+      <c r="B130">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C130">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D130">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E130" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F130" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>144351.39174166668</v>
+      </c>
+      <c r="B131">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C131">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D131">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E131" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F131" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>305410.92903333332</v>
+      </c>
+      <c r="B132">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C132">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D132">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E132" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F132" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>520712.85214166663</v>
+      </c>
+      <c r="B133">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C133">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D133">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E133" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F133" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>787708.64500833326</v>
+      </c>
+      <c r="B134">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C134">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D134">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E134" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F134" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1104290.7905166666</v>
+      </c>
+      <c r="B135">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C135">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D135">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E135" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F135" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1468854.482975</v>
+      </c>
+      <c r="B136">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="C136">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D136">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E136" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F136" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1879846.5865083335</v>
+      </c>
+      <c r="B137">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="C137">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D137">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E137" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F137" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2335883.7977500004</v>
+      </c>
+      <c r="B138">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="C138">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D138">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E138" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F138" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2835657.1606083331</v>
+      </c>
+      <c r="B139">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="C139">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D139">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E139" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F139" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>3379486.7546833334</v>
+      </c>
+      <c r="B140">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="C140">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D140">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E140" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F140" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>3966026.1230000001</v>
+      </c>
+      <c r="B141">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="C141">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D141">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E141" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F141" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>4594568.2112583332</v>
+      </c>
+      <c r="B142">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="C142">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D142">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E142" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F142" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5264601.5671250001</v>
+      </c>
+      <c r="B143">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="C143">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D143">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E143" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F143" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5975605.239108325</v>
+      </c>
+      <c r="B144">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="C144">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D144">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E144" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F144" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>6726144.8021499999</v>
+      </c>
+      <c r="B145">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="C145">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D145">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E145" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F145" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>7517374.4223333336</v>
+      </c>
+      <c r="B146">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="C146">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D146">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E146" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F146" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>8347834.1974083334</v>
+      </c>
+      <c r="B147">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="C147">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D147">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E147" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F147" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>9218463.2773166653</v>
+      </c>
+      <c r="B148">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="C148">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D148">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E148" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F148" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>10126271.973850001</v>
+      </c>
+      <c r="B149">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="C149">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D149">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E149" s="64">
+        <v>3.9799999999999999E-9</v>
+      </c>
+      <c r="F149" s="64">
+        <v>2.6099999999999999E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1369.5141333333333</v>
+      </c>
+      <c r="B150">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C150">
+        <v>0.3745</v>
+      </c>
+      <c r="D150">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E150" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F150" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>4465.2653333333328</v>
+      </c>
+      <c r="B151">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C151">
+        <v>0.3745</v>
+      </c>
+      <c r="D151">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E151" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F151" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>9029.4853416666665</v>
+      </c>
+      <c r="B152">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C152">
+        <v>0.3745</v>
+      </c>
+      <c r="D152">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E152" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F152" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>14911.587483333335</v>
+      </c>
+      <c r="B153">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C153">
+        <v>0.3745</v>
+      </c>
+      <c r="D153">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E153" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F153" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>22001.008066666665</v>
+      </c>
+      <c r="B154">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C154">
+        <v>0.3745</v>
+      </c>
+      <c r="D154">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E154" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F154" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>30215.599125000001</v>
+      </c>
+      <c r="B155">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C155">
+        <v>0.3745</v>
+      </c>
+      <c r="D155">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E155" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F155" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>39495.497758333331</v>
+      </c>
+      <c r="B156">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C156">
+        <v>0.3745</v>
+      </c>
+      <c r="D156">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E156" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F156" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>49804.484825</v>
+      </c>
+      <c r="B157">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C157">
+        <v>0.3745</v>
+      </c>
+      <c r="D157">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E157" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F157" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>61110.139841666671</v>
+      </c>
+      <c r="B158">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C158">
+        <v>0.3745</v>
+      </c>
+      <c r="D158">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E158" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F158" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>73394.751633333333</v>
+      </c>
+      <c r="B159">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C159">
+        <v>0.3745</v>
+      </c>
+      <c r="D159">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E159" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F159" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>149323.71220833337</v>
+      </c>
+      <c r="B160">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C160">
+        <v>0.3745</v>
+      </c>
+      <c r="D160">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E160" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F160" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>250824.48804166669</v>
+      </c>
+      <c r="B161">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C161">
+        <v>0.3745</v>
+      </c>
+      <c r="D161">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E161" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F161" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>381761.97831666662</v>
+      </c>
+      <c r="B162">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C162">
+        <v>0.3745</v>
+      </c>
+      <c r="D162">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E162" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F162" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>542324.79762500001</v>
+      </c>
+      <c r="B163">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C163">
+        <v>0.3745</v>
+      </c>
+      <c r="D163">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E163" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F163" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>730848.9910416659</v>
+      </c>
+      <c r="B164">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="C164">
+        <v>0.3745</v>
+      </c>
+      <c r="D164">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E164" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F164" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>952896.13699166675</v>
+      </c>
+      <c r="B165">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="C165">
+        <v>0.3745</v>
+      </c>
+      <c r="D165">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E165" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F165" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1209237.1575</v>
+      </c>
+      <c r="B166">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="C166">
+        <v>0.3745</v>
+      </c>
+      <c r="D166">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E166" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F166" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1487015.5380916668</v>
+      </c>
+      <c r="B167">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="C167">
+        <v>0.3745</v>
+      </c>
+      <c r="D167">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E167" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F167" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1777630.7487083336</v>
+      </c>
+      <c r="B168">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="C168">
+        <v>0.3745</v>
+      </c>
+      <c r="D168">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E168" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F168" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2090312.4522500001</v>
+      </c>
+      <c r="B169">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="C169">
+        <v>0.3745</v>
+      </c>
+      <c r="D169">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E169" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F169" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2421180.8492916664</v>
+      </c>
+      <c r="B170">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="C170">
+        <v>0.3745</v>
+      </c>
+      <c r="D170">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E170" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F170" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2767297.1956999996</v>
+      </c>
+      <c r="B171">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="C171">
+        <v>0.3745</v>
+      </c>
+      <c r="D171">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E171" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F171" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3122746.3222583337</v>
+      </c>
+      <c r="B172">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="C172">
+        <v>0.3745</v>
+      </c>
+      <c r="D172">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E172" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F172" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>3487711.4193250001</v>
+      </c>
+      <c r="B173">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="C173">
+        <v>0.3745</v>
+      </c>
+      <c r="D173">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E173" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F173" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>3867503.0264666667</v>
+      </c>
+      <c r="B174">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="C174">
+        <v>0.3745</v>
+      </c>
+      <c r="D174">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E174" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F174" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>4266551.6694250004</v>
+      </c>
+      <c r="B175">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="C175">
+        <v>0.3745</v>
+      </c>
+      <c r="D175">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E175" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F175" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>4694146.3733583335</v>
+      </c>
+      <c r="B176">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="C176">
+        <v>0.3745</v>
+      </c>
+      <c r="D176">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E176" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F176" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>5148406.859908334</v>
+      </c>
+      <c r="B177">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="C177">
+        <v>0.3745</v>
+      </c>
+      <c r="D177">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E177" s="64">
+        <v>5.8800000000000004E-9</v>
+      </c>
+      <c r="F177" s="64">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>885.2348833333333</v>
+      </c>
+      <c r="B178">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C178">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D178">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E178" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F178" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2927.1662083333335</v>
+      </c>
+      <c r="B179">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C179">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D179">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E179" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F179" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>6003.5740999999998</v>
+      </c>
+      <c r="B180">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C180">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D180">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E180" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F180" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>10030.104591666666</v>
+      </c>
+      <c r="B181">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C181">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D181">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E181" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F181" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>14937.990291666667</v>
+      </c>
+      <c r="B182">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C182">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D182">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E182" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F182" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>20673.045025000003</v>
+      </c>
+      <c r="B183">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C183">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D183">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E183" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F183" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>27192.227016666668</v>
+      </c>
+      <c r="B184">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C184">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D184">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E184" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F184" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>34461.94896666667</v>
+      </c>
+      <c r="B185">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C185">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D185">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E185" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F185" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>42463.264241666671</v>
+      </c>
+      <c r="B186">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C186">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D186">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E186" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F186" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>51176.670708333339</v>
+      </c>
+      <c r="B187">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C187">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D187">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E187" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F187" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>105251.24630833333</v>
+      </c>
+      <c r="B188">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C188">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D188">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E188" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F188" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>177976.0877</v>
+      </c>
+      <c r="B189">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C189">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D189">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E189" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F189" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>270188.09240833332</v>
+      </c>
+      <c r="B190">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C190">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D190">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E190" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F190" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>381014.03823333333</v>
+      </c>
+      <c r="B191">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C191">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D191">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E191" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F191" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>509577.04858333332</v>
+      </c>
+      <c r="B192">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="C192">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D192">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E192" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F192" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>657691.73343333346</v>
+      </c>
+      <c r="B193">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="C193">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D193">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E193" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F193" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>829242.27963333344</v>
+      </c>
+      <c r="B194">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="C194">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D194">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E194" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F194" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>1023883.3626666667</v>
+      </c>
+      <c r="B195">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="C195">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D195">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E195" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F195" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>1235408.4496416666</v>
+      </c>
+      <c r="B196">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="C196">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D196">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E196" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F196" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>1457118.0309333336</v>
+      </c>
+      <c r="B197">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="C197">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D197">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E197" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F197" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>1689320.01095</v>
+      </c>
+      <c r="B198">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="C198">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D198">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E198" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F198" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>1932812.4605416667</v>
+      </c>
+      <c r="B199">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="C199">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D199">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E199" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F199" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2186599.2222833335</v>
+      </c>
+      <c r="B200">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="C200">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D200">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E200" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F200" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2449971.370616667</v>
+      </c>
+      <c r="B201">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="C201">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D201">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E201" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F201" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2721215.5247583333</v>
+      </c>
+      <c r="B202">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="C202">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D202">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E202" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F202" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>3003762.3778416668</v>
+      </c>
+      <c r="B203">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="C203">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D203">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E203" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F203" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>3303174.4525833335</v>
+      </c>
+      <c r="B204">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="C204">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D204">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E204" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F204" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3619524.9519416671</v>
+      </c>
+      <c r="B205">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="C205">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="D205">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E205" s="64">
+        <v>8.7000000000000001E-9</v>
+      </c>
+      <c r="F205" s="64">
+        <v>5.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>35.830674000000002</v>
+      </c>
+      <c r="B206">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="C206">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D206">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E206" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F206" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>120.79186899999999</v>
+      </c>
+      <c r="B207">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="C207">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D207">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E207" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F207" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>248.947405</v>
+      </c>
+      <c r="B208">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="C208">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D208">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E208" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F208" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>418.33646500000009</v>
+      </c>
+      <c r="B209">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="C209">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D209">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E209" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F209" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>626.67390699999999</v>
+      </c>
+      <c r="B210">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="C210">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D210">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E210" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F210" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>872.44679099999996</v>
+      </c>
+      <c r="B211">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="C211">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D211">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E211" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F211" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1155.3128790000001</v>
+      </c>
+      <c r="B212">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="C212">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D212">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E212" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F212" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>1472.5427590000011</v>
+      </c>
+      <c r="B213">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="C213">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D213">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E213" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F213" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>1822.9920789999999</v>
+      </c>
+      <c r="B214">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="C214">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D214">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E214" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F214" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2206.0428460000003</v>
+      </c>
+      <c r="B215">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="C215">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D215">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E215" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F215" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>4569.2701589999997</v>
+      </c>
+      <c r="B216">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="C216">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D216">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E216" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F216" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>7644.9971269999996</v>
+      </c>
+      <c r="B217">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="C217">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D217">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E217" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F217" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>11426.549859999999</v>
+      </c>
+      <c r="B218">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="C218">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D218">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E218" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F218" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>15916.046148000001</v>
+      </c>
+      <c r="B219">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="C219">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D219">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E219" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F219" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>21105.675640999994</v>
+      </c>
+      <c r="B220">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="C220">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D220">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E220" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F220" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>27020.062475000002</v>
+      </c>
+      <c r="B221">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="C221">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D221">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E221" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F221" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>33860.145925000004</v>
+      </c>
+      <c r="B222">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="C222">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D222">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E222" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F222" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>41800.160248999993</v>
+      </c>
+      <c r="B223">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="C223">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D223">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E223" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F223" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>50665.122582000004</v>
+      </c>
+      <c r="B224">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="C224">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D224">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E224" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F224" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>60329.752187999999</v>
+      </c>
+      <c r="B225">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="C225">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D225">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E225" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F225" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>70475.873884000001</v>
+      </c>
+      <c r="B226">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="C226">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D226">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E226" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F226" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>81204.789472999997</v>
+      </c>
+      <c r="B227">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="C227">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D227">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E227" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F227" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>92142.103314999986</v>
+      </c>
+      <c r="B228">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="C228">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D228">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E228" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F228" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>103453.472369</v>
+      </c>
+      <c r="B229">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="C229">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D229">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E229" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F229" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>115128.50371700012</v>
+      </c>
+      <c r="B230">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="C230">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D230">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E230" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F230" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>127007.37202900001</v>
+      </c>
+      <c r="B231">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="C231">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D231">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E231" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F231" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>139528.424608</v>
+      </c>
+      <c r="B232">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="C232">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D232">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E232" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F232" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>152603.17908600002</v>
+      </c>
+      <c r="B233">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="C233">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="D233">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="E233" s="64">
+        <v>1.4E-8</v>
+      </c>
+      <c r="F233" s="64">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Dados_Forchheimer.xlsx
+++ b/Dados_Forchheimer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9AF74-DC40-46D7-BD86-1532DE979FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6C34E-CED9-4EB5-B651-4D82EA225BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
   <si>
     <t>m [kg/s]</t>
   </si>
@@ -800,6 +800,7 @@
     <xf numFmtId="2" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -893,7 +894,6 @@
     <xf numFmtId="11" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10124,26 +10124,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="11"/>
       <c r="G2" s="13" t="s">
         <v>9</v>
@@ -10155,11 +10155,11 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="12"/>
       <c r="G3" s="15">
         <v>998</v>
@@ -10181,13 +10181,13 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -10310,13 +10310,13 @@
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="36">
         <f t="shared" ref="B11" si="1">120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
@@ -10326,13 +10326,13 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="36">
         <f>10.7/1000</f>
         <v>1.0699999999999999E-2</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
@@ -10342,13 +10342,13 @@
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="38">
         <f>PI()*B12^2</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -10366,13 +10366,13 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -10495,13 +10495,13 @@
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="36">
         <f t="shared" ref="B21" si="4">120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
@@ -10511,13 +10511,13 @@
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="36">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
@@ -10527,13 +10527,13 @@
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="38">
         <f>PI()*B22^2</f>
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -10623,42 +10623,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56"/>
-      <c r="Y1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="57"/>
+      <c r="Y1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -12231,42 +12231,42 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="I17" s="57" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="I17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="Q17" s="57" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="Q17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
-      <c r="Y17" s="57" t="s">
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
+      <c r="Y17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -15449,164 +15449,164 @@
       </c>
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="52">
         <f>Parâmetros!$H$3 / F48</f>
         <v>2.7269148022420438E-8</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52"/>
-      <c r="F48" s="43">
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="F48" s="44">
         <v>31308</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="I48" s="53" t="s">
+      <c r="G48" s="45"/>
+      <c r="I48" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="52">
         <f>Parâmetros!$H$3 / N48</f>
         <v>5.4298956069830125E-8</v>
       </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
-      <c r="N48" s="43">
+      <c r="K48" s="52"/>
+      <c r="L48" s="53"/>
+      <c r="N48" s="44">
         <v>15723</v>
       </c>
-      <c r="O48" s="44"/>
-      <c r="Q48" s="53" t="s">
+      <c r="O48" s="45"/>
+      <c r="Q48" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="52">
         <f>Parâmetros!$H$3 / V48</f>
         <v>7.7754324798355109E-8</v>
       </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="52"/>
-      <c r="V48" s="43">
+      <c r="S48" s="52"/>
+      <c r="T48" s="53"/>
+      <c r="V48" s="44">
         <v>10980</v>
       </c>
-      <c r="W48" s="44"/>
-      <c r="Y48" s="53" t="s">
+      <c r="W48" s="45"/>
+      <c r="Y48" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="Z48" s="51">
+      <c r="Z48" s="52">
         <f>Parâmetros!$H$3 / AD48</f>
         <v>9.8334771514160225E-8</v>
       </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="52"/>
-      <c r="AD48" s="43">
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="53"/>
+      <c r="AD48" s="44">
         <v>8682</v>
       </c>
-      <c r="AE48" s="44"/>
+      <c r="AE48" s="45"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="46"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="46"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="51"/>
-      <c r="S49" s="51"/>
-      <c r="T49" s="52"/>
-      <c r="V49" s="45"/>
-      <c r="W49" s="46"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="52"/>
-      <c r="AD49" s="45"/>
-      <c r="AE49" s="46"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="53"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="53"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="47"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="52"/>
+      <c r="S49" s="52"/>
+      <c r="T49" s="53"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="47"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="53"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="47"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="51">
+      <c r="B50" s="52">
         <f>Parâmetros!$G$3 / F50</f>
         <v>8.3693236613694502E-3</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="52"/>
-      <c r="F50" s="47">
+      <c r="C50" s="52"/>
+      <c r="D50" s="53"/>
+      <c r="F50" s="48">
         <v>119245</v>
       </c>
-      <c r="G50" s="48"/>
-      <c r="I50" s="53" t="s">
+      <c r="G50" s="49"/>
+      <c r="I50" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="51">
+      <c r="J50" s="52">
         <f>Parâmetros!$G$3 / N50</f>
         <v>1.2233390536896298E-2</v>
       </c>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
-      <c r="N50" s="47">
+      <c r="K50" s="52"/>
+      <c r="L50" s="53"/>
+      <c r="N50" s="48">
         <v>81580</v>
       </c>
-      <c r="O50" s="48"/>
-      <c r="Q50" s="53" t="s">
+      <c r="O50" s="49"/>
+      <c r="Q50" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="51">
+      <c r="R50" s="52">
         <f>Parâmetros!$G$3 / V50</f>
         <v>1.4981385853248468E-2</v>
       </c>
-      <c r="S50" s="51"/>
-      <c r="T50" s="52"/>
-      <c r="V50" s="47">
+      <c r="S50" s="52"/>
+      <c r="T50" s="53"/>
+      <c r="V50" s="48">
         <v>66616</v>
       </c>
-      <c r="W50" s="48"/>
-      <c r="Y50" s="53" t="s">
+      <c r="W50" s="49"/>
+      <c r="Y50" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Z50" s="51">
+      <c r="Z50" s="52">
         <f>Parâmetros!$G$3 / AD50</f>
         <v>1.6753399362095016E-2</v>
       </c>
-      <c r="AA50" s="51"/>
-      <c r="AB50" s="52"/>
-      <c r="AD50" s="47">
+      <c r="AA50" s="52"/>
+      <c r="AB50" s="53"/>
+      <c r="AD50" s="48">
         <v>59570</v>
       </c>
-      <c r="AE50" s="48"/>
+      <c r="AE50" s="49"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="52"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="50"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="52"/>
-      <c r="V51" s="49"/>
-      <c r="W51" s="50"/>
-      <c r="Y51" s="53"/>
-      <c r="Z51" s="51"/>
-      <c r="AA51" s="51"/>
-      <c r="AB51" s="52"/>
-      <c r="AD51" s="49"/>
-      <c r="AE51" s="50"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="53"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="53"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="51"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="53"/>
+      <c r="V51" s="50"/>
+      <c r="W51" s="51"/>
+      <c r="Y51" s="54"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="53"/>
+      <c r="AD51" s="50"/>
+      <c r="AE51" s="51"/>
     </row>
     <row r="52" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="N52" s="32"/>
@@ -15674,43 +15674,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="56"/>
-      <c r="Y1" s="54" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="57"/>
+      <c r="Y1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="57"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -17328,43 +17328,43 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="I17" s="57" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="I17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="Q17" s="57" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="Q17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="58"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
-      <c r="Y17" s="57" t="s">
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
+      <c r="Y17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="58"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="58"/>
-      <c r="AC17" s="58"/>
-      <c r="AD17" s="58"/>
-      <c r="AE17" s="58"/>
-      <c r="AF17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -20419,164 +20419,164 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="51">
+      <c r="B46" s="52">
         <f>Parâmetros!$H$3 / F46</f>
         <v>3.9761660167474977E-9</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52"/>
-      <c r="F46" s="43">
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="F46" s="44">
         <v>214715</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="I46" s="53" t="s">
+      <c r="G46" s="45"/>
+      <c r="I46" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="51">
+      <c r="J46" s="52">
         <f>Parâmetros!$H$3 / N46</f>
         <v>5.8778261062867577E-9</v>
       </c>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
-      <c r="N46" s="43">
+      <c r="K46" s="52"/>
+      <c r="L46" s="53"/>
+      <c r="N46" s="44">
         <v>145248</v>
       </c>
-      <c r="O46" s="44"/>
-      <c r="Q46" s="53" t="s">
+      <c r="O46" s="45"/>
+      <c r="Q46" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="51">
+      <c r="R46" s="52">
         <f>Parâmetros!$H$3 / V46</f>
         <v>8.6965721328913011E-9</v>
       </c>
-      <c r="S46" s="51"/>
-      <c r="T46" s="52"/>
-      <c r="V46" s="43">
+      <c r="S46" s="52"/>
+      <c r="T46" s="53"/>
+      <c r="V46" s="44">
         <v>98170</v>
       </c>
-      <c r="W46" s="44"/>
-      <c r="Y46" s="53" t="s">
+      <c r="W46" s="45"/>
+      <c r="Y46" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="Z46" s="51">
+      <c r="Z46" s="52">
         <f>Parâmetros!$H$3 / AE46</f>
         <v>1.4028434820170546E-8</v>
       </c>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="52"/>
-      <c r="AE46" s="43">
+      <c r="AA46" s="52"/>
+      <c r="AB46" s="53"/>
+      <c r="AE46" s="44">
         <v>60858</v>
       </c>
-      <c r="AF46" s="44"/>
+      <c r="AF46" s="45"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="53"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="52"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="51"/>
-      <c r="S47" s="51"/>
-      <c r="T47" s="52"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="46"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="51"/>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="52"/>
-      <c r="AE47" s="45"/>
-      <c r="AF47" s="46"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="53"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="47"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="52"/>
+      <c r="S47" s="52"/>
+      <c r="T47" s="53"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="47"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="52"/>
+      <c r="AA47" s="52"/>
+      <c r="AB47" s="53"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="47"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="60">
+      <c r="B48" s="61">
         <f>Parâmetros!$G$3 / F48</f>
         <v>2.6111095122353244E-3</v>
       </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="F48" s="47">
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="F48" s="48">
         <v>382213</v>
       </c>
-      <c r="G48" s="48"/>
-      <c r="I48" s="53" t="s">
+      <c r="G48" s="49"/>
+      <c r="I48" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="J48" s="60">
+      <c r="J48" s="61">
         <f>Parâmetros!$G$3 / N48</f>
         <v>4.0999096212307948E-3</v>
       </c>
-      <c r="K48" s="60"/>
-      <c r="L48" s="61"/>
-      <c r="N48" s="47">
+      <c r="K48" s="61"/>
+      <c r="L48" s="62"/>
+      <c r="N48" s="48">
         <v>243420</v>
       </c>
-      <c r="O48" s="48"/>
-      <c r="Q48" s="53" t="s">
+      <c r="O48" s="49"/>
+      <c r="Q48" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R48" s="60">
+      <c r="R48" s="61">
         <f>Parâmetros!$G$3 / V48</f>
         <v>5.0489975362106214E-3</v>
       </c>
-      <c r="S48" s="60"/>
-      <c r="T48" s="61"/>
-      <c r="V48" s="47">
+      <c r="S48" s="61"/>
+      <c r="T48" s="62"/>
+      <c r="V48" s="48">
         <v>197663</v>
       </c>
-      <c r="W48" s="48"/>
-      <c r="Y48" s="53" t="s">
+      <c r="W48" s="49"/>
+      <c r="Y48" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="Z48" s="51">
+      <c r="Z48" s="52">
         <f>Parâmetros!$G$3 / AE48</f>
         <v>6.102482573070808E-3</v>
       </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="52"/>
-      <c r="AE48" s="47">
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="53"/>
+      <c r="AE48" s="48">
         <v>163540</v>
       </c>
-      <c r="AF48" s="48"/>
+      <c r="AF48" s="49"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="63"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="50"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="62"/>
-      <c r="T49" s="63"/>
-      <c r="V49" s="49"/>
-      <c r="W49" s="50"/>
-      <c r="Y49" s="53"/>
-      <c r="Z49" s="51"/>
-      <c r="AA49" s="51"/>
-      <c r="AB49" s="52"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="50"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="64"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="64"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="51"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="63"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="64"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="51"/>
+      <c r="Y49" s="54"/>
+      <c r="Z49" s="52"/>
+      <c r="AA49" s="52"/>
+      <c r="AB49" s="53"/>
+      <c r="AE49" s="50"/>
+      <c r="AF49" s="51"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65" s="17" t="s">
@@ -20633,15 +20633,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A41B3D0-8C5A-4253-ADCF-68513FA1EDA7}">
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="F206" sqref="F206:F233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -20660,8 +20660,26 @@
       <c r="F1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1984.30015</v>
       </c>
@@ -20671,18 +20689,36 @@
       <c r="C2">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>35.830674000000002</v>
+      </c>
+      <c r="I2">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="J2">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K2">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L2" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M2" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6260.6761999999999</v>
       </c>
@@ -20692,18 +20728,36 @@
       <c r="C3">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>120.79186899999999</v>
+      </c>
+      <c r="I3">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="J3">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K3">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L3" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M3" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12544.536041666668</v>
       </c>
@@ -20713,18 +20767,36 @@
       <c r="C4">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>248.947405</v>
+      </c>
+      <c r="I4">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="J4">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K4">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L4" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M4" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>20745.363700000002</v>
       </c>
@@ -20734,18 +20806,36 @@
       <c r="C5">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>418.33646500000009</v>
+      </c>
+      <c r="I5">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="J5">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K5">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L5" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M5" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30812.633166666667</v>
       </c>
@@ -20755,18 +20845,36 @@
       <c r="C6">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>626.67390699999999</v>
+      </c>
+      <c r="I6">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="J6">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K6">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L6" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M6" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>42709.957158333331</v>
       </c>
@@ -20776,18 +20884,36 @@
       <c r="C7">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>872.44679099999996</v>
+      </c>
+      <c r="I7">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="J7">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K7">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L7" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M7" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>56408.862758333344</v>
       </c>
@@ -20797,18 +20923,36 @@
       <c r="C8">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1155.3128790000001</v>
+      </c>
+      <c r="I8">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="J8">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K8">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L8" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M8" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>71884.659233333354</v>
       </c>
@@ -20818,18 +20962,36 @@
       <c r="C9">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1472.5427590000011</v>
+      </c>
+      <c r="I9">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="J9">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K9">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L9" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M9" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>89116.886725000004</v>
       </c>
@@ -20839,18 +21001,36 @@
       <c r="C10">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1822.9920789999999</v>
+      </c>
+      <c r="I10">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="J10">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K10">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M10" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>108087.39842499999</v>
       </c>
@@ -20860,18 +21040,36 @@
       <c r="C11">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F11" s="64">
+      <c r="F11" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>2206.0428460000003</v>
+      </c>
+      <c r="I11">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="J11">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K11">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L11" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M11" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>128778.08180000001</v>
       </c>
@@ -20881,18 +21079,36 @@
       <c r="C12">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F12" s="64">
+      <c r="F12" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>4569.2701589999997</v>
+      </c>
+      <c r="I12">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="J12">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K12">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L12" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M12" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>151171.37594166669</v>
       </c>
@@ -20902,18 +21118,36 @@
       <c r="C13">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>7644.9971269999996</v>
+      </c>
+      <c r="I13">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="J13">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K13">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L13" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M13" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>175249.33963333338</v>
       </c>
@@ -20923,18 +21157,36 @@
       <c r="C14">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>11426.549859999999</v>
+      </c>
+      <c r="I14">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="J14">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K14">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L14" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M14" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>200991.95455833332</v>
       </c>
@@ -20944,18 +21196,36 @@
       <c r="C15">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F15" s="64">
+      <c r="F15" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>15916.046148000001</v>
+      </c>
+      <c r="I15">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="J15">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K15">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L15" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M15" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>228381.61929166666</v>
       </c>
@@ -20965,18 +21235,36 @@
       <c r="C16">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>21105.675640999994</v>
+      </c>
+      <c r="I16">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="J16">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K16">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L16" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M16" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>257402.63368333335</v>
       </c>
@@ -20986,18 +21274,36 @@
       <c r="C17">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F17" s="64">
+      <c r="F17" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>27020.062475000002</v>
+      </c>
+      <c r="I17">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="J17">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K17">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L17" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M17" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>288039.42388333339</v>
       </c>
@@ -21007,18 +21313,36 @@
       <c r="C18">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F18" s="64">
+      <c r="F18" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>33860.145925000004</v>
+      </c>
+      <c r="I18">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="J18">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K18">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L18" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M18" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>320276.39294166671</v>
       </c>
@@ -21028,18 +21352,36 @@
       <c r="C19">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F19" s="64">
+      <c r="F19" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>41800.160248999993</v>
+      </c>
+      <c r="I19">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="J19">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K19">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L19" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M19" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>354098.83654166671</v>
       </c>
@@ -21049,18 +21391,36 @@
       <c r="C20">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F20" s="64">
+      <c r="F20" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>50665.122582000004</v>
+      </c>
+      <c r="I20">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="J20">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K20">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L20" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M20" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>389490.67455</v>
       </c>
@@ -21070,18 +21430,36 @@
       <c r="C21">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F21" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>60329.752187999999</v>
+      </c>
+      <c r="I21">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="J21">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K21">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L21" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M21" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>426443.1654916667</v>
       </c>
@@ -21091,18 +21469,36 @@
       <c r="C22">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>70475.873884000001</v>
+      </c>
+      <c r="I22">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="J22">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K22">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L22" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M22" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>464944.02697499999</v>
       </c>
@@ -21112,18 +21508,36 @@
       <c r="C23">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>81204.789472999997</v>
+      </c>
+      <c r="I23">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="J23">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K23">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L23" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M23" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>504979.74255000002</v>
       </c>
@@ -21133,18 +21547,36 @@
       <c r="C24">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F24" s="64">
+      <c r="F24" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>92142.103314999986</v>
+      </c>
+      <c r="I24">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="J24">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K24">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L24" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M24" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>546538.74202500016</v>
       </c>
@@ -21154,18 +21586,36 @@
       <c r="C25">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>103453.472369</v>
+      </c>
+      <c r="I25">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="J25">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K25">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L25" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M25" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>589611.87465000001</v>
       </c>
@@ -21175,18 +21625,36 @@
       <c r="C26">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D26" s="64">
+      <c r="D26" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F26" s="64">
+      <c r="F26" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>115128.50371700012</v>
+      </c>
+      <c r="I26">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="J26">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K26">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L26" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M26" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>634185.72375833336</v>
       </c>
@@ -21196,18 +21664,36 @@
       <c r="C27">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D27" s="64">
+      <c r="D27" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>127007.37202900001</v>
+      </c>
+      <c r="I27">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="J27">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K27">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L27" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M27" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>680249.53991666669</v>
       </c>
@@ -21217,18 +21703,36 @@
       <c r="C28">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D28" s="64">
+      <c r="D28" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>139528.424608</v>
+      </c>
+      <c r="I28">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="J28">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K28">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L28" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M28" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>727795.09903333336</v>
       </c>
@@ -21238,18 +21742,36 @@
       <c r="C29">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F29" s="64">
+      <c r="F29" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>152603.17908600002</v>
+      </c>
+      <c r="I29">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="J29">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="K29">
+        <v>6.1575216010359955E-4</v>
+      </c>
+      <c r="L29" s="33">
+        <v>1.4E-8</v>
+      </c>
+      <c r="M29" s="33">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>776808.20810000005</v>
       </c>
@@ -21259,18 +21781,18 @@
       <c r="C30">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D30" s="64">
+      <c r="D30" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E30" s="64">
+      <c r="E30" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F30" s="64">
+      <c r="F30" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>827285.66457500006</v>
       </c>
@@ -21280,18 +21802,18 @@
       <c r="C31">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D31" s="64">
+      <c r="D31" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="33">
         <v>2.73E-8</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="33">
         <v>8.3700000000000007E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>951.50070833333336</v>
       </c>
@@ -21301,14 +21823,14 @@
       <c r="C32">
         <v>0.3745</v>
       </c>
-      <c r="D32" s="64">
+      <c r="D32" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F32" s="64">
+      <c r="F32" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21322,14 +21844,14 @@
       <c r="C33">
         <v>0.3745</v>
       </c>
-      <c r="D33" s="64">
+      <c r="D33" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F33" s="64">
+      <c r="F33" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21343,14 +21865,14 @@
       <c r="C34">
         <v>0.3745</v>
       </c>
-      <c r="D34" s="64">
+      <c r="D34" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F34" s="64">
+      <c r="F34" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21364,14 +21886,14 @@
       <c r="C35">
         <v>0.3745</v>
       </c>
-      <c r="D35" s="64">
+      <c r="D35" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21385,14 +21907,14 @@
       <c r="C36">
         <v>0.3745</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F36" s="64">
+      <c r="F36" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21406,14 +21928,14 @@
       <c r="C37">
         <v>0.3745</v>
       </c>
-      <c r="D37" s="64">
+      <c r="D37" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F37" s="64">
+      <c r="F37" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21427,14 +21949,14 @@
       <c r="C38">
         <v>0.3745</v>
       </c>
-      <c r="D38" s="64">
+      <c r="D38" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F38" s="64">
+      <c r="F38" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21448,14 +21970,14 @@
       <c r="C39">
         <v>0.3745</v>
       </c>
-      <c r="D39" s="64">
+      <c r="D39" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21469,14 +21991,14 @@
       <c r="C40">
         <v>0.3745</v>
       </c>
-      <c r="D40" s="64">
+      <c r="D40" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F40" s="64">
+      <c r="F40" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21490,14 +22012,14 @@
       <c r="C41">
         <v>0.3745</v>
       </c>
-      <c r="D41" s="64">
+      <c r="D41" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E41" s="64">
+      <c r="E41" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F41" s="64">
+      <c r="F41" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21511,14 +22033,14 @@
       <c r="C42">
         <v>0.3745</v>
       </c>
-      <c r="D42" s="64">
+      <c r="D42" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F42" s="64">
+      <c r="F42" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21532,14 +22054,14 @@
       <c r="C43">
         <v>0.3745</v>
       </c>
-      <c r="D43" s="64">
+      <c r="D43" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21553,14 +22075,14 @@
       <c r="C44">
         <v>0.3745</v>
       </c>
-      <c r="D44" s="64">
+      <c r="D44" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E44" s="64">
+      <c r="E44" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F44" s="64">
+      <c r="F44" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21574,14 +22096,14 @@
       <c r="C45">
         <v>0.3745</v>
       </c>
-      <c r="D45" s="64">
+      <c r="D45" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E45" s="64">
+      <c r="E45" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F45" s="64">
+      <c r="F45" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21595,14 +22117,14 @@
       <c r="C46">
         <v>0.3745</v>
       </c>
-      <c r="D46" s="64">
+      <c r="D46" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F46" s="64">
+      <c r="F46" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21616,14 +22138,14 @@
       <c r="C47">
         <v>0.3745</v>
       </c>
-      <c r="D47" s="64">
+      <c r="D47" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21637,14 +22159,14 @@
       <c r="C48">
         <v>0.3745</v>
       </c>
-      <c r="D48" s="64">
+      <c r="D48" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E48" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F48" s="64">
+      <c r="F48" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21658,14 +22180,14 @@
       <c r="C49">
         <v>0.3745</v>
       </c>
-      <c r="D49" s="64">
+      <c r="D49" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E49" s="64">
+      <c r="E49" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21679,14 +22201,14 @@
       <c r="C50">
         <v>0.3745</v>
       </c>
-      <c r="D50" s="64">
+      <c r="D50" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E50" s="64">
+      <c r="E50" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F50" s="64">
+      <c r="F50" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21700,14 +22222,14 @@
       <c r="C51">
         <v>0.3745</v>
       </c>
-      <c r="D51" s="64">
+      <c r="D51" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21721,14 +22243,14 @@
       <c r="C52">
         <v>0.3745</v>
       </c>
-      <c r="D52" s="64">
+      <c r="D52" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E52" s="64">
+      <c r="E52" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F52" s="64">
+      <c r="F52" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21742,14 +22264,14 @@
       <c r="C53">
         <v>0.3745</v>
       </c>
-      <c r="D53" s="64">
+      <c r="D53" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E53" s="64">
+      <c r="E53" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F53" s="64">
+      <c r="F53" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21763,14 +22285,14 @@
       <c r="C54">
         <v>0.3745</v>
       </c>
-      <c r="D54" s="64">
+      <c r="D54" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E54" s="64">
+      <c r="E54" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F54" s="64">
+      <c r="F54" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21784,14 +22306,14 @@
       <c r="C55">
         <v>0.3745</v>
       </c>
-      <c r="D55" s="64">
+      <c r="D55" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E55" s="64">
+      <c r="E55" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F55" s="64">
+      <c r="F55" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21805,14 +22327,14 @@
       <c r="C56">
         <v>0.3745</v>
       </c>
-      <c r="D56" s="64">
+      <c r="D56" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E56" s="64">
+      <c r="E56" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F56" s="64">
+      <c r="F56" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21826,14 +22348,14 @@
       <c r="C57">
         <v>0.3745</v>
       </c>
-      <c r="D57" s="64">
+      <c r="D57" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E57" s="64">
+      <c r="E57" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F57" s="64">
+      <c r="F57" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21847,14 +22369,14 @@
       <c r="C58">
         <v>0.3745</v>
       </c>
-      <c r="D58" s="64">
+      <c r="D58" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E58" s="64">
+      <c r="E58" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F58" s="64">
+      <c r="F58" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21868,14 +22390,14 @@
       <c r="C59">
         <v>0.3745</v>
       </c>
-      <c r="D59" s="64">
+      <c r="D59" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E59" s="64">
+      <c r="E59" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F59" s="64">
+      <c r="F59" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21889,14 +22411,14 @@
       <c r="C60">
         <v>0.3745</v>
       </c>
-      <c r="D60" s="64">
+      <c r="D60" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E60" s="64">
+      <c r="E60" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F60" s="64">
+      <c r="F60" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21910,14 +22432,14 @@
       <c r="C61">
         <v>0.3745</v>
       </c>
-      <c r="D61" s="64">
+      <c r="D61" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E61" s="64">
+      <c r="E61" s="33">
         <v>5.4300000000000003E-8</v>
       </c>
-      <c r="F61" s="64">
+      <c r="F61" s="33">
         <v>1.2200000000000001E-2</v>
       </c>
     </row>
@@ -21931,14 +22453,14 @@
       <c r="C62">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D62" s="64">
+      <c r="D62" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E62" s="64">
+      <c r="E62" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F62" s="64">
+      <c r="F62" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -21952,14 +22474,14 @@
       <c r="C63">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D63" s="64">
+      <c r="D63" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E63" s="64">
+      <c r="E63" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F63" s="64">
+      <c r="F63" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -21973,14 +22495,14 @@
       <c r="C64">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D64" s="64">
+      <c r="D64" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E64" s="64">
+      <c r="E64" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F64" s="64">
+      <c r="F64" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -21994,14 +22516,14 @@
       <c r="C65">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D65" s="64">
+      <c r="D65" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E65" s="64">
+      <c r="E65" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F65" s="64">
+      <c r="F65" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22015,14 +22537,14 @@
       <c r="C66">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D66" s="64">
+      <c r="D66" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E66" s="64">
+      <c r="E66" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F66" s="64">
+      <c r="F66" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22036,14 +22558,14 @@
       <c r="C67">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D67" s="64">
+      <c r="D67" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E67" s="64">
+      <c r="E67" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F67" s="64">
+      <c r="F67" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22057,14 +22579,14 @@
       <c r="C68">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D68" s="64">
+      <c r="D68" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E68" s="64">
+      <c r="E68" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F68" s="64">
+      <c r="F68" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22078,14 +22600,14 @@
       <c r="C69">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D69" s="64">
+      <c r="D69" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E69" s="64">
+      <c r="E69" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F69" s="64">
+      <c r="F69" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22099,14 +22621,14 @@
       <c r="C70">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D70" s="64">
+      <c r="D70" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E70" s="64">
+      <c r="E70" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F70" s="64">
+      <c r="F70" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22120,14 +22642,14 @@
       <c r="C71">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D71" s="64">
+      <c r="D71" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E71" s="64">
+      <c r="E71" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F71" s="64">
+      <c r="F71" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22141,14 +22663,14 @@
       <c r="C72">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D72" s="64">
+      <c r="D72" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E72" s="64">
+      <c r="E72" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F72" s="64">
+      <c r="F72" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22162,14 +22684,14 @@
       <c r="C73">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D73" s="64">
+      <c r="D73" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E73" s="64">
+      <c r="E73" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F73" s="64">
+      <c r="F73" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22183,14 +22705,14 @@
       <c r="C74">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D74" s="64">
+      <c r="D74" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E74" s="64">
+      <c r="E74" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F74" s="64">
+      <c r="F74" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22204,14 +22726,14 @@
       <c r="C75">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D75" s="64">
+      <c r="D75" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E75" s="64">
+      <c r="E75" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F75" s="64">
+      <c r="F75" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22225,14 +22747,14 @@
       <c r="C76">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D76" s="64">
+      <c r="D76" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E76" s="64">
+      <c r="E76" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F76" s="64">
+      <c r="F76" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22246,14 +22768,14 @@
       <c r="C77">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D77" s="64">
+      <c r="D77" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E77" s="64">
+      <c r="E77" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F77" s="64">
+      <c r="F77" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22267,14 +22789,14 @@
       <c r="C78">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D78" s="64">
+      <c r="D78" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E78" s="64">
+      <c r="E78" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F78" s="64">
+      <c r="F78" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22288,14 +22810,14 @@
       <c r="C79">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D79" s="64">
+      <c r="D79" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E79" s="64">
+      <c r="E79" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F79" s="64">
+      <c r="F79" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22309,14 +22831,14 @@
       <c r="C80">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D80" s="64">
+      <c r="D80" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E80" s="64">
+      <c r="E80" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F80" s="64">
+      <c r="F80" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22330,14 +22852,14 @@
       <c r="C81">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D81" s="64">
+      <c r="D81" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E81" s="64">
+      <c r="E81" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F81" s="64">
+      <c r="F81" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22351,14 +22873,14 @@
       <c r="C82">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D82" s="64">
+      <c r="D82" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E82" s="64">
+      <c r="E82" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F82" s="64">
+      <c r="F82" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22372,14 +22894,14 @@
       <c r="C83">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D83" s="64">
+      <c r="D83" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E83" s="64">
+      <c r="E83" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F83" s="64">
+      <c r="F83" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22393,14 +22915,14 @@
       <c r="C84">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D84" s="64">
+      <c r="D84" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E84" s="64">
+      <c r="E84" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F84" s="64">
+      <c r="F84" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22414,14 +22936,14 @@
       <c r="C85">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D85" s="64">
+      <c r="D85" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E85" s="64">
+      <c r="E85" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F85" s="64">
+      <c r="F85" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22435,14 +22957,14 @@
       <c r="C86">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D86" s="64">
+      <c r="D86" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E86" s="64">
+      <c r="E86" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F86" s="64">
+      <c r="F86" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22456,14 +22978,14 @@
       <c r="C87">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D87" s="64">
+      <c r="D87" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E87" s="64">
+      <c r="E87" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F87" s="64">
+      <c r="F87" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22477,14 +22999,14 @@
       <c r="C88">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D88" s="64">
+      <c r="D88" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E88" s="64">
+      <c r="E88" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F88" s="64">
+      <c r="F88" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22498,14 +23020,14 @@
       <c r="C89">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D89" s="64">
+      <c r="D89" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E89" s="64">
+      <c r="E89" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F89" s="64">
+      <c r="F89" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22519,14 +23041,14 @@
       <c r="C90">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D90" s="64">
+      <c r="D90" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E90" s="64">
+      <c r="E90" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F90" s="64">
+      <c r="F90" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22540,14 +23062,14 @@
       <c r="C91">
         <v>0.39960000000000001</v>
       </c>
-      <c r="D91" s="64">
+      <c r="D91" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E91" s="64">
+      <c r="E91" s="33">
         <v>7.7799999999999995E-8</v>
       </c>
-      <c r="F91" s="64">
+      <c r="F91" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -22561,14 +23083,14 @@
       <c r="C92">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D92" s="64">
+      <c r="D92" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E92" s="64">
+      <c r="E92" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F92" s="64">
+      <c r="F92" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22582,14 +23104,14 @@
       <c r="C93">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D93" s="64">
+      <c r="D93" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E93" s="64">
+      <c r="E93" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F93" s="64">
+      <c r="F93" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22603,14 +23125,14 @@
       <c r="C94">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E94" s="64">
+      <c r="E94" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22624,14 +23146,14 @@
       <c r="C95">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D95" s="64">
+      <c r="D95" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E95" s="64">
+      <c r="E95" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22645,14 +23167,14 @@
       <c r="C96">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D96" s="64">
+      <c r="D96" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22666,14 +23188,14 @@
       <c r="C97">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D97" s="64">
+      <c r="D97" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E97" s="64">
+      <c r="E97" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F97" s="64">
+      <c r="F97" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22687,14 +23209,14 @@
       <c r="C98">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D98" s="64">
+      <c r="D98" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E98" s="64">
+      <c r="E98" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F98" s="64">
+      <c r="F98" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22708,14 +23230,14 @@
       <c r="C99">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D99" s="64">
+      <c r="D99" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E99" s="64">
+      <c r="E99" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F99" s="64">
+      <c r="F99" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22729,14 +23251,14 @@
       <c r="C100">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D100" s="64">
+      <c r="D100" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E100" s="64">
+      <c r="E100" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F100" s="64">
+      <c r="F100" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22750,14 +23272,14 @@
       <c r="C101">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D101" s="64">
+      <c r="D101" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E101" s="64">
+      <c r="E101" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F101" s="64">
+      <c r="F101" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22771,14 +23293,14 @@
       <c r="C102">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D102" s="64">
+      <c r="D102" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E102" s="64">
+      <c r="E102" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F102" s="64">
+      <c r="F102" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22792,14 +23314,14 @@
       <c r="C103">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D103" s="64">
+      <c r="D103" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E103" s="64">
+      <c r="E103" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F103" s="64">
+      <c r="F103" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22813,14 +23335,14 @@
       <c r="C104">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D104" s="64">
+      <c r="D104" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E104" s="64">
+      <c r="E104" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F104" s="64">
+      <c r="F104" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22834,14 +23356,14 @@
       <c r="C105">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D105" s="64">
+      <c r="D105" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E105" s="64">
+      <c r="E105" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F105" s="64">
+      <c r="F105" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22855,14 +23377,14 @@
       <c r="C106">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D106" s="64">
+      <c r="D106" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E106" s="64">
+      <c r="E106" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F106" s="64">
+      <c r="F106" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22876,14 +23398,14 @@
       <c r="C107">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D107" s="64">
+      <c r="D107" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E107" s="64">
+      <c r="E107" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F107" s="64">
+      <c r="F107" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22897,14 +23419,14 @@
       <c r="C108">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D108" s="64">
+      <c r="D108" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E108" s="64">
+      <c r="E108" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F108" s="64">
+      <c r="F108" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22918,14 +23440,14 @@
       <c r="C109">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D109" s="64">
+      <c r="D109" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E109" s="64">
+      <c r="E109" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F109" s="64">
+      <c r="F109" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22939,14 +23461,14 @@
       <c r="C110">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D110" s="64">
+      <c r="D110" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E110" s="64">
+      <c r="E110" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F110" s="64">
+      <c r="F110" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22960,14 +23482,14 @@
       <c r="C111">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D111" s="64">
+      <c r="D111" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E111" s="64">
+      <c r="E111" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F111" s="64">
+      <c r="F111" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -22981,14 +23503,14 @@
       <c r="C112">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D112" s="64">
+      <c r="D112" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E112" s="64">
+      <c r="E112" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F112" s="64">
+      <c r="F112" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23002,14 +23524,14 @@
       <c r="C113">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D113" s="64">
+      <c r="D113" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E113" s="64">
+      <c r="E113" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F113" s="64">
+      <c r="F113" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23023,14 +23545,14 @@
       <c r="C114">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D114" s="64">
+      <c r="D114" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E114" s="64">
+      <c r="E114" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F114" s="64">
+      <c r="F114" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23044,14 +23566,14 @@
       <c r="C115">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D115" s="64">
+      <c r="D115" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E115" s="64">
+      <c r="E115" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F115" s="64">
+      <c r="F115" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23065,14 +23587,14 @@
       <c r="C116">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D116" s="64">
+      <c r="D116" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E116" s="64">
+      <c r="E116" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F116" s="64">
+      <c r="F116" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23086,14 +23608,14 @@
       <c r="C117">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D117" s="64">
+      <c r="D117" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E117" s="64">
+      <c r="E117" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F117" s="64">
+      <c r="F117" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23107,14 +23629,14 @@
       <c r="C118">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D118" s="64">
+      <c r="D118" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E118" s="64">
+      <c r="E118" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F118" s="64">
+      <c r="F118" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23128,14 +23650,14 @@
       <c r="C119">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D119" s="64">
+      <c r="D119" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E119" s="64">
+      <c r="E119" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F119" s="64">
+      <c r="F119" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23149,14 +23671,14 @@
       <c r="C120">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D120" s="64">
+      <c r="D120" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E120" s="64">
+      <c r="E120" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F120" s="64">
+      <c r="F120" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23170,14 +23692,14 @@
       <c r="C121">
         <v>0.41620000000000001</v>
       </c>
-      <c r="D121" s="64">
+      <c r="D121" s="33">
         <f>Parâmetros!$B$13</f>
         <v>3.5968094290949535E-4</v>
       </c>
-      <c r="E121" s="64">
+      <c r="E121" s="33">
         <v>9.83E-8</v>
       </c>
-      <c r="F121" s="64">
+      <c r="F121" s="33">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -23194,10 +23716,10 @@
       <c r="D122">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E122" s="64">
+      <c r="E122" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F122" s="64">
+      <c r="F122" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23214,10 +23736,10 @@
       <c r="D123">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E123" s="64">
+      <c r="E123" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F123" s="64">
+      <c r="F123" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23234,10 +23756,10 @@
       <c r="D124">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E124" s="64">
+      <c r="E124" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F124" s="64">
+      <c r="F124" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23254,10 +23776,10 @@
       <c r="D125">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E125" s="64">
+      <c r="E125" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F125" s="64">
+      <c r="F125" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23274,10 +23796,10 @@
       <c r="D126">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E126" s="64">
+      <c r="E126" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F126" s="64">
+      <c r="F126" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23294,10 +23816,10 @@
       <c r="D127">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E127" s="64">
+      <c r="E127" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F127" s="64">
+      <c r="F127" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23314,10 +23836,10 @@
       <c r="D128">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E128" s="64">
+      <c r="E128" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F128" s="64">
+      <c r="F128" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23334,10 +23856,10 @@
       <c r="D129">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E129" s="64">
+      <c r="E129" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F129" s="64">
+      <c r="F129" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23354,10 +23876,10 @@
       <c r="D130">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E130" s="64">
+      <c r="E130" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F130" s="64">
+      <c r="F130" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23374,10 +23896,10 @@
       <c r="D131">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E131" s="64">
+      <c r="E131" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F131" s="64">
+      <c r="F131" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23394,10 +23916,10 @@
       <c r="D132">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E132" s="64">
+      <c r="E132" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F132" s="64">
+      <c r="F132" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23414,10 +23936,10 @@
       <c r="D133">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E133" s="64">
+      <c r="E133" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F133" s="64">
+      <c r="F133" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23434,10 +23956,10 @@
       <c r="D134">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E134" s="64">
+      <c r="E134" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F134" s="64">
+      <c r="F134" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23454,10 +23976,10 @@
       <c r="D135">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E135" s="64">
+      <c r="E135" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F135" s="64">
+      <c r="F135" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23474,10 +23996,10 @@
       <c r="D136">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E136" s="64">
+      <c r="E136" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F136" s="64">
+      <c r="F136" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23494,10 +24016,10 @@
       <c r="D137">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E137" s="64">
+      <c r="E137" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F137" s="64">
+      <c r="F137" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23514,10 +24036,10 @@
       <c r="D138">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E138" s="64">
+      <c r="E138" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F138" s="64">
+      <c r="F138" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23534,10 +24056,10 @@
       <c r="D139">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E139" s="64">
+      <c r="E139" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F139" s="64">
+      <c r="F139" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23554,10 +24076,10 @@
       <c r="D140">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E140" s="64">
+      <c r="E140" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F140" s="64">
+      <c r="F140" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23574,10 +24096,10 @@
       <c r="D141">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E141" s="64">
+      <c r="E141" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F141" s="64">
+      <c r="F141" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23594,10 +24116,10 @@
       <c r="D142">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E142" s="64">
+      <c r="E142" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F142" s="64">
+      <c r="F142" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23614,10 +24136,10 @@
       <c r="D143">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E143" s="64">
+      <c r="E143" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F143" s="64">
+      <c r="F143" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23634,10 +24156,10 @@
       <c r="D144">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E144" s="64">
+      <c r="E144" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F144" s="64">
+      <c r="F144" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23654,10 +24176,10 @@
       <c r="D145">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E145" s="64">
+      <c r="E145" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F145" s="64">
+      <c r="F145" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23674,10 +24196,10 @@
       <c r="D146">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E146" s="64">
+      <c r="E146" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F146" s="64">
+      <c r="F146" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23694,10 +24216,10 @@
       <c r="D147">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E147" s="64">
+      <c r="E147" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F147" s="64">
+      <c r="F147" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23714,10 +24236,10 @@
       <c r="D148">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E148" s="64">
+      <c r="E148" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F148" s="64">
+      <c r="F148" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23734,10 +24256,10 @@
       <c r="D149">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E149" s="64">
+      <c r="E149" s="33">
         <v>3.9799999999999999E-9</v>
       </c>
-      <c r="F149" s="64">
+      <c r="F149" s="33">
         <v>2.6099999999999999E-3</v>
       </c>
     </row>
@@ -23754,10 +24276,10 @@
       <c r="D150">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E150" s="64">
+      <c r="E150" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F150" s="64">
+      <c r="F150" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23774,10 +24296,10 @@
       <c r="D151">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E151" s="64">
+      <c r="E151" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F151" s="64">
+      <c r="F151" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23794,10 +24316,10 @@
       <c r="D152">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E152" s="64">
+      <c r="E152" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F152" s="64">
+      <c r="F152" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23814,10 +24336,10 @@
       <c r="D153">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E153" s="64">
+      <c r="E153" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F153" s="64">
+      <c r="F153" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23834,10 +24356,10 @@
       <c r="D154">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E154" s="64">
+      <c r="E154" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F154" s="64">
+      <c r="F154" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23854,10 +24376,10 @@
       <c r="D155">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E155" s="64">
+      <c r="E155" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F155" s="64">
+      <c r="F155" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23874,10 +24396,10 @@
       <c r="D156">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E156" s="64">
+      <c r="E156" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F156" s="64">
+      <c r="F156" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23894,10 +24416,10 @@
       <c r="D157">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E157" s="64">
+      <c r="E157" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F157" s="64">
+      <c r="F157" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23914,10 +24436,10 @@
       <c r="D158">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E158" s="64">
+      <c r="E158" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F158" s="64">
+      <c r="F158" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23934,10 +24456,10 @@
       <c r="D159">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E159" s="64">
+      <c r="E159" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F159" s="64">
+      <c r="F159" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23954,10 +24476,10 @@
       <c r="D160">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E160" s="64">
+      <c r="E160" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F160" s="64">
+      <c r="F160" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23974,10 +24496,10 @@
       <c r="D161">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E161" s="64">
+      <c r="E161" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F161" s="64">
+      <c r="F161" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -23994,10 +24516,10 @@
       <c r="D162">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E162" s="64">
+      <c r="E162" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F162" s="64">
+      <c r="F162" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24014,10 +24536,10 @@
       <c r="D163">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E163" s="64">
+      <c r="E163" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F163" s="64">
+      <c r="F163" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24034,10 +24556,10 @@
       <c r="D164">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E164" s="64">
+      <c r="E164" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F164" s="64">
+      <c r="F164" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24054,10 +24576,10 @@
       <c r="D165">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E165" s="64">
+      <c r="E165" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F165" s="64">
+      <c r="F165" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24074,10 +24596,10 @@
       <c r="D166">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E166" s="64">
+      <c r="E166" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F166" s="64">
+      <c r="F166" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24094,10 +24616,10 @@
       <c r="D167">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E167" s="64">
+      <c r="E167" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F167" s="64">
+      <c r="F167" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24114,10 +24636,10 @@
       <c r="D168">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E168" s="64">
+      <c r="E168" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F168" s="64">
+      <c r="F168" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24134,10 +24656,10 @@
       <c r="D169">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E169" s="64">
+      <c r="E169" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F169" s="64">
+      <c r="F169" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24154,10 +24676,10 @@
       <c r="D170">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E170" s="64">
+      <c r="E170" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F170" s="64">
+      <c r="F170" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24174,10 +24696,10 @@
       <c r="D171">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E171" s="64">
+      <c r="E171" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F171" s="64">
+      <c r="F171" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24194,10 +24716,10 @@
       <c r="D172">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E172" s="64">
+      <c r="E172" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F172" s="64">
+      <c r="F172" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24214,10 +24736,10 @@
       <c r="D173">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E173" s="64">
+      <c r="E173" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F173" s="64">
+      <c r="F173" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24234,10 +24756,10 @@
       <c r="D174">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E174" s="64">
+      <c r="E174" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F174" s="64">
+      <c r="F174" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24254,10 +24776,10 @@
       <c r="D175">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E175" s="64">
+      <c r="E175" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F175" s="64">
+      <c r="F175" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24274,10 +24796,10 @@
       <c r="D176">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E176" s="64">
+      <c r="E176" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F176" s="64">
+      <c r="F176" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24294,10 +24816,10 @@
       <c r="D177">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E177" s="64">
+      <c r="E177" s="33">
         <v>5.8800000000000004E-9</v>
       </c>
-      <c r="F177" s="64">
+      <c r="F177" s="33">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -24314,10 +24836,10 @@
       <c r="D178">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E178" s="64">
+      <c r="E178" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F178" s="64">
+      <c r="F178" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24334,10 +24856,10 @@
       <c r="D179">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E179" s="64">
+      <c r="E179" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F179" s="64">
+      <c r="F179" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24354,10 +24876,10 @@
       <c r="D180">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E180" s="64">
+      <c r="E180" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F180" s="64">
+      <c r="F180" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24374,10 +24896,10 @@
       <c r="D181">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E181" s="64">
+      <c r="E181" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F181" s="64">
+      <c r="F181" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24394,10 +24916,10 @@
       <c r="D182">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E182" s="64">
+      <c r="E182" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F182" s="64">
+      <c r="F182" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24414,10 +24936,10 @@
       <c r="D183">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E183" s="64">
+      <c r="E183" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F183" s="64">
+      <c r="F183" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24434,10 +24956,10 @@
       <c r="D184">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E184" s="64">
+      <c r="E184" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F184" s="64">
+      <c r="F184" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24454,10 +24976,10 @@
       <c r="D185">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E185" s="64">
+      <c r="E185" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F185" s="64">
+      <c r="F185" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24474,10 +24996,10 @@
       <c r="D186">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E186" s="64">
+      <c r="E186" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F186" s="64">
+      <c r="F186" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24494,10 +25016,10 @@
       <c r="D187">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E187" s="64">
+      <c r="E187" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F187" s="64">
+      <c r="F187" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24514,10 +25036,10 @@
       <c r="D188">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E188" s="64">
+      <c r="E188" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F188" s="64">
+      <c r="F188" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24534,10 +25056,10 @@
       <c r="D189">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E189" s="64">
+      <c r="E189" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F189" s="64">
+      <c r="F189" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24554,10 +25076,10 @@
       <c r="D190">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E190" s="64">
+      <c r="E190" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F190" s="64">
+      <c r="F190" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24574,10 +25096,10 @@
       <c r="D191">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E191" s="64">
+      <c r="E191" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F191" s="64">
+      <c r="F191" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24594,10 +25116,10 @@
       <c r="D192">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E192" s="64">
+      <c r="E192" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F192" s="64">
+      <c r="F192" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24614,10 +25136,10 @@
       <c r="D193">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E193" s="64">
+      <c r="E193" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F193" s="64">
+      <c r="F193" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24634,10 +25156,10 @@
       <c r="D194">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E194" s="64">
+      <c r="E194" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F194" s="64">
+      <c r="F194" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24654,10 +25176,10 @@
       <c r="D195">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E195" s="64">
+      <c r="E195" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F195" s="64">
+      <c r="F195" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24674,10 +25196,10 @@
       <c r="D196">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E196" s="64">
+      <c r="E196" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F196" s="64">
+      <c r="F196" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24694,10 +25216,10 @@
       <c r="D197">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E197" s="64">
+      <c r="E197" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F197" s="64">
+      <c r="F197" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24714,10 +25236,10 @@
       <c r="D198">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E198" s="64">
+      <c r="E198" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F198" s="64">
+      <c r="F198" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24734,10 +25256,10 @@
       <c r="D199">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E199" s="64">
+      <c r="E199" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F199" s="64">
+      <c r="F199" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24754,10 +25276,10 @@
       <c r="D200">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E200" s="64">
+      <c r="E200" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F200" s="64">
+      <c r="F200" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24774,10 +25296,10 @@
       <c r="D201">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E201" s="64">
+      <c r="E201" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F201" s="64">
+      <c r="F201" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24794,10 +25316,10 @@
       <c r="D202">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E202" s="64">
+      <c r="E202" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F202" s="64">
+      <c r="F202" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24814,10 +25336,10 @@
       <c r="D203">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E203" s="64">
+      <c r="E203" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F203" s="64">
+      <c r="F203" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24834,10 +25356,10 @@
       <c r="D204">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E204" s="64">
+      <c r="E204" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F204" s="64">
+      <c r="F204" s="33">
         <v>5.0499999999999998E-3</v>
       </c>
     </row>
@@ -24854,571 +25376,11 @@
       <c r="D205">
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="E205" s="64">
+      <c r="E205" s="33">
         <v>8.7000000000000001E-9</v>
       </c>
-      <c r="F205" s="64">
+      <c r="F205" s="33">
         <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>35.830674000000002</v>
-      </c>
-      <c r="B206">
-        <v>1.0020040080160322E-5</v>
-      </c>
-      <c r="C206">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D206">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E206" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F206" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>120.79186899999999</v>
-      </c>
-      <c r="B207">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="C207">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D207">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E207" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F207" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>248.947405</v>
-      </c>
-      <c r="B208">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="C208">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D208">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E208" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F208" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>418.33646500000009</v>
-      </c>
-      <c r="B209">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="C209">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D209">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E209" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F209" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>626.67390699999999</v>
-      </c>
-      <c r="B210">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="C210">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D210">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E210" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F210" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>872.44679099999996</v>
-      </c>
-      <c r="B211">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="C211">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D211">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E211" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F211" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>1155.3128790000001</v>
-      </c>
-      <c r="B212">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="C212">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D212">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E212" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F212" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>1472.5427590000011</v>
-      </c>
-      <c r="B213">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="C213">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D213">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E213" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F213" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>1822.9920789999999</v>
-      </c>
-      <c r="B214">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="C214">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D214">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E214" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F214" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>2206.0428460000003</v>
-      </c>
-      <c r="B215">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="C215">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D215">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E215" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F215" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>4569.2701589999997</v>
-      </c>
-      <c r="B216">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C216">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D216">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E216" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F216" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>7644.9971269999996</v>
-      </c>
-      <c r="B217">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C217">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D217">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E217" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F217" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>11426.549859999999</v>
-      </c>
-      <c r="B218">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C218">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D218">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E218" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F218" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>15916.046148000001</v>
-      </c>
-      <c r="B219">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C219">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D219">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E219" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F219" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>21105.675640999994</v>
-      </c>
-      <c r="B220">
-        <v>3.5070140280561122E-4</v>
-      </c>
-      <c r="C220">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D220">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E220" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F220" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>27020.062475000002</v>
-      </c>
-      <c r="B221">
-        <v>4.0080160320641282E-4</v>
-      </c>
-      <c r="C221">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D221">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E221" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F221" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>33860.145925000004</v>
-      </c>
-      <c r="B222">
-        <v>4.5090180360721443E-4</v>
-      </c>
-      <c r="C222">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D222">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E222" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F222" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>41800.160248999993</v>
-      </c>
-      <c r="B223">
-        <v>5.0100200400801599E-4</v>
-      </c>
-      <c r="C223">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D223">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E223" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F223" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>50665.122582000004</v>
-      </c>
-      <c r="B224">
-        <v>5.5110220440881771E-4</v>
-      </c>
-      <c r="C224">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D224">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E224" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F224" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>60329.752187999999</v>
-      </c>
-      <c r="B225">
-        <v>6.0120240480961921E-4</v>
-      </c>
-      <c r="C225">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D225">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E225" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F225" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>70475.873884000001</v>
-      </c>
-      <c r="B226">
-        <v>6.5130260521042082E-4</v>
-      </c>
-      <c r="C226">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D226">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E226" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F226" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>81204.789472999997</v>
-      </c>
-      <c r="B227">
-        <v>7.0140280561122243E-4</v>
-      </c>
-      <c r="C227">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D227">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E227" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F227" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>92142.103314999986</v>
-      </c>
-      <c r="B228">
-        <v>7.5150300601202404E-4</v>
-      </c>
-      <c r="C228">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D228">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E228" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F228" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>103453.472369</v>
-      </c>
-      <c r="B229">
-        <v>8.0160320641282565E-4</v>
-      </c>
-      <c r="C229">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D229">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E229" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F229" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>115128.50371700012</v>
-      </c>
-      <c r="B230">
-        <v>8.5170340681362726E-4</v>
-      </c>
-      <c r="C230">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D230">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E230" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F230" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>127007.37202900001</v>
-      </c>
-      <c r="B231">
-        <v>9.0180360721442887E-4</v>
-      </c>
-      <c r="C231">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D231">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E231" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F231" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>139528.424608</v>
-      </c>
-      <c r="B232">
-        <v>9.5190380761523037E-4</v>
-      </c>
-      <c r="C232">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D232">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E232" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F232" s="64">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>152603.17908600002</v>
-      </c>
-      <c r="B233">
-        <v>1.002004008016032E-3</v>
-      </c>
-      <c r="C233">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D233">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E233" s="64">
-        <v>1.4E-8</v>
-      </c>
-      <c r="F233" s="64">
-        <v>6.1000000000000004E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Dados_Forchheimer.xlsx
+++ b/Dados_Forchheimer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F6C34E-CED9-4EB5-B651-4D82EA225BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FFF96D-69A9-4DCB-AF45-128EDBF3E0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="34">
   <si>
     <t>m [kg/s]</t>
   </si>
@@ -140,21 +140,17 @@
     <t>e</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>k2</t>
+    <t>v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -710,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,6 +827,33 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="9" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,33 +878,6 @@
     <xf numFmtId="2" fontId="9" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="10" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,6 +888,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10112,7 +10124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A409FCA-AD05-489C-9418-E8190D4FADE5}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23:E23"/>
     </sheetView>
   </sheetViews>
@@ -10605,8 +10617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20253A0B-AC37-40BE-81EB-FCE066D46965}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18:Z47"/>
+    <sheetView topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18:AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10623,42 +10635,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="55" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="55" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+      <c r="Q1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="57"/>
-      <c r="Y1" s="55" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
+      <c r="Y1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="57"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="46"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -12231,42 +12243,42 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="I17" s="58" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="I17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
-      <c r="Q17" s="58" t="s">
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="Q17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="60"/>
-      <c r="Y17" s="58" t="s">
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="49"/>
+      <c r="Y17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="60"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="49"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -15449,164 +15461,164 @@
       </c>
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="52">
+      <c r="B48" s="50">
         <f>Parâmetros!$H$3 / F48</f>
         <v>2.7269148022420438E-8</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="F48" s="44">
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
+      <c r="F48" s="53">
         <v>31308</v>
       </c>
-      <c r="G48" s="45"/>
-      <c r="I48" s="54" t="s">
+      <c r="G48" s="54"/>
+      <c r="I48" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J48" s="52">
+      <c r="J48" s="50">
         <f>Parâmetros!$H$3 / N48</f>
         <v>5.4298956069830125E-8</v>
       </c>
-      <c r="K48" s="52"/>
-      <c r="L48" s="53"/>
-      <c r="N48" s="44">
+      <c r="K48" s="50"/>
+      <c r="L48" s="51"/>
+      <c r="N48" s="53">
         <v>15723</v>
       </c>
-      <c r="O48" s="45"/>
-      <c r="Q48" s="54" t="s">
+      <c r="O48" s="54"/>
+      <c r="Q48" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="R48" s="52">
+      <c r="R48" s="50">
         <f>Parâmetros!$H$3 / V48</f>
         <v>7.7754324798355109E-8</v>
       </c>
-      <c r="S48" s="52"/>
-      <c r="T48" s="53"/>
-      <c r="V48" s="44">
+      <c r="S48" s="50"/>
+      <c r="T48" s="51"/>
+      <c r="V48" s="53">
         <v>10980</v>
       </c>
-      <c r="W48" s="45"/>
-      <c r="Y48" s="54" t="s">
+      <c r="W48" s="54"/>
+      <c r="Y48" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Z48" s="52">
+      <c r="Z48" s="50">
         <f>Parâmetros!$H$3 / AD48</f>
         <v>9.8334771514160225E-8</v>
       </c>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="53"/>
-      <c r="AD48" s="44">
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="51"/>
+      <c r="AD48" s="53">
         <v>8682</v>
       </c>
-      <c r="AE48" s="45"/>
+      <c r="AE48" s="54"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="53"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="47"/>
-      <c r="Q49" s="54"/>
-      <c r="R49" s="52"/>
-      <c r="S49" s="52"/>
-      <c r="T49" s="53"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="47"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="53"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="47"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="51"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="56"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="51"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="56"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="50"/>
+      <c r="T49" s="51"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="56"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="51"/>
+      <c r="AD49" s="55"/>
+      <c r="AE49" s="56"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="52">
+      <c r="B50" s="50">
         <f>Parâmetros!$G$3 / F50</f>
         <v>8.3693236613694502E-3</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="F50" s="48">
+      <c r="C50" s="50"/>
+      <c r="D50" s="51"/>
+      <c r="F50" s="57">
         <v>119245</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="I50" s="54" t="s">
+      <c r="G50" s="58"/>
+      <c r="I50" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J50" s="50">
         <f>Parâmetros!$G$3 / N50</f>
         <v>1.2233390536896298E-2</v>
       </c>
-      <c r="K50" s="52"/>
-      <c r="L50" s="53"/>
-      <c r="N50" s="48">
+      <c r="K50" s="50"/>
+      <c r="L50" s="51"/>
+      <c r="N50" s="57">
         <v>81580</v>
       </c>
-      <c r="O50" s="49"/>
-      <c r="Q50" s="54" t="s">
+      <c r="O50" s="58"/>
+      <c r="Q50" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="R50" s="52">
+      <c r="R50" s="50">
         <f>Parâmetros!$G$3 / V50</f>
         <v>1.4981385853248468E-2</v>
       </c>
-      <c r="S50" s="52"/>
-      <c r="T50" s="53"/>
-      <c r="V50" s="48">
+      <c r="S50" s="50"/>
+      <c r="T50" s="51"/>
+      <c r="V50" s="57">
         <v>66616</v>
       </c>
-      <c r="W50" s="49"/>
-      <c r="Y50" s="54" t="s">
+      <c r="W50" s="58"/>
+      <c r="Y50" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Z50" s="52">
+      <c r="Z50" s="50">
         <f>Parâmetros!$G$3 / AD50</f>
         <v>1.6753399362095016E-2</v>
       </c>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="53"/>
-      <c r="AD50" s="48">
+      <c r="AA50" s="50"/>
+      <c r="AB50" s="51"/>
+      <c r="AD50" s="57">
         <v>59570</v>
       </c>
-      <c r="AE50" s="49"/>
+      <c r="AE50" s="58"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="53"/>
-      <c r="N51" s="50"/>
-      <c r="O51" s="51"/>
-      <c r="Q51" s="54"/>
-      <c r="R51" s="52"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="53"/>
-      <c r="V51" s="50"/>
-      <c r="W51" s="51"/>
-      <c r="Y51" s="54"/>
-      <c r="Z51" s="52"/>
-      <c r="AA51" s="52"/>
-      <c r="AB51" s="53"/>
-      <c r="AD51" s="50"/>
-      <c r="AE51" s="51"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="51"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="51"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="60"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="50"/>
+      <c r="S51" s="50"/>
+      <c r="T51" s="51"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="60"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="50"/>
+      <c r="AA51" s="50"/>
+      <c r="AB51" s="51"/>
+      <c r="AD51" s="59"/>
+      <c r="AE51" s="60"/>
     </row>
     <row r="52" spans="1:31" ht="25.5" x14ac:dyDescent="0.25">
       <c r="N52" s="32"/>
@@ -15614,22 +15626,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B50:D51"/>
     <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="AD50:AE51"/>
     <mergeCell ref="F48:G49"/>
@@ -15646,6 +15642,22 @@
     <mergeCell ref="Y50:Y51"/>
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="Y17:AE17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15656,8 +15668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182110-318C-4606-A178-4CC63F538A66}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+    <sheetView topLeftCell="D9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18:AF45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15674,43 +15686,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="I1" s="55" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="I1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="57"/>
-      <c r="Q1" s="55" t="s">
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+      <c r="Q1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="57"/>
-      <c r="Y1" s="55" t="s">
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="46"/>
+      <c r="Y1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="57"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="46"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
@@ -17328,43 +17340,43 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="I17" s="58" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="I17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="60"/>
-      <c r="Q17" s="58" t="s">
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="Q17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="60"/>
-      <c r="Y17" s="58" t="s">
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="49"/>
+      <c r="Y17" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="60"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="49"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -20419,87 +20431,87 @@
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="52">
+      <c r="B46" s="50">
         <f>Parâmetros!$H$3 / F46</f>
         <v>3.9761660167474977E-9</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="F46" s="44">
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="F46" s="53">
         <v>214715</v>
       </c>
-      <c r="G46" s="45"/>
-      <c r="I46" s="54" t="s">
+      <c r="G46" s="54"/>
+      <c r="I46" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J46" s="52">
+      <c r="J46" s="50">
         <f>Parâmetros!$H$3 / N46</f>
         <v>5.8778261062867577E-9</v>
       </c>
-      <c r="K46" s="52"/>
-      <c r="L46" s="53"/>
-      <c r="N46" s="44">
+      <c r="K46" s="50"/>
+      <c r="L46" s="51"/>
+      <c r="N46" s="53">
         <v>145248</v>
       </c>
-      <c r="O46" s="45"/>
-      <c r="Q46" s="54" t="s">
+      <c r="O46" s="54"/>
+      <c r="Q46" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="52">
+      <c r="R46" s="50">
         <f>Parâmetros!$H$3 / V46</f>
         <v>8.6965721328913011E-9</v>
       </c>
-      <c r="S46" s="52"/>
-      <c r="T46" s="53"/>
-      <c r="V46" s="44">
+      <c r="S46" s="50"/>
+      <c r="T46" s="51"/>
+      <c r="V46" s="53">
         <v>98170</v>
       </c>
-      <c r="W46" s="45"/>
-      <c r="Y46" s="54" t="s">
+      <c r="W46" s="54"/>
+      <c r="Y46" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Z46" s="52">
+      <c r="Z46" s="50">
         <f>Parâmetros!$H$3 / AE46</f>
         <v>1.4028434820170546E-8</v>
       </c>
-      <c r="AA46" s="52"/>
-      <c r="AB46" s="53"/>
-      <c r="AE46" s="44">
+      <c r="AA46" s="50"/>
+      <c r="AB46" s="51"/>
+      <c r="AE46" s="53">
         <v>60858</v>
       </c>
-      <c r="AF46" s="45"/>
+      <c r="AF46" s="54"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="53"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="47"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="52"/>
-      <c r="S47" s="52"/>
-      <c r="T47" s="53"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="47"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="52"/>
-      <c r="AA47" s="52"/>
-      <c r="AB47" s="53"/>
-      <c r="AE47" s="46"/>
-      <c r="AF47" s="47"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="51"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="56"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="51"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="56"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="51"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="56"/>
+      <c r="Y47" s="52"/>
+      <c r="Z47" s="50"/>
+      <c r="AA47" s="50"/>
+      <c r="AB47" s="51"/>
+      <c r="AE47" s="55"/>
+      <c r="AF47" s="56"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B48" s="61">
@@ -20508,11 +20520,11 @@
       </c>
       <c r="C48" s="61"/>
       <c r="D48" s="62"/>
-      <c r="F48" s="48">
+      <c r="F48" s="57">
         <v>382213</v>
       </c>
-      <c r="G48" s="49"/>
-      <c r="I48" s="54" t="s">
+      <c r="G48" s="58"/>
+      <c r="I48" s="52" t="s">
         <v>28</v>
       </c>
       <c r="J48" s="61">
@@ -20521,11 +20533,11 @@
       </c>
       <c r="K48" s="61"/>
       <c r="L48" s="62"/>
-      <c r="N48" s="48">
+      <c r="N48" s="57">
         <v>243420</v>
       </c>
-      <c r="O48" s="49"/>
-      <c r="Q48" s="54" t="s">
+      <c r="O48" s="58"/>
+      <c r="Q48" s="52" t="s">
         <v>28</v>
       </c>
       <c r="R48" s="61">
@@ -20534,49 +20546,49 @@
       </c>
       <c r="S48" s="61"/>
       <c r="T48" s="62"/>
-      <c r="V48" s="48">
+      <c r="V48" s="57">
         <v>197663</v>
       </c>
-      <c r="W48" s="49"/>
-      <c r="Y48" s="54" t="s">
+      <c r="W48" s="58"/>
+      <c r="Y48" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="Z48" s="52">
+      <c r="Z48" s="50">
         <f>Parâmetros!$G$3 / AE48</f>
         <v>6.102482573070808E-3</v>
       </c>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="53"/>
-      <c r="AE48" s="48">
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="51"/>
+      <c r="AE48" s="57">
         <v>163540</v>
       </c>
-      <c r="AF48" s="49"/>
+      <c r="AF48" s="58"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="63"/>
       <c r="C49" s="63"/>
       <c r="D49" s="64"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="I49" s="54"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="I49" s="52"/>
       <c r="J49" s="63"/>
       <c r="K49" s="63"/>
       <c r="L49" s="64"/>
-      <c r="N49" s="50"/>
-      <c r="O49" s="51"/>
-      <c r="Q49" s="54"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="60"/>
+      <c r="Q49" s="52"/>
       <c r="R49" s="63"/>
       <c r="S49" s="63"/>
       <c r="T49" s="64"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="51"/>
-      <c r="Y49" s="54"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="53"/>
-      <c r="AE49" s="50"/>
-      <c r="AF49" s="51"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="60"/>
+      <c r="Y49" s="52"/>
+      <c r="Z49" s="50"/>
+      <c r="AA49" s="50"/>
+      <c r="AB49" s="51"/>
+      <c r="AE49" s="59"/>
+      <c r="AF49" s="60"/>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I65" s="17" t="s">
@@ -20593,22 +20605,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AF1"/>
-    <mergeCell ref="Y17:AF17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="I48:I49"/>
     <mergeCell ref="V46:W47"/>
     <mergeCell ref="V48:W49"/>
     <mergeCell ref="J46:L47"/>
@@ -20625,6 +20621,22 @@
     <mergeCell ref="R48:T49"/>
     <mergeCell ref="N46:O47"/>
     <mergeCell ref="N48:O49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="F46:G47"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="Y17:AF17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20636,4751 +20648,4163 @@
   <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
+      <c r="G1">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="H1">
+        <v>4.0722837856643025E-2</v>
+      </c>
+      <c r="I1">
+        <v>250.5203372924386</v>
+      </c>
+      <c r="J1" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K1" s="33">
+        <v>885.2348833333333</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="69">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="B2" s="66">
+        <v>8.3758672542065774E-2</v>
+      </c>
+      <c r="C2" s="66">
+        <v>214.36412509888066</v>
+      </c>
+      <c r="D2" s="67">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E2" s="68">
         <v>1984.30015</v>
       </c>
-      <c r="B2">
+      <c r="G2">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="H2">
+        <v>8.144567571328605E-2</v>
+      </c>
+      <c r="I2">
+        <v>501.04067458487719</v>
+      </c>
+      <c r="J2" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K2" s="33">
+        <v>2927.1662083333335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="69">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0.16751734508413155</v>
+      </c>
+      <c r="C3" s="25">
+        <v>428.72825019776133</v>
+      </c>
+      <c r="D3" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E3" s="33">
+        <v>6260.6761999999999</v>
+      </c>
+      <c r="F3" s="33"/>
+      <c r="G3">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="H3">
+        <v>0.12216851356992905</v>
+      </c>
+      <c r="I3">
+        <v>751.56101187731565</v>
+      </c>
+      <c r="J3" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K3" s="33">
+        <v>6003.5740999999998</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="69">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0.25127601762619728</v>
+      </c>
+      <c r="C4" s="25">
+        <v>643.09237529664188</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E4" s="33">
+        <v>12544.536041666668</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="H4">
+        <v>0.1628913514265721</v>
+      </c>
+      <c r="I4">
+        <v>1002.0813491697544</v>
+      </c>
+      <c r="J4" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K4" s="33">
+        <v>10030.104591666666</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="69">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.33503469016826309</v>
+      </c>
+      <c r="C5" s="25">
+        <v>857.45650039552265</v>
+      </c>
+      <c r="D5" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E5" s="33">
+        <v>20745.363700000002</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="H5">
+        <v>0.20361418928321512</v>
+      </c>
+      <c r="I5">
+        <v>1252.6016864621931</v>
+      </c>
+      <c r="J5" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K5" s="33">
+        <v>14937.990291666667</v>
+      </c>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="69">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.41879336271032885</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1071.8206254944032</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E6" s="33">
+        <v>30812.633166666667</v>
+      </c>
+      <c r="F6" s="33"/>
+      <c r="G6">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="H6">
+        <v>0.24433702713985811</v>
+      </c>
+      <c r="I6">
+        <v>1503.1220237546313</v>
+      </c>
+      <c r="J6" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K6" s="33">
+        <v>20673.045025000003</v>
+      </c>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="69">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.50255203525239456</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1286.1847505932838</v>
+      </c>
+      <c r="D7" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E7" s="33">
+        <v>42709.957158333331</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="H7">
+        <v>0.28505986499650121</v>
+      </c>
+      <c r="I7">
+        <v>1753.6423610470706</v>
+      </c>
+      <c r="J7" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K7" s="33">
+        <v>27192.227016666668</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.58631070779446048</v>
+      </c>
+      <c r="C8" s="25">
+        <v>1500.5488756921648</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E8" s="33">
+        <v>56408.862758333344</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="H8">
+        <v>0.3257827028531442</v>
+      </c>
+      <c r="I8">
+        <v>2004.1626983395088</v>
+      </c>
+      <c r="J8" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K8" s="33">
+        <v>34461.94896666667</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="69">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="B9" s="25">
+        <v>0.67006938033652619</v>
+      </c>
+      <c r="C9" s="25">
+        <v>1714.9130007910453</v>
+      </c>
+      <c r="D9" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E9" s="33">
+        <v>71884.659233333354</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="H9">
+        <v>0.36650554070978714</v>
+      </c>
+      <c r="I9">
+        <v>2254.683035631947</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K9" s="33">
+        <v>42463.264241666671</v>
+      </c>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="69">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.75382805287859178</v>
+      </c>
+      <c r="C10" s="25">
+        <v>1929.2771258899256</v>
+      </c>
+      <c r="D10" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E10" s="33">
+        <v>89116.886725000004</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="H10">
+        <v>0.40722837856643024</v>
+      </c>
+      <c r="I10">
+        <v>2505.2033729243863</v>
+      </c>
+      <c r="J10" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K10" s="33">
+        <v>51176.670708333339</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="69">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.83758672542065771</v>
+      </c>
+      <c r="C11" s="25">
+        <v>2143.6412509888064</v>
+      </c>
+      <c r="D11" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E11" s="33">
+        <v>108087.39842499999</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="H11">
+        <v>0.6108425678496453</v>
+      </c>
+      <c r="I11">
+        <v>3757.8050593865787</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K11" s="33">
+        <v>105251.24630833333</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="69">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.9213453979627233</v>
+      </c>
+      <c r="C12" s="25">
+        <v>2358.0053760876867</v>
+      </c>
+      <c r="D12" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E12" s="33">
+        <v>128778.08180000001</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="H12">
+        <v>0.81445675713286048</v>
+      </c>
+      <c r="I12">
+        <v>5010.4067458487725</v>
+      </c>
+      <c r="J12" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K12" s="33">
+        <v>177976.0877</v>
+      </c>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="69">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="B13" s="25">
+        <v>1.0051040705047891</v>
+      </c>
+      <c r="C13" s="25">
+        <v>2572.3695011865675</v>
+      </c>
+      <c r="D13" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E13" s="33">
+        <v>151171.37594166669</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="H13">
+        <v>1.0180709464160753</v>
+      </c>
+      <c r="I13">
+        <v>6263.0084323109631</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K13" s="33">
+        <v>270188.09240833332</v>
+      </c>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="B14" s="25">
+        <v>1.0888627430468549</v>
+      </c>
+      <c r="C14" s="25">
+        <v>2786.7336262854483</v>
+      </c>
+      <c r="D14" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E14" s="33">
+        <v>175249.33963333338</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="H14">
+        <v>1.2216851356992906</v>
+      </c>
+      <c r="I14">
+        <v>7515.6101187731574</v>
+      </c>
+      <c r="J14" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K14" s="33">
+        <v>381014.03823333333</v>
+      </c>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="69">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="B15" s="25">
+        <v>1.172621415588921</v>
+      </c>
+      <c r="C15" s="25">
+        <v>3001.0977513843295</v>
+      </c>
+      <c r="D15" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E15" s="33">
+        <v>200991.95455833332</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="H15">
+        <v>1.4252993249825057</v>
+      </c>
+      <c r="I15">
+        <v>8768.2118052353508</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K15" s="33">
+        <v>509577.04858333332</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="69">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1.2563800881309866</v>
+      </c>
+      <c r="C16" s="25">
+        <v>3215.4618764832098</v>
+      </c>
+      <c r="D16" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E16" s="33">
+        <v>228381.61929166666</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="H16">
+        <v>1.628913514265721</v>
+      </c>
+      <c r="I16">
+        <v>10020.813491697545</v>
+      </c>
+      <c r="J16" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K16" s="33">
+        <v>657691.73343333346</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="69">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1.3401387606730524</v>
+      </c>
+      <c r="C17" s="25">
+        <v>3429.8260015820906</v>
+      </c>
+      <c r="D17" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E17" s="33">
+        <v>257402.63368333335</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="H17">
+        <v>1.832527703548936</v>
+      </c>
+      <c r="I17">
+        <v>11273.415178159737</v>
+      </c>
+      <c r="J17" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K17" s="33">
+        <v>829242.27963333344</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="69">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1.423897433215118</v>
+      </c>
+      <c r="C18" s="25">
+        <v>3644.1901266809705</v>
+      </c>
+      <c r="D18" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E18" s="33">
+        <v>288039.42388333339</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="H18">
+        <v>2.0361418928321506</v>
+      </c>
+      <c r="I18">
+        <v>12526.016864621926</v>
+      </c>
+      <c r="J18" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K18" s="33">
+        <v>1023883.3626666667</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="69">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1.5076561057571836</v>
+      </c>
+      <c r="C19" s="25">
+        <v>3858.5542517798513</v>
+      </c>
+      <c r="D19" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E19" s="33">
+        <v>320276.39294166671</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="H19">
+        <v>2.2397560821153664</v>
+      </c>
+      <c r="I19">
+        <v>13778.618551084124</v>
+      </c>
+      <c r="J19" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K19" s="33">
+        <v>1235408.4496416666</v>
+      </c>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="69">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="B20" s="25">
+        <v>1.5914147782992496</v>
+      </c>
+      <c r="C20" s="25">
+        <v>4072.9183768787325</v>
+      </c>
+      <c r="D20" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E20" s="33">
+        <v>354098.83654166671</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="H20">
+        <v>2.4433702713985812</v>
+      </c>
+      <c r="I20">
+        <v>15031.220237546315</v>
+      </c>
+      <c r="J20" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K20" s="33">
+        <v>1457118.0309333336</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="69">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="B21" s="25">
+        <v>1.6751734508413154</v>
+      </c>
+      <c r="C21" s="25">
+        <v>4287.2825019776128</v>
+      </c>
+      <c r="D21" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E21" s="33">
+        <v>389490.67455</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="H21">
+        <v>2.6469844606817965</v>
+      </c>
+      <c r="I21">
+        <v>16283.821924008509</v>
+      </c>
+      <c r="J21" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K21" s="33">
+        <v>1689320.01095</v>
+      </c>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="69">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="B22" s="25">
+        <v>1.7589321233833808</v>
+      </c>
+      <c r="C22" s="25">
+        <v>4501.6466270764931</v>
+      </c>
+      <c r="D22" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E22" s="33">
+        <v>426443.1654916667</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="H22">
+        <v>2.8505986499650113</v>
+      </c>
+      <c r="I22">
+        <v>17536.423610470702</v>
+      </c>
+      <c r="J22" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K22" s="33">
+        <v>1932812.4605416667</v>
+      </c>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="69">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="B23" s="25">
+        <v>1.8426907959254466</v>
+      </c>
+      <c r="C23" s="25">
+        <v>4716.0107521753735</v>
+      </c>
+      <c r="D23" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E23" s="33">
+        <v>464944.02697499999</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="H23">
+        <v>3.0542128392482266</v>
+      </c>
+      <c r="I23">
+        <v>18789.025296932894</v>
+      </c>
+      <c r="J23" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K23" s="33">
+        <v>2186599.2222833335</v>
+      </c>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="69">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="B24" s="25">
+        <v>1.9264494684675129</v>
+      </c>
+      <c r="C24" s="25">
+        <v>4930.3748772742556</v>
+      </c>
+      <c r="D24" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E24" s="33">
+        <v>504979.74255000002</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="H24">
+        <v>3.2578270285314419</v>
+      </c>
+      <c r="I24">
+        <v>20041.62698339509</v>
+      </c>
+      <c r="J24" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K24" s="33">
+        <v>2449971.370616667</v>
+      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="69">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="B25" s="25">
+        <v>2.0102081410095782</v>
+      </c>
+      <c r="C25" s="25">
+        <v>5144.739002373135</v>
+      </c>
+      <c r="D25" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E25" s="33">
+        <v>546538.74202500016</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="H25">
+        <v>3.4614412178146567</v>
+      </c>
+      <c r="I25">
+        <v>21294.228669857279</v>
+      </c>
+      <c r="J25" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K25" s="33">
+        <v>2721215.5247583333</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="69">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="B26" s="25">
+        <v>2.0939668135516443</v>
+      </c>
+      <c r="C26" s="25">
+        <v>5359.1031274720162</v>
+      </c>
+      <c r="D26" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E26" s="33">
+        <v>589611.87465000001</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="H26">
+        <v>3.665055407097872</v>
+      </c>
+      <c r="I26">
+        <v>22546.830356319475</v>
+      </c>
+      <c r="J26" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K26" s="33">
+        <v>3003762.3778416668</v>
+      </c>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="69">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="B27" s="25">
+        <v>2.1777254860937099</v>
+      </c>
+      <c r="C27" s="25">
+        <v>5573.4672525708966</v>
+      </c>
+      <c r="D27" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E27" s="33">
+        <v>634185.72375833336</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="H27">
+        <v>3.8686695963810864</v>
+      </c>
+      <c r="I27">
+        <v>23799.43204278166</v>
+      </c>
+      <c r="J27" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K27" s="33">
+        <v>3303174.4525833335</v>
+      </c>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="B28" s="25">
+        <v>2.2614841586357759</v>
+      </c>
+      <c r="C28" s="25">
+        <v>5787.8313776697778</v>
+      </c>
+      <c r="D28" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E28" s="33">
+        <v>680249.53991666669</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="H28">
+        <v>4.0722837856643013</v>
+      </c>
+      <c r="I28">
+        <v>25052.033729243853</v>
+      </c>
+      <c r="J28" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="K28" s="33">
+        <v>3619524.9519416671</v>
+      </c>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="69">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="B29" s="25">
+        <v>2.3452428311778419</v>
+      </c>
+      <c r="C29" s="25">
+        <v>6002.195502768659</v>
+      </c>
+      <c r="D29" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E29" s="33">
+        <v>727795.09903333336</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="69">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="B30" s="25">
+        <v>2.4290015037199071</v>
+      </c>
+      <c r="C30" s="25">
+        <v>6216.5596278675384</v>
+      </c>
+      <c r="D30" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E30" s="33">
+        <v>776808.20810000005</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="70">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="B31" s="28">
+        <v>2.5127601762619731</v>
+      </c>
+      <c r="C31" s="28">
+        <v>6430.9237529664197</v>
+      </c>
+      <c r="D31" s="65">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E31" s="33">
+        <v>827285.66457500006</v>
+      </c>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>1.0020040080160322E-5</v>
       </c>
-      <c r="C2">
+      <c r="B32">
+        <v>7.43875420226731E-2</v>
+      </c>
+      <c r="C32">
+        <v>272.77549498257912</v>
+      </c>
+      <c r="D32" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E32" s="33">
+        <v>951.50070833333336</v>
+      </c>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="B33">
+        <v>0.1487750840453462</v>
+      </c>
+      <c r="C33">
+        <v>545.55098996515824</v>
+      </c>
+      <c r="D33" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E33" s="33">
+        <v>3058.2860500000002</v>
+      </c>
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="B34">
+        <v>0.22316262606801929</v>
+      </c>
+      <c r="C34">
+        <v>818.3264849477373</v>
+      </c>
+      <c r="D34" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E34" s="33">
+        <v>6222.6603750000004</v>
+      </c>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="B35">
+        <v>0.2975501680906924</v>
+      </c>
+      <c r="C35">
+        <v>1091.1019799303165</v>
+      </c>
+      <c r="D35" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E35" s="33">
+        <v>10406.65445</v>
+      </c>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="B36">
+        <v>0.37193771011336552</v>
+      </c>
+      <c r="C36">
+        <v>1363.8774749128959</v>
+      </c>
+      <c r="D36" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E36" s="33">
+        <v>15589.415683333335</v>
+      </c>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="B37">
+        <v>0.44632525213603857</v>
+      </c>
+      <c r="C37">
+        <v>1636.6529698954746</v>
+      </c>
+      <c r="D37" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E37" s="33">
+        <v>21754.013775000003</v>
+      </c>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="33">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="B38">
+        <v>0.52071279415871174</v>
+      </c>
+      <c r="C38">
+        <v>1909.4284648780542</v>
+      </c>
+      <c r="D38" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E38" s="33">
+        <v>28886.681966666667</v>
+      </c>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="B39">
+        <v>0.5951003361813848</v>
+      </c>
+      <c r="C39">
+        <v>2182.2039598606329</v>
+      </c>
+      <c r="D39" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E39" s="33">
+        <v>36975.505591666668</v>
+      </c>
+      <c r="F39" s="33"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="33">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="B40">
+        <v>0.66948787820405775</v>
+      </c>
+      <c r="C40">
+        <v>2454.9794548432119</v>
+      </c>
+      <c r="D40" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E40" s="33">
+        <v>46008.764925000003</v>
+      </c>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="B41">
+        <v>0.74387542022673103</v>
+      </c>
+      <c r="C41">
+        <v>2727.7549498257918</v>
+      </c>
+      <c r="D41" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E41" s="33">
+        <v>55975.981683333332</v>
+      </c>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="B42">
+        <v>0.81826296224940398</v>
+      </c>
+      <c r="C42">
+        <v>3000.5304448083698</v>
+      </c>
+      <c r="D42" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E42" s="33">
+        <v>66867.668358333336</v>
+      </c>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="33">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="B43">
+        <v>0.89265050427207715</v>
+      </c>
+      <c r="C43">
+        <v>3273.3059397909492</v>
+      </c>
+      <c r="D43" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E43" s="33">
+        <v>78674.377075000011</v>
+      </c>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="33">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="B44">
+        <v>0.96703804629475021</v>
+      </c>
+      <c r="C44">
+        <v>3546.0814347735286</v>
+      </c>
+      <c r="D44" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E44" s="33">
+        <v>91388.315525000013</v>
+      </c>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="33">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="B45">
+        <v>1.0414255883174235</v>
+      </c>
+      <c r="C45">
+        <v>3818.8569297561085</v>
+      </c>
+      <c r="D45" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E45" s="33">
+        <v>105001.90495833334</v>
+      </c>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="B46">
+        <v>1.1158131303400964</v>
+      </c>
+      <c r="C46">
+        <v>4091.6324247386865</v>
+      </c>
+      <c r="D46" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E46" s="33">
+        <v>119505.832175</v>
+      </c>
+      <c r="F46" s="33"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="33">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="B47">
+        <v>1.1902006723627696</v>
+      </c>
+      <c r="C47">
+        <v>4364.4079197212659</v>
+      </c>
+      <c r="D47" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E47" s="33">
+        <v>134893.68693333335</v>
+      </c>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="B48">
+        <v>1.2645882143854428</v>
+      </c>
+      <c r="C48">
+        <v>4637.1834147038462</v>
+      </c>
+      <c r="D48" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E48" s="33">
+        <v>151157.877175</v>
+      </c>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="B49">
+        <v>1.3389757564081155</v>
+      </c>
+      <c r="C49">
+        <v>4909.9589096864238</v>
+      </c>
+      <c r="D49" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E49" s="33">
+        <v>168288.67141666668</v>
+      </c>
+      <c r="F49" s="33"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="33">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="B50">
+        <v>1.4133632984307889</v>
+      </c>
+      <c r="C50">
+        <v>5182.7344046690032</v>
+      </c>
+      <c r="D50" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E50" s="33">
+        <v>186278.41414166667</v>
+      </c>
+      <c r="F50" s="33"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="B51">
+        <v>1.4877508404534621</v>
+      </c>
+      <c r="C51">
+        <v>5455.5098996515835</v>
+      </c>
+      <c r="D51" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E51" s="33">
+        <v>205123.83505833332</v>
+      </c>
+      <c r="F51" s="33"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="B52">
+        <v>1.5621383824761348</v>
+      </c>
+      <c r="C52">
+        <v>5728.2853946341611</v>
+      </c>
+      <c r="D52" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E52" s="33">
+        <v>224815.91257500002</v>
+      </c>
+      <c r="F52" s="33"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="33">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="B53">
+        <v>1.636525924498808</v>
+      </c>
+      <c r="C53">
+        <v>6001.0608896167396</v>
+      </c>
+      <c r="D53" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E53" s="33">
+        <v>245352.05888333335</v>
+      </c>
+      <c r="F53" s="33"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="33">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="B54">
+        <v>1.7109134665214814</v>
+      </c>
+      <c r="C54">
+        <v>6273.8363845993208</v>
+      </c>
+      <c r="D54" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E54" s="33">
+        <v>266723.94503333338</v>
+      </c>
+      <c r="F54" s="33"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="B55">
+        <v>1.7853010085441543</v>
+      </c>
+      <c r="C55">
+        <v>6546.6118795818984</v>
+      </c>
+      <c r="D55" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E55" s="33">
+        <v>288927.59086666669</v>
+      </c>
+      <c r="F55" s="33"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="B56">
+        <v>1.8596885505668272</v>
+      </c>
+      <c r="C56">
+        <v>6819.3873745644769</v>
+      </c>
+      <c r="D56" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E56" s="33">
+        <v>311956.86201666668</v>
+      </c>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="33">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="B57">
+        <v>1.9340760925895004</v>
+      </c>
+      <c r="C57">
+        <v>7092.1628695470572</v>
+      </c>
+      <c r="D57" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E57" s="33">
+        <v>335808.13080000004</v>
+      </c>
+      <c r="F57" s="33"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="33">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="B58">
+        <v>2.0084636346121738</v>
+      </c>
+      <c r="C58">
+        <v>7364.9383645296366</v>
+      </c>
+      <c r="D58" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E58" s="33">
+        <v>360473.05765000003</v>
+      </c>
+      <c r="F58" s="33"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="33">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="B59">
+        <v>2.082851176634847</v>
+      </c>
+      <c r="C59">
+        <v>7637.7138595122169</v>
+      </c>
+      <c r="D59" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E59" s="33">
+        <v>385948.3895833334</v>
+      </c>
+      <c r="F59" s="33"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="B60">
+        <v>2.1572387186575193</v>
+      </c>
+      <c r="C60">
+        <v>7910.4893544947927</v>
+      </c>
+      <c r="D60" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E60" s="33">
+        <v>412226.80115833331</v>
+      </c>
+      <c r="F60" s="33"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="33">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="B61">
+        <v>2.2316262606801929</v>
+      </c>
+      <c r="C61">
+        <v>8183.264849477373</v>
+      </c>
+      <c r="D61" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E61" s="33">
+        <v>439306.23170833336</v>
+      </c>
+      <c r="F61" s="33"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="B62">
+        <v>6.9715051269997691E-2</v>
+      </c>
+      <c r="C62">
+        <v>315.52040174361548</v>
+      </c>
+      <c r="D62" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E62" s="33">
+        <v>658.33333333333337</v>
+      </c>
+      <c r="F62" s="33"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="B63">
+        <v>0.13943010253999538</v>
+      </c>
+      <c r="C63">
+        <v>631.04080348723096</v>
+      </c>
+      <c r="D63" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E63" s="33">
+        <v>2070.7188750000005</v>
+      </c>
+      <c r="F63" s="33"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="33">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="B64">
+        <v>0.20914515380999305</v>
+      </c>
+      <c r="C64">
+        <v>946.56120523084621</v>
+      </c>
+      <c r="D64" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E64" s="33">
+        <v>4259.6387333333332</v>
+      </c>
+      <c r="F64" s="33"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="B65">
+        <v>0.27886020507999076</v>
+      </c>
+      <c r="C65">
+        <v>1262.0816069744619</v>
+      </c>
+      <c r="D65" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E65" s="33">
+        <v>7184.7886583333338</v>
+      </c>
+      <c r="F65" s="33"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="33">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="B66">
+        <v>0.34857525634998843</v>
+      </c>
+      <c r="C66">
+        <v>1577.6020087180773</v>
+      </c>
+      <c r="D66" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E66" s="33">
+        <v>10831.313966666668</v>
+      </c>
+      <c r="F66" s="33"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="33">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="B67">
+        <v>0.41829030761998609</v>
+      </c>
+      <c r="C67">
+        <v>1893.1224104616924</v>
+      </c>
+      <c r="D67" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E67" s="33">
+        <v>15184.644999999999</v>
+      </c>
+      <c r="F67" s="33"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="33">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="B68">
+        <v>0.48800535888998381</v>
+      </c>
+      <c r="C68">
+        <v>2208.6428122053085</v>
+      </c>
+      <c r="D68" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E68" s="33">
+        <v>20232.818541666667</v>
+      </c>
+      <c r="F68" s="33"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="B69">
+        <v>0.55772041015998153</v>
+      </c>
+      <c r="C69">
+        <v>2524.1632139489238</v>
+      </c>
+      <c r="D69" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E69" s="33">
+        <v>25966.17091666667</v>
+      </c>
+      <c r="F69" s="33"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="33">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="B70">
+        <v>0.62743546142997908</v>
+      </c>
+      <c r="C70">
+        <v>2839.6836156925383</v>
+      </c>
+      <c r="D70" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E70" s="33">
+        <v>32375.484150000004</v>
+      </c>
+      <c r="F70" s="33"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="33">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="B71">
+        <v>0.69715051269997685</v>
+      </c>
+      <c r="C71">
+        <v>3155.2040174361546</v>
+      </c>
+      <c r="D71" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E71" s="33">
+        <v>39452.669925000002</v>
+      </c>
+      <c r="F71" s="33"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="33">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="B72">
+        <v>0.76686556396997441</v>
+      </c>
+      <c r="C72">
+        <v>3470.7244191797695</v>
+      </c>
+      <c r="D72" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E72" s="33">
+        <v>47190.531133333337</v>
+      </c>
+      <c r="F72" s="33"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="B73">
+        <v>0.83658061523997218</v>
+      </c>
+      <c r="C73">
+        <v>3786.2448209233849</v>
+      </c>
+      <c r="D73" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E73" s="33">
+        <v>55582.001616666661</v>
+      </c>
+      <c r="F73" s="33"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="33">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="B74">
+        <v>0.90629566650996984</v>
+      </c>
+      <c r="C74">
+        <v>4101.7652226670007</v>
+      </c>
+      <c r="D74" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E74" s="33">
+        <v>64621.613724999923</v>
+      </c>
+      <c r="F74" s="33"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="33">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="B75">
+        <v>0.97601071777996762</v>
+      </c>
+      <c r="C75">
+        <v>4417.2856244106169</v>
+      </c>
+      <c r="D75" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E75" s="33">
+        <v>74304.092600000004</v>
+      </c>
+      <c r="F75" s="33"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="33">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="B76">
+        <v>1.0457257690499653</v>
+      </c>
+      <c r="C76">
+        <v>4732.8060261542314</v>
+      </c>
+      <c r="D76" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E76" s="33">
+        <v>84622.464516666674</v>
+      </c>
+      <c r="F76" s="33"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="B77">
+        <v>1.1154408203199631</v>
+      </c>
+      <c r="C77">
+        <v>5048.3264278978477</v>
+      </c>
+      <c r="D77" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E77" s="33">
+        <v>95573.934475000002</v>
+      </c>
+      <c r="F77" s="33"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="33">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="B78">
+        <v>1.1851558715899606</v>
+      </c>
+      <c r="C78">
+        <v>5363.8468296414621</v>
+      </c>
+      <c r="D78" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E78" s="33">
+        <v>107150.84085000001</v>
+      </c>
+      <c r="F78" s="33"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="33">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="B79">
+        <v>1.2548709228599582</v>
+      </c>
+      <c r="C79">
+        <v>5679.3672313850766</v>
+      </c>
+      <c r="D79" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E79" s="33">
+        <v>119349.97729166667</v>
+      </c>
+      <c r="F79" s="33"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="33">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="B80">
+        <v>1.3245859741299559</v>
+      </c>
+      <c r="C80">
+        <v>5994.8876331286938</v>
+      </c>
+      <c r="D80" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E80" s="33">
+        <v>132168.00186666666</v>
+      </c>
+      <c r="F80" s="33"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="33">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="B81">
+        <v>1.3943010253999537</v>
+      </c>
+      <c r="C81">
+        <v>6310.4080348723091</v>
+      </c>
+      <c r="D81" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E81" s="33">
+        <v>145601.34756666666</v>
+      </c>
+      <c r="F81" s="33"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="33">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="B82">
+        <v>1.4640160766699513</v>
+      </c>
+      <c r="C82">
+        <v>6625.9284366159236</v>
+      </c>
+      <c r="D82" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E82" s="33">
+        <v>159646.20810833335</v>
+      </c>
+      <c r="F82" s="33"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="33">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="B83">
+        <v>1.5337311279399488</v>
+      </c>
+      <c r="C83">
+        <v>6941.448838359539</v>
+      </c>
+      <c r="D83" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E83" s="33">
+        <v>174298.049375</v>
+      </c>
+      <c r="F83" s="33"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="33">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="B84">
+        <v>1.6034461792099468</v>
+      </c>
+      <c r="C84">
+        <v>7256.9692401031552</v>
+      </c>
+      <c r="D84" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E84" s="33">
+        <v>189553.61316666668</v>
+      </c>
+      <c r="F84" s="33"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="33">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="B85">
+        <v>1.6731612304799444</v>
+      </c>
+      <c r="C85">
+        <v>7572.4896418467697</v>
+      </c>
+      <c r="D85" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E85" s="33">
+        <v>205411.57796666666</v>
+      </c>
+      <c r="F85" s="33"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="33">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="B86">
+        <v>1.7428762817499419</v>
+      </c>
+      <c r="C86">
+        <v>7888.010043590386</v>
+      </c>
+      <c r="D86" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E86" s="33">
+        <v>221863.81237500001</v>
+      </c>
+      <c r="F86" s="33"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="33">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="B87">
+        <v>1.8125913330199397</v>
+      </c>
+      <c r="C87">
+        <v>8203.5304453340013</v>
+      </c>
+      <c r="D87" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E87" s="33">
+        <v>238911.22569166668</v>
+      </c>
+      <c r="F87" s="33"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="33">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="B88">
+        <v>1.8823063842899377</v>
+      </c>
+      <c r="C88">
+        <v>8519.0508470776185</v>
+      </c>
+      <c r="D88" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E88" s="33">
+        <v>256548.49670833335</v>
+      </c>
+      <c r="F88" s="33"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="33">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="B89">
+        <v>1.9520214355599352</v>
+      </c>
+      <c r="C89">
+        <v>8834.5712488212339</v>
+      </c>
+      <c r="D89" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E89" s="33">
+        <v>274774.55405833333</v>
+      </c>
+      <c r="F89" s="33"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="33">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="B90">
+        <v>2.0217364868299326</v>
+      </c>
+      <c r="C90">
+        <v>9150.0916505648456</v>
+      </c>
+      <c r="D90" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E90" s="33">
+        <v>293587.03540833335</v>
+      </c>
+      <c r="F90" s="33"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="33">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="B91">
+        <v>2.0914515380999306</v>
+      </c>
+      <c r="C91">
+        <v>9465.6120523084628</v>
+      </c>
+      <c r="D91" s="33">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E91" s="33">
+        <v>312979.60857499996</v>
+      </c>
+      <c r="F91" s="33"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="33">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="B92">
+        <v>6.6934489398104466E-2</v>
+      </c>
+      <c r="C92">
+        <v>358.57193215135663</v>
+      </c>
+      <c r="D92" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E92" s="33">
+        <v>478.19955833333336</v>
+      </c>
+      <c r="F92" s="33"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="33">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="B93">
+        <v>0.13386897879620893</v>
+      </c>
+      <c r="C93">
+        <v>717.14386430271327</v>
+      </c>
+      <c r="D93" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E93" s="33">
+        <v>1586.3299666666669</v>
+      </c>
+      <c r="F93" s="33"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="33">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="B94">
+        <v>0.20080346819431336</v>
+      </c>
+      <c r="C94">
+        <v>1075.7157964540697</v>
+      </c>
+      <c r="D94" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E94" s="33">
+        <v>3318.9128333333333</v>
+      </c>
+      <c r="F94" s="33"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="33">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="B95">
+        <v>0.26773795759241786</v>
+      </c>
+      <c r="C95">
+        <v>1434.2877286054265</v>
+      </c>
+      <c r="D95" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E95" s="33">
+        <v>5669.6023833333338</v>
+      </c>
+      <c r="F95" s="33"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="33">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="B96">
+        <v>0.33467244699052229</v>
+      </c>
+      <c r="C96">
+        <v>1792.8596607567829</v>
+      </c>
+      <c r="D96" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E96" s="33">
+        <v>8629.790766666667</v>
+      </c>
+      <c r="F96" s="33"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="33">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="B97">
+        <v>0.40160693638862671</v>
+      </c>
+      <c r="C97">
+        <v>2151.4315929081395</v>
+      </c>
+      <c r="D97" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E97" s="33">
+        <v>12184.738691666667</v>
+      </c>
+      <c r="F97" s="33"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="33">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="B98">
+        <v>0.46854142578673125</v>
+      </c>
+      <c r="C98">
+        <v>2510.003525059496</v>
+      </c>
+      <c r="D98" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E98" s="33">
+        <v>16314.634675000001</v>
+      </c>
+      <c r="F98" s="33"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="33">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="B99">
+        <v>0.53547591518483573</v>
+      </c>
+      <c r="C99">
+        <v>2868.5754572108531</v>
+      </c>
+      <c r="D99" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E99" s="33">
+        <v>21008.022183333334</v>
+      </c>
+      <c r="F99" s="33"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="33">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="B100">
+        <v>0.60241040458293993</v>
+      </c>
+      <c r="C100">
+        <v>3227.1473893622078</v>
+      </c>
+      <c r="D100" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E100" s="33">
+        <v>26255.445366666667</v>
+      </c>
+      <c r="F100" s="33"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="33">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="B101">
+        <v>0.66934489398104458</v>
+      </c>
+      <c r="C101">
+        <v>3585.7193215135658</v>
+      </c>
+      <c r="D101" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E101" s="33">
+        <v>32052.476600000002</v>
+      </c>
+      <c r="F101" s="33"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="33">
+        <v>1.1022044088176352E-4</v>
+      </c>
+      <c r="B102">
+        <v>0.73627938337914889</v>
+      </c>
+      <c r="C102">
+        <v>3944.2912536649214</v>
+      </c>
+      <c r="D102" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E102" s="33">
+        <v>38391.067608333331</v>
+      </c>
+      <c r="F102" s="33"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="33">
+        <v>1.2024048096192384E-4</v>
+      </c>
+      <c r="B103">
+        <v>0.80321387277725342</v>
+      </c>
+      <c r="C103">
+        <v>4302.8631858162789</v>
+      </c>
+      <c r="D103" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E103" s="33">
+        <v>45263.883133333336</v>
+      </c>
+      <c r="F103" s="33"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="33">
+        <v>1.3026052104208417E-4</v>
+      </c>
+      <c r="B104">
+        <v>0.87014836217535785</v>
+      </c>
+      <c r="C104">
+        <v>4661.4351179676351</v>
+      </c>
+      <c r="D104" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E104" s="33">
+        <v>52666.170158333342</v>
+      </c>
+      <c r="F104" s="33"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="33">
+        <v>1.4028056112224451E-4</v>
+      </c>
+      <c r="B105">
+        <v>0.93708285157346249</v>
+      </c>
+      <c r="C105">
+        <v>5020.0070501189921</v>
+      </c>
+      <c r="D105" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E105" s="33">
+        <v>60592.287825000007</v>
+      </c>
+      <c r="F105" s="33"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="33">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="B106">
+        <v>1.0040173409715667</v>
+      </c>
+      <c r="C106">
+        <v>5378.5789822703473</v>
+      </c>
+      <c r="D106" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E106" s="33">
+        <v>69039.380533333329</v>
+      </c>
+      <c r="F106" s="33"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="33">
+        <v>1.6032064128256515E-4</v>
+      </c>
+      <c r="B107">
+        <v>1.0709518303696715</v>
+      </c>
+      <c r="C107">
+        <v>5737.1509144217061</v>
+      </c>
+      <c r="D107" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E107" s="33">
+        <v>78004.556941666669</v>
+      </c>
+      <c r="F107" s="33"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="33">
+        <v>1.7034068136272546E-4</v>
+      </c>
+      <c r="B108">
+        <v>1.1378863197677758</v>
+      </c>
+      <c r="C108">
+        <v>6095.7228465730623</v>
+      </c>
+      <c r="D108" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E108" s="33">
+        <v>87486.554358333335</v>
+      </c>
+      <c r="F108" s="33"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="33">
+        <v>1.8036072144288575E-4</v>
+      </c>
+      <c r="B109">
+        <v>1.2048208091658799</v>
+      </c>
+      <c r="C109">
+        <v>6454.2947787244157</v>
+      </c>
+      <c r="D109" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E109" s="33">
+        <v>97480.668300000019</v>
+      </c>
+      <c r="F109" s="33"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="33">
+        <v>1.903807615230461E-4</v>
+      </c>
+      <c r="B110">
+        <v>1.2717552985639846</v>
+      </c>
+      <c r="C110">
+        <v>6812.8667108757745</v>
+      </c>
+      <c r="D110" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E110" s="33">
+        <v>107986.85341666666</v>
+      </c>
+      <c r="F110" s="33"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="33">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="B111">
+        <v>1.3386897879620892</v>
+      </c>
+      <c r="C111">
+        <v>7171.4386430271315</v>
+      </c>
+      <c r="D111" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E111" s="33">
+        <v>119000.96756666667</v>
+      </c>
+      <c r="F111" s="33"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="33">
+        <v>2.1042084168336673E-4</v>
+      </c>
+      <c r="B112">
+        <v>1.4056242773601935</v>
+      </c>
+      <c r="C112">
+        <v>7530.0105751784877</v>
+      </c>
+      <c r="D112" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E112" s="33">
+        <v>130521.46945833333</v>
+      </c>
+      <c r="F112" s="33"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="33">
+        <v>2.2044088176352705E-4</v>
+      </c>
+      <c r="B113">
+        <v>1.4725587667582978</v>
+      </c>
+      <c r="C113">
+        <v>7888.5825073298429</v>
+      </c>
+      <c r="D113" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E113" s="33">
+        <v>142543.85504166668</v>
+      </c>
+      <c r="F113" s="33"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="33">
+        <v>2.3046092184368739E-4</v>
+      </c>
+      <c r="B114">
+        <v>1.5394932561564025</v>
+      </c>
+      <c r="C114">
+        <v>8247.1544394812008</v>
+      </c>
+      <c r="D114" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E114" s="33">
+        <v>155070.88480833333</v>
+      </c>
+      <c r="F114" s="33"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="33">
+        <v>2.4048096192384768E-4</v>
+      </c>
+      <c r="B115">
+        <v>1.6064277455545068</v>
+      </c>
+      <c r="C115">
+        <v>8605.7263716325579</v>
+      </c>
+      <c r="D115" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E115" s="33">
+        <v>168103.15225833331</v>
+      </c>
+      <c r="F115" s="33"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="33">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="B116">
+        <v>1.6733622349526112</v>
+      </c>
+      <c r="C116">
+        <v>8964.2983037839131</v>
+      </c>
+      <c r="D116" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E116" s="33">
+        <v>181624.43208333335</v>
+      </c>
+      <c r="F116" s="33"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="33">
+        <v>2.6052104208416834E-4</v>
+      </c>
+      <c r="B117">
+        <v>1.7402967243507157</v>
+      </c>
+      <c r="C117">
+        <v>9322.8702359352701</v>
+      </c>
+      <c r="D117" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E117" s="33">
+        <v>195633.38156666668</v>
+      </c>
+      <c r="F117" s="33"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="33">
+        <v>2.7054108216432868E-4</v>
+      </c>
+      <c r="B118">
+        <v>1.8072312137488205</v>
+      </c>
+      <c r="C118">
+        <v>9681.4421680866271</v>
+      </c>
+      <c r="D118" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E118" s="33">
+        <v>210130.66870000001</v>
+      </c>
+      <c r="F118" s="33"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="33">
+        <v>2.8056112224448903E-4</v>
+      </c>
+      <c r="B119">
+        <v>1.874165703146925</v>
+      </c>
+      <c r="C119">
+        <v>10040.014100237984</v>
+      </c>
+      <c r="D119" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E119" s="33">
+        <v>225115.60618333335</v>
+      </c>
+      <c r="F119" s="33"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="33">
+        <v>2.9058116232464926E-4</v>
+      </c>
+      <c r="B120">
+        <v>1.9411001925450289</v>
+      </c>
+      <c r="C120">
+        <v>10398.586032389338</v>
+      </c>
+      <c r="D120" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E120" s="33">
+        <v>240589.65677499998</v>
+      </c>
+      <c r="F120" s="33"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="33">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="B121">
+        <v>2.0080346819431334</v>
+      </c>
+      <c r="C121">
+        <v>10757.157964540695</v>
+      </c>
+      <c r="D121" s="33">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="E121" s="33">
+        <v>256545.83039166665</v>
+      </c>
+      <c r="F121" s="33"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="33">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="B122">
+        <v>4.8926175608883196E-2</v>
+      </c>
+      <c r="C122">
+        <v>160.6520541427717</v>
+      </c>
+      <c r="D122" s="33">
         <v>0.33260000000000001</v>
       </c>
-      <c r="D2" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E2" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F2" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H2">
-        <v>35.830674000000002</v>
-      </c>
-      <c r="I2">
+      <c r="E122" s="33">
+        <v>2483.3908166666665</v>
+      </c>
+      <c r="F122" s="33"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="33">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="B123">
+        <v>9.7852351217766392E-2</v>
+      </c>
+      <c r="C123">
+        <v>321.30410828554341</v>
+      </c>
+      <c r="D123" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E123" s="33">
+        <v>7970.5475750000005</v>
+      </c>
+      <c r="F123" s="33"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="33">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="B124">
+        <v>0.14677852682664957</v>
+      </c>
+      <c r="C124">
+        <v>481.95616242831511</v>
+      </c>
+      <c r="D124" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E124" s="33">
+        <v>16247.063983333333</v>
+      </c>
+      <c r="F124" s="33"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="33">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="B125">
+        <v>0.19570470243553278</v>
+      </c>
+      <c r="C125">
+        <v>642.60821657108681</v>
+      </c>
+      <c r="D125" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E125" s="33">
+        <v>27169.969674999997</v>
+      </c>
+      <c r="F125" s="33"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="33">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="B126">
+        <v>0.24463087804441599</v>
+      </c>
+      <c r="C126">
+        <v>803.26027071385852</v>
+      </c>
+      <c r="D126" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E126" s="33">
+        <v>40643.990108333332</v>
+      </c>
+      <c r="F126" s="33"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="33">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="B127">
+        <v>0.29355705365329915</v>
+      </c>
+      <c r="C127">
+        <v>963.91232485663022</v>
+      </c>
+      <c r="D127" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E127" s="33">
+        <v>56602.313266666672</v>
+      </c>
+      <c r="F127" s="33"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="33">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="B128">
+        <v>0.34248322926218244</v>
+      </c>
+      <c r="C128">
+        <v>1124.5643789994022</v>
+      </c>
+      <c r="D128" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E128" s="33">
+        <v>74991.541116666674</v>
+      </c>
+      <c r="F128" s="33"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="33">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="B129">
+        <v>0.39140940487106557</v>
+      </c>
+      <c r="C129">
+        <v>1285.2164331421736</v>
+      </c>
+      <c r="D129" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E129" s="33">
+        <v>95769.792399999991</v>
+      </c>
+      <c r="F129" s="33"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="33">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="B130">
+        <v>0.4403355804799487</v>
+      </c>
+      <c r="C130">
+        <v>1445.8684872849453</v>
+      </c>
+      <c r="D130" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E130" s="33">
+        <v>118900.28025000001</v>
+      </c>
+      <c r="F130" s="33"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="33">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="B131">
+        <v>0.48926175608883199</v>
+      </c>
+      <c r="C131">
+        <v>1606.520541427717</v>
+      </c>
+      <c r="D131" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E131" s="33">
+        <v>144351.39174166668</v>
+      </c>
+      <c r="F131" s="33"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="33">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="B132">
+        <v>0.7338926341332479</v>
+      </c>
+      <c r="C132">
+        <v>2409.7808121415756</v>
+      </c>
+      <c r="D132" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E132" s="33">
+        <v>305410.92903333332</v>
+      </c>
+      <c r="F132" s="33"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="33">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="B133">
+        <v>0.97852351217766398</v>
+      </c>
+      <c r="C133">
+        <v>3213.0410828554341</v>
+      </c>
+      <c r="D133" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E133" s="33">
+        <v>520712.85214166663</v>
+      </c>
+      <c r="F133" s="33"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="33">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="B134">
+        <v>1.2231543902220798</v>
+      </c>
+      <c r="C134">
+        <v>4016.3013535692926</v>
+      </c>
+      <c r="D134" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E134" s="33">
+        <v>787708.64500833326</v>
+      </c>
+      <c r="F134" s="33"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="33">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="B135">
+        <v>1.4677852682664958</v>
+      </c>
+      <c r="C135">
+        <v>4819.5616242831511</v>
+      </c>
+      <c r="D135" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E135" s="33">
+        <v>1104290.7905166666</v>
+      </c>
+      <c r="F135" s="33"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="33">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="B136">
+        <v>1.712416146310912</v>
+      </c>
+      <c r="C136">
+        <v>5622.8218949970105</v>
+      </c>
+      <c r="D136" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E136" s="33">
+        <v>1468854.482975</v>
+      </c>
+      <c r="F136" s="33"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="33">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="B137">
+        <v>1.957047024355328</v>
+      </c>
+      <c r="C137">
+        <v>6426.0821657108681</v>
+      </c>
+      <c r="D137" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E137" s="33">
+        <v>1879846.5865083335</v>
+      </c>
+      <c r="F137" s="33"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="33">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="B138">
+        <v>2.2016779023997439</v>
+      </c>
+      <c r="C138">
+        <v>7229.3424364247276</v>
+      </c>
+      <c r="D138" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E138" s="33">
+        <v>2335883.7977500004</v>
+      </c>
+      <c r="F138" s="33"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="33">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="B139">
+        <v>2.4463087804441597</v>
+      </c>
+      <c r="C139">
+        <v>8032.6027071385852</v>
+      </c>
+      <c r="D139" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E139" s="33">
+        <v>2835657.1606083331</v>
+      </c>
+      <c r="F139" s="33"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="33">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="B140">
+        <v>2.6909396584885763</v>
+      </c>
+      <c r="C140">
+        <v>8835.8629778524464</v>
+      </c>
+      <c r="D140" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E140" s="33">
+        <v>3379486.7546833334</v>
+      </c>
+      <c r="F140" s="33"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="33">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="B141">
+        <v>2.9355705365329916</v>
+      </c>
+      <c r="C141">
+        <v>9639.1232485663022</v>
+      </c>
+      <c r="D141" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E141" s="33">
+        <v>3966026.1230000001</v>
+      </c>
+      <c r="F141" s="33"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="33">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="B142">
+        <v>3.1802014145774078</v>
+      </c>
+      <c r="C142">
+        <v>10442.383519280162</v>
+      </c>
+      <c r="D142" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E142" s="33">
+        <v>4594568.2112583332</v>
+      </c>
+      <c r="F142" s="33"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="33">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="B143">
+        <v>3.424832292621824</v>
+      </c>
+      <c r="C143">
+        <v>11245.643789994021</v>
+      </c>
+      <c r="D143" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E143" s="33">
+        <v>5264601.5671250001</v>
+      </c>
+      <c r="F143" s="33"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="33">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="B144">
+        <v>3.6694631706662397</v>
+      </c>
+      <c r="C144">
+        <v>12048.904060707879</v>
+      </c>
+      <c r="D144" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E144" s="33">
+        <v>5975605.239108325</v>
+      </c>
+      <c r="F144" s="33"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="33">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="B145">
+        <v>3.9140940487106559</v>
+      </c>
+      <c r="C145">
+        <v>12852.164331421736</v>
+      </c>
+      <c r="D145" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E145" s="33">
+        <v>6726144.8021499999</v>
+      </c>
+      <c r="F145" s="33"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="33">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="B146">
+        <v>4.1587249267550721</v>
+      </c>
+      <c r="C146">
+        <v>13655.424602135596</v>
+      </c>
+      <c r="D146" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E146" s="33">
+        <v>7517374.4223333336</v>
+      </c>
+      <c r="F146" s="33"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="33">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="B147">
+        <v>4.4033558047994878</v>
+      </c>
+      <c r="C147">
+        <v>14458.684872849455</v>
+      </c>
+      <c r="D147" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E147" s="33">
+        <v>8347834.1974083334</v>
+      </c>
+      <c r="F147" s="33"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="33">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="B148">
+        <v>4.6479866828439036</v>
+      </c>
+      <c r="C148">
+        <v>15261.945143563313</v>
+      </c>
+      <c r="D148" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E148" s="33">
+        <v>9218463.2773166653</v>
+      </c>
+      <c r="F148" s="33"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="33">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="B149">
+        <v>4.8926175608883193</v>
+      </c>
+      <c r="C149">
+        <v>16065.20541427717</v>
+      </c>
+      <c r="D149" s="33">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E149" s="33">
+        <v>10126271.973850001</v>
+      </c>
+      <c r="F149" s="33"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="33">
         <v>1.0020040080160322E-5</v>
       </c>
-      <c r="J2">
+      <c r="B150">
+        <v>4.3452192276407349E-2</v>
+      </c>
+      <c r="C150">
+        <v>208.2064743023964</v>
+      </c>
+      <c r="D150" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E150" s="33">
+        <v>1369.5141333333333</v>
+      </c>
+      <c r="F150" s="33"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="33">
+        <v>2.0040080160320643E-5</v>
+      </c>
+      <c r="B151">
+        <v>8.6904384552814698E-2</v>
+      </c>
+      <c r="C151">
+        <v>416.4129486047928</v>
+      </c>
+      <c r="D151" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E151" s="33">
+        <v>4465.2653333333328</v>
+      </c>
+      <c r="F151" s="33"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="33">
+        <v>3.006012024048096E-5</v>
+      </c>
+      <c r="B152">
+        <v>0.13035657682922203</v>
+      </c>
+      <c r="C152">
+        <v>624.61942290718912</v>
+      </c>
+      <c r="D152" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E152" s="33">
+        <v>9029.4853416666665</v>
+      </c>
+      <c r="F152" s="33"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="33">
+        <v>4.0080160320641287E-5</v>
+      </c>
+      <c r="B153">
+        <v>0.1738087691056294</v>
+      </c>
+      <c r="C153">
+        <v>832.82589720958561</v>
+      </c>
+      <c r="D153" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E153" s="33">
+        <v>14911.587483333335</v>
+      </c>
+      <c r="F153" s="33"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="33">
+        <v>5.0100200400801603E-5</v>
+      </c>
+      <c r="B154">
+        <v>0.21726096138203674</v>
+      </c>
+      <c r="C154">
+        <v>1041.0323715119819</v>
+      </c>
+      <c r="D154" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E154" s="33">
+        <v>22001.008066666665</v>
+      </c>
+      <c r="F154" s="33"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="33">
+        <v>6.012024048096192E-5</v>
+      </c>
+      <c r="B155">
+        <v>0.26071315365844405</v>
+      </c>
+      <c r="C155">
+        <v>1249.2388458143782</v>
+      </c>
+      <c r="D155" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E155" s="33">
+        <v>30215.599125000001</v>
+      </c>
+      <c r="F155" s="33"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="33">
+        <v>7.0140280561122257E-5</v>
+      </c>
+      <c r="B156">
+        <v>0.30416534593485145</v>
+      </c>
+      <c r="C156">
+        <v>1457.4453201167748</v>
+      </c>
+      <c r="D156" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E156" s="33">
+        <v>39495.497758333331</v>
+      </c>
+      <c r="F156" s="33"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="33">
+        <v>8.0160320641282573E-5</v>
+      </c>
+      <c r="B157">
+        <v>0.34761753821125879</v>
+      </c>
+      <c r="C157">
+        <v>1665.6517944191712</v>
+      </c>
+      <c r="D157" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E157" s="33">
+        <v>49804.484825</v>
+      </c>
+      <c r="F157" s="33"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="33">
+        <v>9.0180360721442876E-5</v>
+      </c>
+      <c r="B158">
+        <v>0.39106973048766608</v>
+      </c>
+      <c r="C158">
+        <v>1873.8582687215671</v>
+      </c>
+      <c r="D158" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E158" s="33">
+        <v>61110.139841666671</v>
+      </c>
+      <c r="F158" s="33"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="33">
+        <v>1.0020040080160321E-4</v>
+      </c>
+      <c r="B159">
+        <v>0.43452192276407348</v>
+      </c>
+      <c r="C159">
+        <v>2082.0647430239637</v>
+      </c>
+      <c r="D159" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E159" s="33">
+        <v>73394.751633333333</v>
+      </c>
+      <c r="F159" s="33"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="33">
+        <v>1.503006012024048E-4</v>
+      </c>
+      <c r="B160">
+        <v>0.65178288414611019</v>
+      </c>
+      <c r="C160">
+        <v>3123.0971145359458</v>
+      </c>
+      <c r="D160" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E160" s="33">
+        <v>149323.71220833337</v>
+      </c>
+      <c r="F160" s="33"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="33">
+        <v>2.0040080160320641E-4</v>
+      </c>
+      <c r="B161">
+        <v>0.86904384552814695</v>
+      </c>
+      <c r="C161">
+        <v>4164.1294860479275</v>
+      </c>
+      <c r="D161" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E161" s="33">
+        <v>250824.48804166669</v>
+      </c>
+      <c r="F161" s="33"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="33">
+        <v>2.50501002004008E-4</v>
+      </c>
+      <c r="B162">
+        <v>1.0863048069101835</v>
+      </c>
+      <c r="C162">
+        <v>5205.1618575599095</v>
+      </c>
+      <c r="D162" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E162" s="33">
+        <v>381761.97831666662</v>
+      </c>
+      <c r="F162" s="33"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="33">
+        <v>3.0060120240480961E-4</v>
+      </c>
+      <c r="B163">
+        <v>1.3035657682922204</v>
+      </c>
+      <c r="C163">
+        <v>6246.1942290718916</v>
+      </c>
+      <c r="D163" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E163" s="33">
+        <v>542324.79762500001</v>
+      </c>
+      <c r="F163" s="33"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="33">
+        <v>3.5070140280561122E-4</v>
+      </c>
+      <c r="B164">
+        <v>1.5208267296742572</v>
+      </c>
+      <c r="C164">
+        <v>7287.2266005838746</v>
+      </c>
+      <c r="D164" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E164" s="33">
+        <v>730848.9910416659</v>
+      </c>
+      <c r="F164" s="33"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="33">
+        <v>4.0080160320641282E-4</v>
+      </c>
+      <c r="B165">
+        <v>1.7380876910562939</v>
+      </c>
+      <c r="C165">
+        <v>8328.2589720958549</v>
+      </c>
+      <c r="D165" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E165" s="33">
+        <v>952896.13699166675</v>
+      </c>
+      <c r="F165" s="33"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="33">
+        <v>4.5090180360721443E-4</v>
+      </c>
+      <c r="B166">
+        <v>1.9553486524383308</v>
+      </c>
+      <c r="C166">
+        <v>9369.2913436078379</v>
+      </c>
+      <c r="D166" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E166" s="33">
+        <v>1209237.1575</v>
+      </c>
+      <c r="F166" s="33"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="33">
+        <v>5.0100200400801599E-4</v>
+      </c>
+      <c r="B167">
+        <v>2.172609613820367</v>
+      </c>
+      <c r="C167">
+        <v>10410.323715119819</v>
+      </c>
+      <c r="D167" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E167" s="33">
+        <v>1487015.5380916668</v>
+      </c>
+      <c r="F167" s="33"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="33">
+        <v>5.5110220440881771E-4</v>
+      </c>
+      <c r="B168">
+        <v>2.3898705752024045</v>
+      </c>
+      <c r="C168">
+        <v>11451.356086631804</v>
+      </c>
+      <c r="D168" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E168" s="33">
+        <v>1777630.7487083336</v>
+      </c>
+      <c r="F168" s="33"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="33">
+        <v>6.0120240480961921E-4</v>
+      </c>
+      <c r="B169">
+        <v>2.6071315365844407</v>
+      </c>
+      <c r="C169">
+        <v>12492.388458143783</v>
+      </c>
+      <c r="D169" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E169" s="33">
+        <v>2090312.4522500001</v>
+      </c>
+      <c r="F169" s="33"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="33">
+        <v>6.5130260521042082E-4</v>
+      </c>
+      <c r="B170">
+        <v>2.8243924979664778</v>
+      </c>
+      <c r="C170">
+        <v>13533.420829655766</v>
+      </c>
+      <c r="D170" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E170" s="33">
+        <v>2421180.8492916664</v>
+      </c>
+      <c r="F170" s="33"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="33">
+        <v>7.0140280561122243E-4</v>
+      </c>
+      <c r="B171">
+        <v>3.0416534593485145</v>
+      </c>
+      <c r="C171">
+        <v>14574.453201167749</v>
+      </c>
+      <c r="D171" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E171" s="33">
+        <v>2767297.1956999996</v>
+      </c>
+      <c r="F171" s="33"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="33">
+        <v>7.5150300601202404E-4</v>
+      </c>
+      <c r="B172">
+        <v>3.2589144207305512</v>
+      </c>
+      <c r="C172">
+        <v>15615.48557267973</v>
+      </c>
+      <c r="D172" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E172" s="33">
+        <v>3122746.3222583337</v>
+      </c>
+      <c r="F172" s="33"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="33">
+        <v>8.0160320641282565E-4</v>
+      </c>
+      <c r="B173">
+        <v>3.4761753821125878</v>
+      </c>
+      <c r="C173">
+        <v>16656.51794419171</v>
+      </c>
+      <c r="D173" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E173" s="33">
+        <v>3487711.4193250001</v>
+      </c>
+      <c r="F173" s="33"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="33">
+        <v>8.5170340681362726E-4</v>
+      </c>
+      <c r="B174">
+        <v>3.6934363434946245</v>
+      </c>
+      <c r="C174">
+        <v>17697.550315703695</v>
+      </c>
+      <c r="D174" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E174" s="33">
+        <v>3867503.0264666667</v>
+      </c>
+      <c r="F174" s="33"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="33">
+        <v>9.0180360721442887E-4</v>
+      </c>
+      <c r="B175">
+        <v>3.9106973048766616</v>
+      </c>
+      <c r="C175">
+        <v>18738.582687215676</v>
+      </c>
+      <c r="D175" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E175" s="33">
+        <v>4266551.6694250004</v>
+      </c>
+      <c r="F175" s="33"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="33">
+        <v>9.5190380761523037E-4</v>
+      </c>
+      <c r="B176">
+        <v>4.1279582662586973</v>
+      </c>
+      <c r="C176">
+        <v>19779.615058727657</v>
+      </c>
+      <c r="D176" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E176" s="33">
+        <v>4694146.3733583335</v>
+      </c>
+      <c r="F176" s="33"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="33">
+        <v>1.002004008016032E-3</v>
+      </c>
+      <c r="B177">
+        <v>4.345219227640734</v>
+      </c>
+      <c r="C177">
+        <v>20820.647430239638</v>
+      </c>
+      <c r="D177" s="33">
+        <v>0.3745</v>
+      </c>
+      <c r="E177" s="33">
+        <v>5148406.859908334</v>
+      </c>
+      <c r="F177" s="33"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="33">
+        <v>1.0020040080160322E-5</v>
+      </c>
+      <c r="B178">
+        <v>3.9098620873413148E-2</v>
+      </c>
+      <c r="C178">
+        <v>302.09681004991791</v>
+      </c>
+      <c r="D178" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K2">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L2" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M2" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6260.6761999999999</v>
-      </c>
-      <c r="B3">
+      <c r="E178" s="33">
+        <v>617.27066666666667</v>
+      </c>
+      <c r="F178" s="33"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="33">
         <v>2.0040080160320643E-5</v>
       </c>
-      <c r="C3">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D3" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E3" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F3" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H3">
-        <v>120.79186899999999</v>
-      </c>
-      <c r="I3">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="J3">
+      <c r="B179">
+        <v>7.8197241746826296E-2</v>
+      </c>
+      <c r="C179">
+        <v>604.19362009983581</v>
+      </c>
+      <c r="D179" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K3">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L3" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M3" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12544.536041666668</v>
-      </c>
-      <c r="B4">
+      <c r="E179">
+        <v>2095.3372749999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="33">
         <v>3.006012024048096E-5</v>
       </c>
-      <c r="C4">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D4" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E4" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F4" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H4">
-        <v>248.947405</v>
-      </c>
-      <c r="I4">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="J4">
+      <c r="B180">
+        <v>0.11729586262023942</v>
+      </c>
+      <c r="C180">
+        <v>906.29043014975343</v>
+      </c>
+      <c r="D180" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K4">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L4" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M4" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20745.363700000002</v>
-      </c>
-      <c r="B5">
+      <c r="E180">
+        <v>4333.4946</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="33">
         <v>4.0080160320641287E-5</v>
       </c>
-      <c r="C5">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D5" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E5" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F5" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H5">
-        <v>418.33646500000009</v>
-      </c>
-      <c r="I5">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="J5">
+      <c r="B181">
+        <v>0.15639448349365259</v>
+      </c>
+      <c r="C181">
+        <v>1208.3872401996716</v>
+      </c>
+      <c r="D181" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K5">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L5" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M5" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>30812.633166666667</v>
-      </c>
-      <c r="B6">
+      <c r="E181">
+        <v>7282.9921916666672</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="33">
         <v>5.0100200400801603E-5</v>
       </c>
-      <c r="C6">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D6" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E6" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F6" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H6">
-        <v>626.67390699999999</v>
-      </c>
-      <c r="I6">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="J6">
+      <c r="B182">
+        <v>0.19549310436706574</v>
+      </c>
+      <c r="C182">
+        <v>1510.4840502495895</v>
+      </c>
+      <c r="D182" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K6">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L6" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M6" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>42709.957158333331</v>
-      </c>
-      <c r="B7">
+      <c r="E182">
+        <v>10906.006233333334</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="33">
         <v>6.012024048096192E-5</v>
       </c>
-      <c r="C7">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D7" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E7" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F7" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H7">
-        <v>872.44679099999996</v>
-      </c>
-      <c r="I7">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="J7">
+      <c r="B183">
+        <v>0.23459172524047883</v>
+      </c>
+      <c r="C183">
+        <v>1812.5808602995069</v>
+      </c>
+      <c r="D183" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K7">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L7" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M7" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>56408.862758333344</v>
-      </c>
-      <c r="B8">
+      <c r="E183">
+        <v>15185.847949999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="33">
         <v>7.0140280561122257E-5</v>
       </c>
-      <c r="C8">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D8" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E8" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F8" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H8">
-        <v>1155.3128790000001</v>
-      </c>
-      <c r="I8">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="J8">
+      <c r="B184">
+        <v>0.27369034611389204</v>
+      </c>
+      <c r="C184">
+        <v>2114.6776703494252</v>
+      </c>
+      <c r="D184" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K8">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L8" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M8" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>71884.659233333354</v>
-      </c>
-      <c r="B9">
+      <c r="E184">
+        <v>20110.888291666666</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="33">
         <v>8.0160320641282573E-5</v>
       </c>
-      <c r="C9">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D9" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E9" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F9" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H9">
-        <v>1472.5427590000011</v>
-      </c>
-      <c r="I9">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="J9">
+      <c r="B185">
+        <v>0.31278896698730518</v>
+      </c>
+      <c r="C185">
+        <v>2416.7744803993432</v>
+      </c>
+      <c r="D185" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K9">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L9" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M9" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>89116.886725000004</v>
-      </c>
-      <c r="B10">
+      <c r="E185">
+        <v>25643.787466666668</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="33">
         <v>9.0180360721442876E-5</v>
       </c>
-      <c r="C10">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D10" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E10" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F10" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H10">
-        <v>1822.9920789999999</v>
-      </c>
-      <c r="I10">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="J10">
+      <c r="B186">
+        <v>0.35188758786071828</v>
+      </c>
+      <c r="C186">
+        <v>2718.8712904492604</v>
+      </c>
+      <c r="D186" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K10">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L10" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M10" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>108087.39842499999</v>
-      </c>
-      <c r="B11">
+      <c r="E186">
+        <v>31767.275858333334</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="33">
         <v>1.0020040080160321E-4</v>
       </c>
-      <c r="C11">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D11" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E11" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F11" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H11">
-        <v>2206.0428460000003</v>
-      </c>
-      <c r="I11">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="J11">
+      <c r="B187">
+        <v>0.39098620873413148</v>
+      </c>
+      <c r="C187">
+        <v>3020.9681004991789</v>
+      </c>
+      <c r="D187" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K11">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L11" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M11" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>128778.08180000001</v>
-      </c>
-      <c r="B12">
-        <v>1.1022044088176352E-4</v>
-      </c>
-      <c r="C12">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D12" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E12" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F12" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H12">
-        <v>4569.2701589999997</v>
-      </c>
-      <c r="I12">
+      <c r="E187">
+        <v>38466.07738333333</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="33">
         <v>1.503006012024048E-4</v>
       </c>
-      <c r="J12">
+      <c r="B188">
+        <v>0.58647931310119716</v>
+      </c>
+      <c r="C188">
+        <v>4531.452150748768</v>
+      </c>
+      <c r="D188" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K12">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L12" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M12" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>151171.37594166669</v>
-      </c>
-      <c r="B13">
-        <v>1.2024048096192384E-4</v>
-      </c>
-      <c r="C13">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D13" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E13" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F13" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H13">
-        <v>7644.9971269999996</v>
-      </c>
-      <c r="I13">
+      <c r="E188">
+        <v>79946.831616666677</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="33">
         <v>2.0040080160320641E-4</v>
       </c>
-      <c r="J13">
+      <c r="B189">
+        <v>0.78197241746826296</v>
+      </c>
+      <c r="C189">
+        <v>6041.9362009983579</v>
+      </c>
+      <c r="D189" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K13">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L13" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M13" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>175249.33963333338</v>
-      </c>
-      <c r="B14">
-        <v>1.3026052104208417E-4</v>
-      </c>
-      <c r="C14">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D14" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E14" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F14" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H14">
-        <v>11426.549859999999</v>
-      </c>
-      <c r="I14">
+      <c r="E189">
+        <v>134129.88954166666</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="33">
         <v>2.50501002004008E-4</v>
       </c>
-      <c r="J14">
+      <c r="B190">
+        <v>0.97746552183532853</v>
+      </c>
+      <c r="C190">
+        <v>7552.4202512479451</v>
+      </c>
+      <c r="D190" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K14">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L14" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M14" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>200991.95455833332</v>
-      </c>
-      <c r="B15">
-        <v>1.4028056112224451E-4</v>
-      </c>
-      <c r="C15">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D15" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E15" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F15" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H15">
-        <v>15916.046148000001</v>
-      </c>
-      <c r="I15">
+      <c r="E190">
+        <v>201042.43303333333</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="33">
         <v>3.0060120240480961E-4</v>
       </c>
-      <c r="J15">
+      <c r="B191">
+        <v>1.1729586262023943</v>
+      </c>
+      <c r="C191">
+        <v>9062.9043014975359</v>
+      </c>
+      <c r="D191" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K15">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L15" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M15" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>228381.61929166666</v>
-      </c>
-      <c r="B16">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C16">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D16" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E16" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F16" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H16">
-        <v>21105.675640999994</v>
-      </c>
-      <c r="I16">
+      <c r="E191">
+        <v>280678.37814166665</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="33">
         <v>3.5070140280561122E-4</v>
       </c>
-      <c r="J16">
+      <c r="B192">
+        <v>1.3684517305694601</v>
+      </c>
+      <c r="C192">
+        <v>10573.388351747126</v>
+      </c>
+      <c r="D192" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K16">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L16" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M16" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>257402.63368333335</v>
-      </c>
-      <c r="B17">
-        <v>1.6032064128256515E-4</v>
-      </c>
-      <c r="C17">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D17" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E17" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F17" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H17">
-        <v>27020.062475000002</v>
-      </c>
-      <c r="I17">
+      <c r="E192">
+        <v>372788.10943333333</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="33">
         <v>4.0080160320641282E-4</v>
       </c>
-      <c r="J17">
+      <c r="B193">
+        <v>1.5639448349365259</v>
+      </c>
+      <c r="C193">
+        <v>12083.872401996716</v>
+      </c>
+      <c r="D193" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K17">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L17" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M17" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>288039.42388333339</v>
-      </c>
-      <c r="B18">
-        <v>1.7034068136272546E-4</v>
-      </c>
-      <c r="C18">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D18" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E18" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F18" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H18">
-        <v>33860.145925000004</v>
-      </c>
-      <c r="I18">
+      <c r="E193">
+        <v>477753.74755833333</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="33">
         <v>4.5090180360721443E-4</v>
       </c>
-      <c r="J18">
+      <c r="B194">
+        <v>1.7594379393035915</v>
+      </c>
+      <c r="C194">
+        <v>13594.356452246304</v>
+      </c>
+      <c r="D194" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K18">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L18" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M18" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>320276.39294166671</v>
-      </c>
-      <c r="B19">
-        <v>1.8036072144288575E-4</v>
-      </c>
-      <c r="C19">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D19" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E19" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F19" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H19">
-        <v>41800.160248999993</v>
-      </c>
-      <c r="I19">
+      <c r="E194">
+        <v>598111.66038333334</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="33">
         <v>5.0100200400801599E-4</v>
       </c>
-      <c r="J19">
+      <c r="B195">
+        <v>1.9549310436706571</v>
+      </c>
+      <c r="C195">
+        <v>15104.84050249589</v>
+      </c>
+      <c r="D195" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K19">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L19" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M19" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>354098.83654166671</v>
-      </c>
-      <c r="B20">
-        <v>1.903807615230461E-4</v>
-      </c>
-      <c r="C20">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D20" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E20" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F20" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H20">
-        <v>50665.122582000004</v>
-      </c>
-      <c r="I20">
+      <c r="E195">
+        <v>736194.14462499903</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="33">
         <v>5.5110220440881771E-4</v>
       </c>
-      <c r="J20">
+      <c r="B196">
+        <v>2.1504241480377235</v>
+      </c>
+      <c r="C196">
+        <v>16615.324552745486</v>
+      </c>
+      <c r="D196" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K20">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L20" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M20" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>389490.67455</v>
-      </c>
-      <c r="B21">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C21">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D21" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E21" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F21" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H21">
-        <v>60329.752187999999</v>
-      </c>
-      <c r="I21">
+      <c r="E196">
+        <v>890080.48580833338</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="33">
         <v>6.0120240480961921E-4</v>
       </c>
-      <c r="J21">
+      <c r="B197">
+        <v>2.3459172524047887</v>
+      </c>
+      <c r="C197">
+        <v>18125.808602995072</v>
+      </c>
+      <c r="D197" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K21">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L21" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M21" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>426443.1654916667</v>
-      </c>
-      <c r="B22">
-        <v>2.1042084168336673E-4</v>
-      </c>
-      <c r="C22">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D22" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E22" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F22" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H22">
-        <v>70475.873884000001</v>
-      </c>
-      <c r="I22">
+      <c r="E197">
+        <v>1057804.7412333335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="33">
         <v>6.5130260521042082E-4</v>
       </c>
-      <c r="J22">
+      <c r="B198">
+        <v>2.5414103567718547</v>
+      </c>
+      <c r="C198">
+        <v>19636.292653244665</v>
+      </c>
+      <c r="D198" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K22">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L22" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M22" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>464944.02697499999</v>
-      </c>
-      <c r="B23">
-        <v>2.2044088176352705E-4</v>
-      </c>
-      <c r="C23">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D23" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E23" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F23" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H23">
-        <v>81204.789472999997</v>
-      </c>
-      <c r="I23">
+      <c r="E198">
+        <v>1234868.4052166666</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A199" s="33">
         <v>7.0140280561122243E-4</v>
       </c>
-      <c r="J23">
+      <c r="B199">
+        <v>2.7369034611389202</v>
+      </c>
+      <c r="C199">
+        <v>21146.776703494252</v>
+      </c>
+      <c r="D199" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K23">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L23" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M23" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>504979.74255000002</v>
-      </c>
-      <c r="B24">
-        <v>2.3046092184368739E-4</v>
-      </c>
-      <c r="C24">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D24" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E24" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F24" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H24">
-        <v>92142.103314999986</v>
-      </c>
-      <c r="I24">
+      <c r="E199">
+        <v>1423288.267525</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A200" s="33">
         <v>7.5150300601202404E-4</v>
       </c>
-      <c r="J24">
+      <c r="B200">
+        <v>2.9323965655059858</v>
+      </c>
+      <c r="C200">
+        <v>22657.260753743838</v>
+      </c>
+      <c r="D200" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K24">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L24" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M24" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>546538.74202500016</v>
-      </c>
-      <c r="B25">
-        <v>2.4048096192384768E-4</v>
-      </c>
-      <c r="C25">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D25" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E25" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F25" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H25">
-        <v>103453.472369</v>
-      </c>
-      <c r="I25">
+      <c r="E200">
+        <v>1617313.7186333335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A201" s="33">
         <v>8.0160320641282565E-4</v>
       </c>
-      <c r="J25">
+      <c r="B201">
+        <v>3.1278896698730518</v>
+      </c>
+      <c r="C201">
+        <v>24167.744803993432</v>
+      </c>
+      <c r="D201" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K25">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L25" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M25" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>589611.87465000001</v>
-      </c>
-      <c r="B26">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C26">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D26" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E26" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F26" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H26">
-        <v>115128.50371700012</v>
-      </c>
-      <c r="I26">
+      <c r="E201">
+        <v>1817803.9828083334</v>
+      </c>
+      <c r="K201">
+        <v>2897911</v>
+      </c>
+      <c r="L201">
+        <f>K202/K201</f>
+        <v>0.84870273793777651</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A202" s="33">
         <v>8.5170340681362726E-4</v>
       </c>
-      <c r="J26">
+      <c r="B202">
+        <v>3.3233827742401174</v>
+      </c>
+      <c r="C202">
+        <v>25678.228854243018</v>
+      </c>
+      <c r="D202" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K26">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L26" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M26" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>634185.72375833336</v>
-      </c>
-      <c r="B27">
-        <v>2.6052104208416834E-4</v>
-      </c>
-      <c r="C27">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D27" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E27" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F27" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H27">
-        <v>127007.37202900001</v>
-      </c>
-      <c r="I27">
+      <c r="E202">
+        <v>2024696.8246666666</v>
+      </c>
+      <c r="K202">
+        <v>2459465</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A203" s="33">
         <v>9.0180360721442887E-4</v>
       </c>
-      <c r="J27">
+      <c r="B203">
+        <v>3.518875878607183</v>
+      </c>
+      <c r="C203">
+        <v>27188.712904492608</v>
+      </c>
+      <c r="D203" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K27">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L27" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M27" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>680249.53991666669</v>
-      </c>
-      <c r="B28">
-        <v>2.7054108216432868E-4</v>
-      </c>
-      <c r="C28">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D28" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E28" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F28" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H28">
-        <v>139528.424608</v>
-      </c>
-      <c r="I28">
+      <c r="E203">
+        <v>2237165.9749999996</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A204" s="33">
         <v>9.5190380761523037E-4</v>
       </c>
-      <c r="J28">
+      <c r="B204">
+        <v>3.7143689829742486</v>
+      </c>
+      <c r="C204">
+        <v>28699.196954742198</v>
+      </c>
+      <c r="D204" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K28">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L28" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M28" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>727795.09903333336</v>
-      </c>
-      <c r="B29">
-        <v>2.8056112224448903E-4</v>
-      </c>
-      <c r="C29">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D29" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E29" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F29" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-      <c r="H29">
-        <v>152603.17908600002</v>
-      </c>
-      <c r="I29">
+      <c r="E204">
+        <v>2459465.0829166663</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A205" s="33">
         <v>1.002004008016032E-3</v>
       </c>
-      <c r="J29">
+      <c r="B205">
+        <v>3.9098620873413141</v>
+      </c>
+      <c r="C205">
+        <v>30209.68100499178</v>
+      </c>
+      <c r="D205" s="33">
         <v>0.41620000000000001</v>
       </c>
-      <c r="K29">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="L29" s="33">
-        <v>1.4E-8</v>
-      </c>
-      <c r="M29" s="33">
-        <v>6.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>776808.20810000005</v>
-      </c>
-      <c r="B30">
-        <v>2.9058116232464926E-4</v>
-      </c>
-      <c r="C30">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D30" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E30" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F30" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>827285.66457500006</v>
-      </c>
-      <c r="B31">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C31">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D31" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E31" s="33">
-        <v>2.73E-8</v>
-      </c>
-      <c r="F31" s="33">
-        <v>8.3700000000000007E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>951.50070833333336</v>
-      </c>
-      <c r="B32">
-        <v>1.0020040080160322E-5</v>
-      </c>
-      <c r="C32">
-        <v>0.3745</v>
-      </c>
-      <c r="D32" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E32" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F32" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3058.2860500000002</v>
-      </c>
-      <c r="B33">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="C33">
-        <v>0.3745</v>
-      </c>
-      <c r="D33" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E33" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F33" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>6222.6603750000004</v>
-      </c>
-      <c r="B34">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="C34">
-        <v>0.3745</v>
-      </c>
-      <c r="D34" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E34" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F34" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>10406.65445</v>
-      </c>
-      <c r="B35">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="C35">
-        <v>0.3745</v>
-      </c>
-      <c r="D35" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E35" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F35" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>15589.415683333335</v>
-      </c>
-      <c r="B36">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="C36">
-        <v>0.3745</v>
-      </c>
-      <c r="D36" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E36" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F36" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>21754.013775000003</v>
-      </c>
-      <c r="B37">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="C37">
-        <v>0.3745</v>
-      </c>
-      <c r="D37" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E37" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F37" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>28886.681966666667</v>
-      </c>
-      <c r="B38">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="C38">
-        <v>0.3745</v>
-      </c>
-      <c r="D38" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E38" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F38" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>36975.505591666668</v>
-      </c>
-      <c r="B39">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="C39">
-        <v>0.3745</v>
-      </c>
-      <c r="D39" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E39" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F39" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>46008.764925000003</v>
-      </c>
-      <c r="B40">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="C40">
-        <v>0.3745</v>
-      </c>
-      <c r="D40" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E40" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F40" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>55975.981683333332</v>
-      </c>
-      <c r="B41">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="C41">
-        <v>0.3745</v>
-      </c>
-      <c r="D41" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E41" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F41" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>66867.668358333336</v>
-      </c>
-      <c r="B42">
-        <v>1.1022044088176352E-4</v>
-      </c>
-      <c r="C42">
-        <v>0.3745</v>
-      </c>
-      <c r="D42" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E42" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F42" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>78674.377075000011</v>
-      </c>
-      <c r="B43">
-        <v>1.2024048096192384E-4</v>
-      </c>
-      <c r="C43">
-        <v>0.3745</v>
-      </c>
-      <c r="D43" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E43" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F43" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>91388.315525000013</v>
-      </c>
-      <c r="B44">
-        <v>1.3026052104208417E-4</v>
-      </c>
-      <c r="C44">
-        <v>0.3745</v>
-      </c>
-      <c r="D44" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E44" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F44" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>105001.90495833334</v>
-      </c>
-      <c r="B45">
-        <v>1.4028056112224451E-4</v>
-      </c>
-      <c r="C45">
-        <v>0.3745</v>
-      </c>
-      <c r="D45" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E45" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F45" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>119505.832175</v>
-      </c>
-      <c r="B46">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C46">
-        <v>0.3745</v>
-      </c>
-      <c r="D46" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E46" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F46" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>134893.68693333335</v>
-      </c>
-      <c r="B47">
-        <v>1.6032064128256515E-4</v>
-      </c>
-      <c r="C47">
-        <v>0.3745</v>
-      </c>
-      <c r="D47" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E47" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F47" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>151157.877175</v>
-      </c>
-      <c r="B48">
-        <v>1.7034068136272546E-4</v>
-      </c>
-      <c r="C48">
-        <v>0.3745</v>
-      </c>
-      <c r="D48" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E48" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F48" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>168288.67141666668</v>
-      </c>
-      <c r="B49">
-        <v>1.8036072144288575E-4</v>
-      </c>
-      <c r="C49">
-        <v>0.3745</v>
-      </c>
-      <c r="D49" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E49" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F49" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>186278.41414166667</v>
-      </c>
-      <c r="B50">
-        <v>1.903807615230461E-4</v>
-      </c>
-      <c r="C50">
-        <v>0.3745</v>
-      </c>
-      <c r="D50" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E50" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F50" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>205123.83505833332</v>
-      </c>
-      <c r="B51">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C51">
-        <v>0.3745</v>
-      </c>
-      <c r="D51" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E51" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F51" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>224815.91257500002</v>
-      </c>
-      <c r="B52">
-        <v>2.1042084168336673E-4</v>
-      </c>
-      <c r="C52">
-        <v>0.3745</v>
-      </c>
-      <c r="D52" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E52" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F52" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>245352.05888333335</v>
-      </c>
-      <c r="B53">
-        <v>2.2044088176352705E-4</v>
-      </c>
-      <c r="C53">
-        <v>0.3745</v>
-      </c>
-      <c r="D53" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E53" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F53" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>266723.94503333338</v>
-      </c>
-      <c r="B54">
-        <v>2.3046092184368739E-4</v>
-      </c>
-      <c r="C54">
-        <v>0.3745</v>
-      </c>
-      <c r="D54" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E54" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F54" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>288927.59086666669</v>
-      </c>
-      <c r="B55">
-        <v>2.4048096192384768E-4</v>
-      </c>
-      <c r="C55">
-        <v>0.3745</v>
-      </c>
-      <c r="D55" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E55" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F55" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>311956.86201666668</v>
-      </c>
-      <c r="B56">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C56">
-        <v>0.3745</v>
-      </c>
-      <c r="D56" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E56" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F56" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>335808.13080000004</v>
-      </c>
-      <c r="B57">
-        <v>2.6052104208416834E-4</v>
-      </c>
-      <c r="C57">
-        <v>0.3745</v>
-      </c>
-      <c r="D57" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E57" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F57" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>360473.05765000003</v>
-      </c>
-      <c r="B58">
-        <v>2.7054108216432868E-4</v>
-      </c>
-      <c r="C58">
-        <v>0.3745</v>
-      </c>
-      <c r="D58" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E58" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F58" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>385948.3895833334</v>
-      </c>
-      <c r="B59">
-        <v>2.8056112224448903E-4</v>
-      </c>
-      <c r="C59">
-        <v>0.3745</v>
-      </c>
-      <c r="D59" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E59" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F59" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>412226.80115833331</v>
-      </c>
-      <c r="B60">
-        <v>2.9058116232464926E-4</v>
-      </c>
-      <c r="C60">
-        <v>0.3745</v>
-      </c>
-      <c r="D60" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E60" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F60" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>439306.23170833336</v>
-      </c>
-      <c r="B61">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C61">
-        <v>0.3745</v>
-      </c>
-      <c r="D61" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E61" s="33">
-        <v>5.4300000000000003E-8</v>
-      </c>
-      <c r="F61" s="33">
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>658.33333333333337</v>
-      </c>
-      <c r="B62">
-        <v>1.0020040080160322E-5</v>
-      </c>
-      <c r="C62">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D62" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E62" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F62" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2070.7188750000005</v>
-      </c>
-      <c r="B63">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="C63">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D63" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E63" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F63" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>4259.6387333333332</v>
-      </c>
-      <c r="B64">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="C64">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D64" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E64" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F64" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>7184.7886583333338</v>
-      </c>
-      <c r="B65">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="C65">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D65" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E65" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F65" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>10831.313966666668</v>
-      </c>
-      <c r="B66">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="C66">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D66" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E66" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F66" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>15184.644999999999</v>
-      </c>
-      <c r="B67">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="C67">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D67" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E67" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F67" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>20232.818541666667</v>
-      </c>
-      <c r="B68">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="C68">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D68" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E68" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F68" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>25966.17091666667</v>
-      </c>
-      <c r="B69">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="C69">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D69" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E69" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F69" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>32375.484150000004</v>
-      </c>
-      <c r="B70">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="C70">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D70" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E70" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F70" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>39452.669925000002</v>
-      </c>
-      <c r="B71">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="C71">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D71" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E71" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F71" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>47190.531133333337</v>
-      </c>
-      <c r="B72">
-        <v>1.1022044088176352E-4</v>
-      </c>
-      <c r="C72">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D72" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E72" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F72" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>55582.001616666661</v>
-      </c>
-      <c r="B73">
-        <v>1.2024048096192384E-4</v>
-      </c>
-      <c r="C73">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D73" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E73" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F73" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>64621.613724999923</v>
-      </c>
-      <c r="B74">
-        <v>1.3026052104208417E-4</v>
-      </c>
-      <c r="C74">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D74" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E74" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F74" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74304.092600000004</v>
-      </c>
-      <c r="B75">
-        <v>1.4028056112224451E-4</v>
-      </c>
-      <c r="C75">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D75" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E75" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F75" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>84622.464516666674</v>
-      </c>
-      <c r="B76">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C76">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D76" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E76" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F76" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>95573.934475000002</v>
-      </c>
-      <c r="B77">
-        <v>1.6032064128256515E-4</v>
-      </c>
-      <c r="C77">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D77" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E77" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F77" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>107150.84085000001</v>
-      </c>
-      <c r="B78">
-        <v>1.7034068136272546E-4</v>
-      </c>
-      <c r="C78">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D78" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E78" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F78" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>119349.97729166667</v>
-      </c>
-      <c r="B79">
-        <v>1.8036072144288575E-4</v>
-      </c>
-      <c r="C79">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D79" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E79" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F79" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>132168.00186666666</v>
-      </c>
-      <c r="B80">
-        <v>1.903807615230461E-4</v>
-      </c>
-      <c r="C80">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D80" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E80" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F80" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>145601.34756666666</v>
-      </c>
-      <c r="B81">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C81">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D81" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E81" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F81" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>159646.20810833335</v>
-      </c>
-      <c r="B82">
-        <v>2.1042084168336673E-4</v>
-      </c>
-      <c r="C82">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D82" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E82" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F82" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>174298.049375</v>
-      </c>
-      <c r="B83">
-        <v>2.2044088176352705E-4</v>
-      </c>
-      <c r="C83">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D83" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E83" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F83" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>189553.61316666668</v>
-      </c>
-      <c r="B84">
-        <v>2.3046092184368739E-4</v>
-      </c>
-      <c r="C84">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D84" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E84" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F84" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>205411.57796666666</v>
-      </c>
-      <c r="B85">
-        <v>2.4048096192384768E-4</v>
-      </c>
-      <c r="C85">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D85" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E85" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F85" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>221863.81237500001</v>
-      </c>
-      <c r="B86">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C86">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D86" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E86" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F86" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>238911.22569166668</v>
-      </c>
-      <c r="B87">
-        <v>2.6052104208416834E-4</v>
-      </c>
-      <c r="C87">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D87" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E87" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F87" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>256548.49670833335</v>
-      </c>
-      <c r="B88">
-        <v>2.7054108216432868E-4</v>
-      </c>
-      <c r="C88">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D88" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E88" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F88" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>274774.55405833333</v>
-      </c>
-      <c r="B89">
-        <v>2.8056112224448903E-4</v>
-      </c>
-      <c r="C89">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D89" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E89" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F89" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>293587.03540833335</v>
-      </c>
-      <c r="B90">
-        <v>2.9058116232464926E-4</v>
-      </c>
-      <c r="C90">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D90" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E90" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F90" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>312979.60857499996</v>
-      </c>
-      <c r="B91">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C91">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D91" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E91" s="33">
-        <v>7.7799999999999995E-8</v>
-      </c>
-      <c r="F91" s="33">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>478.19955833333336</v>
-      </c>
-      <c r="B92">
-        <v>1.0020040080160322E-5</v>
-      </c>
-      <c r="C92">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D92" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E92" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F92" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1586.3299666666669</v>
-      </c>
-      <c r="B93">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="C93">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D93" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E93" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F93" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>3318.9128333333333</v>
-      </c>
-      <c r="B94">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="C94">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D94" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E94" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F94" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>5669.6023833333338</v>
-      </c>
-      <c r="B95">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="C95">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D95" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E95" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F95" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>8629.790766666667</v>
-      </c>
-      <c r="B96">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="C96">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D96" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E96" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F96" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>12184.738691666667</v>
-      </c>
-      <c r="B97">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="C97">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D97" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E97" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F97" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>16314.634675000001</v>
-      </c>
-      <c r="B98">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="C98">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D98" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E98" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F98" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>21008.022183333334</v>
-      </c>
-      <c r="B99">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="C99">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D99" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E99" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F99" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>26255.445366666667</v>
-      </c>
-      <c r="B100">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="C100">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D100" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E100" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F100" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>32052.476600000002</v>
-      </c>
-      <c r="B101">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="C101">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D101" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E101" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F101" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>38391.067608333331</v>
-      </c>
-      <c r="B102">
-        <v>1.1022044088176352E-4</v>
-      </c>
-      <c r="C102">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D102" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E102" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F102" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>45263.883133333336</v>
-      </c>
-      <c r="B103">
-        <v>1.2024048096192384E-4</v>
-      </c>
-      <c r="C103">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D103" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E103" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F103" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>52666.170158333342</v>
-      </c>
-      <c r="B104">
-        <v>1.3026052104208417E-4</v>
-      </c>
-      <c r="C104">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D104" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E104" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F104" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>60592.287825000007</v>
-      </c>
-      <c r="B105">
-        <v>1.4028056112224451E-4</v>
-      </c>
-      <c r="C105">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D105" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E105" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F105" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>69039.380533333329</v>
-      </c>
-      <c r="B106">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C106">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D106" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E106" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F106" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>78004.556941666669</v>
-      </c>
-      <c r="B107">
-        <v>1.6032064128256515E-4</v>
-      </c>
-      <c r="C107">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D107" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E107" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F107" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>87486.554358333335</v>
-      </c>
-      <c r="B108">
-        <v>1.7034068136272546E-4</v>
-      </c>
-      <c r="C108">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D108" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E108" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F108" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>97480.668300000019</v>
-      </c>
-      <c r="B109">
-        <v>1.8036072144288575E-4</v>
-      </c>
-      <c r="C109">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D109" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E109" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F109" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>107986.85341666666</v>
-      </c>
-      <c r="B110">
-        <v>1.903807615230461E-4</v>
-      </c>
-      <c r="C110">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D110" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E110" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F110" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>119000.96756666667</v>
-      </c>
-      <c r="B111">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C111">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D111" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E111" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F111" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>130521.46945833333</v>
-      </c>
-      <c r="B112">
-        <v>2.1042084168336673E-4</v>
-      </c>
-      <c r="C112">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D112" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E112" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F112" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>142543.85504166668</v>
-      </c>
-      <c r="B113">
-        <v>2.2044088176352705E-4</v>
-      </c>
-      <c r="C113">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D113" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E113" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F113" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>155070.88480833333</v>
-      </c>
-      <c r="B114">
-        <v>2.3046092184368739E-4</v>
-      </c>
-      <c r="C114">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D114" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E114" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F114" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>168103.15225833331</v>
-      </c>
-      <c r="B115">
-        <v>2.4048096192384768E-4</v>
-      </c>
-      <c r="C115">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D115" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E115" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F115" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>181624.43208333335</v>
-      </c>
-      <c r="B116">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C116">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D116" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E116" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F116" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>195633.38156666668</v>
-      </c>
-      <c r="B117">
-        <v>2.6052104208416834E-4</v>
-      </c>
-      <c r="C117">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D117" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E117" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F117" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>210130.66870000001</v>
-      </c>
-      <c r="B118">
-        <v>2.7054108216432868E-4</v>
-      </c>
-      <c r="C118">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D118" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E118" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F118" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>225115.60618333335</v>
-      </c>
-      <c r="B119">
-        <v>2.8056112224448903E-4</v>
-      </c>
-      <c r="C119">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D119" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E119" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F119" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>240589.65677499998</v>
-      </c>
-      <c r="B120">
-        <v>2.9058116232464926E-4</v>
-      </c>
-      <c r="C120">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D120" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E120" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F120" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>256545.83039166665</v>
-      </c>
-      <c r="B121">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C121">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="D121" s="33">
-        <f>Parâmetros!$B$13</f>
-        <v>3.5968094290949535E-4</v>
-      </c>
-      <c r="E121" s="33">
-        <v>9.83E-8</v>
-      </c>
-      <c r="F121" s="33">
-        <v>1.6799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>2483.3908166666665</v>
-      </c>
-      <c r="B122">
-        <v>1.0020040080160322E-5</v>
-      </c>
-      <c r="C122">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D122">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E122" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F122" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>7970.5475750000005</v>
-      </c>
-      <c r="B123">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="C123">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D123">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E123" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F123" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>16247.063983333333</v>
-      </c>
-      <c r="B124">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="C124">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D124">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E124" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F124" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>27169.969674999997</v>
-      </c>
-      <c r="B125">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="C125">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D125">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E125" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F125" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>40643.990108333332</v>
-      </c>
-      <c r="B126">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="C126">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D126">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E126" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F126" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>56602.313266666672</v>
-      </c>
-      <c r="B127">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="C127">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D127">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E127" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F127" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>74991.541116666674</v>
-      </c>
-      <c r="B128">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="C128">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D128">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E128" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F128" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>95769.792399999991</v>
-      </c>
-      <c r="B129">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="C129">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D129">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E129" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F129" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>118900.28025000001</v>
-      </c>
-      <c r="B130">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="C130">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D130">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E130" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F130" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>144351.39174166668</v>
-      </c>
-      <c r="B131">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="C131">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D131">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E131" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F131" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>305410.92903333332</v>
-      </c>
-      <c r="B132">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C132">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D132">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E132" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F132" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>520712.85214166663</v>
-      </c>
-      <c r="B133">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C133">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D133">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E133" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F133" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>787708.64500833326</v>
-      </c>
-      <c r="B134">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C134">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D134">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E134" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F134" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>1104290.7905166666</v>
-      </c>
-      <c r="B135">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C135">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D135">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E135" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F135" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>1468854.482975</v>
-      </c>
-      <c r="B136">
-        <v>3.5070140280561122E-4</v>
-      </c>
-      <c r="C136">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D136">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E136" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F136" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>1879846.5865083335</v>
-      </c>
-      <c r="B137">
-        <v>4.0080160320641282E-4</v>
-      </c>
-      <c r="C137">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D137">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E137" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F137" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>2335883.7977500004</v>
-      </c>
-      <c r="B138">
-        <v>4.5090180360721443E-4</v>
-      </c>
-      <c r="C138">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D138">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E138" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F138" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>2835657.1606083331</v>
-      </c>
-      <c r="B139">
-        <v>5.0100200400801599E-4</v>
-      </c>
-      <c r="C139">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D139">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E139" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F139" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>3379486.7546833334</v>
-      </c>
-      <c r="B140">
-        <v>5.5110220440881771E-4</v>
-      </c>
-      <c r="C140">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D140">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E140" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F140" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>3966026.1230000001</v>
-      </c>
-      <c r="B141">
-        <v>6.0120240480961921E-4</v>
-      </c>
-      <c r="C141">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D141">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E141" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F141" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>4594568.2112583332</v>
-      </c>
-      <c r="B142">
-        <v>6.5130260521042082E-4</v>
-      </c>
-      <c r="C142">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D142">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E142" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F142" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>5264601.5671250001</v>
-      </c>
-      <c r="B143">
-        <v>7.0140280561122243E-4</v>
-      </c>
-      <c r="C143">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D143">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E143" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F143" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>5975605.239108325</v>
-      </c>
-      <c r="B144">
-        <v>7.5150300601202404E-4</v>
-      </c>
-      <c r="C144">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D144">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E144" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F144" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>6726144.8021499999</v>
-      </c>
-      <c r="B145">
-        <v>8.0160320641282565E-4</v>
-      </c>
-      <c r="C145">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D145">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E145" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F145" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>7517374.4223333336</v>
-      </c>
-      <c r="B146">
-        <v>8.5170340681362726E-4</v>
-      </c>
-      <c r="C146">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D146">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E146" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F146" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>8347834.1974083334</v>
-      </c>
-      <c r="B147">
-        <v>9.0180360721442887E-4</v>
-      </c>
-      <c r="C147">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D147">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E147" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F147" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>9218463.2773166653</v>
-      </c>
-      <c r="B148">
-        <v>9.5190380761523037E-4</v>
-      </c>
-      <c r="C148">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D148">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E148" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F148" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>10126271.973850001</v>
-      </c>
-      <c r="B149">
-        <v>1.002004008016032E-3</v>
-      </c>
-      <c r="C149">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="D149">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E149" s="33">
-        <v>3.9799999999999999E-9</v>
-      </c>
-      <c r="F149" s="33">
-        <v>2.6099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>1369.5141333333333</v>
-      </c>
-      <c r="B150">
-        <v>1.0020040080160322E-5</v>
-      </c>
-      <c r="C150">
-        <v>0.3745</v>
-      </c>
-      <c r="D150">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E150" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F150" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>4465.2653333333328</v>
-      </c>
-      <c r="B151">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="C151">
-        <v>0.3745</v>
-      </c>
-      <c r="D151">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E151" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F151" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>9029.4853416666665</v>
-      </c>
-      <c r="B152">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="C152">
-        <v>0.3745</v>
-      </c>
-      <c r="D152">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E152" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F152" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>14911.587483333335</v>
-      </c>
-      <c r="B153">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="C153">
-        <v>0.3745</v>
-      </c>
-      <c r="D153">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E153" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F153" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>22001.008066666665</v>
-      </c>
-      <c r="B154">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="C154">
-        <v>0.3745</v>
-      </c>
-      <c r="D154">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E154" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F154" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>30215.599125000001</v>
-      </c>
-      <c r="B155">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="C155">
-        <v>0.3745</v>
-      </c>
-      <c r="D155">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E155" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F155" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>39495.497758333331</v>
-      </c>
-      <c r="B156">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="C156">
-        <v>0.3745</v>
-      </c>
-      <c r="D156">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E156" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F156" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>49804.484825</v>
-      </c>
-      <c r="B157">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="C157">
-        <v>0.3745</v>
-      </c>
-      <c r="D157">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E157" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F157" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>61110.139841666671</v>
-      </c>
-      <c r="B158">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="C158">
-        <v>0.3745</v>
-      </c>
-      <c r="D158">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E158" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F158" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>73394.751633333333</v>
-      </c>
-      <c r="B159">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="C159">
-        <v>0.3745</v>
-      </c>
-      <c r="D159">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E159" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F159" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>149323.71220833337</v>
-      </c>
-      <c r="B160">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C160">
-        <v>0.3745</v>
-      </c>
-      <c r="D160">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E160" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F160" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>250824.48804166669</v>
-      </c>
-      <c r="B161">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C161">
-        <v>0.3745</v>
-      </c>
-      <c r="D161">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E161" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F161" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>381761.97831666662</v>
-      </c>
-      <c r="B162">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C162">
-        <v>0.3745</v>
-      </c>
-      <c r="D162">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E162" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F162" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>542324.79762500001</v>
-      </c>
-      <c r="B163">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C163">
-        <v>0.3745</v>
-      </c>
-      <c r="D163">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E163" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F163" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>730848.9910416659</v>
-      </c>
-      <c r="B164">
-        <v>3.5070140280561122E-4</v>
-      </c>
-      <c r="C164">
-        <v>0.3745</v>
-      </c>
-      <c r="D164">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E164" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F164" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>952896.13699166675</v>
-      </c>
-      <c r="B165">
-        <v>4.0080160320641282E-4</v>
-      </c>
-      <c r="C165">
-        <v>0.3745</v>
-      </c>
-      <c r="D165">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E165" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F165" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>1209237.1575</v>
-      </c>
-      <c r="B166">
-        <v>4.5090180360721443E-4</v>
-      </c>
-      <c r="C166">
-        <v>0.3745</v>
-      </c>
-      <c r="D166">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E166" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F166" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>1487015.5380916668</v>
-      </c>
-      <c r="B167">
-        <v>5.0100200400801599E-4</v>
-      </c>
-      <c r="C167">
-        <v>0.3745</v>
-      </c>
-      <c r="D167">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E167" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F167" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>1777630.7487083336</v>
-      </c>
-      <c r="B168">
-        <v>5.5110220440881771E-4</v>
-      </c>
-      <c r="C168">
-        <v>0.3745</v>
-      </c>
-      <c r="D168">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E168" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F168" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>2090312.4522500001</v>
-      </c>
-      <c r="B169">
-        <v>6.0120240480961921E-4</v>
-      </c>
-      <c r="C169">
-        <v>0.3745</v>
-      </c>
-      <c r="D169">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E169" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F169" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>2421180.8492916664</v>
-      </c>
-      <c r="B170">
-        <v>6.5130260521042082E-4</v>
-      </c>
-      <c r="C170">
-        <v>0.3745</v>
-      </c>
-      <c r="D170">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E170" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F170" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>2767297.1956999996</v>
-      </c>
-      <c r="B171">
-        <v>7.0140280561122243E-4</v>
-      </c>
-      <c r="C171">
-        <v>0.3745</v>
-      </c>
-      <c r="D171">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E171" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F171" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>3122746.3222583337</v>
-      </c>
-      <c r="B172">
-        <v>7.5150300601202404E-4</v>
-      </c>
-      <c r="C172">
-        <v>0.3745</v>
-      </c>
-      <c r="D172">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E172" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F172" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>3487711.4193250001</v>
-      </c>
-      <c r="B173">
-        <v>8.0160320641282565E-4</v>
-      </c>
-      <c r="C173">
-        <v>0.3745</v>
-      </c>
-      <c r="D173">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E173" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F173" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>3867503.0264666667</v>
-      </c>
-      <c r="B174">
-        <v>8.5170340681362726E-4</v>
-      </c>
-      <c r="C174">
-        <v>0.3745</v>
-      </c>
-      <c r="D174">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E174" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F174" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>4266551.6694250004</v>
-      </c>
-      <c r="B175">
-        <v>9.0180360721442887E-4</v>
-      </c>
-      <c r="C175">
-        <v>0.3745</v>
-      </c>
-      <c r="D175">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E175" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F175" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>4694146.3733583335</v>
-      </c>
-      <c r="B176">
-        <v>9.5190380761523037E-4</v>
-      </c>
-      <c r="C176">
-        <v>0.3745</v>
-      </c>
-      <c r="D176">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E176" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F176" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>5148406.859908334</v>
-      </c>
-      <c r="B177">
-        <v>1.002004008016032E-3</v>
-      </c>
-      <c r="C177">
-        <v>0.3745</v>
-      </c>
-      <c r="D177">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E177" s="33">
-        <v>5.8800000000000004E-9</v>
-      </c>
-      <c r="F177" s="33">
-        <v>4.1000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>885.2348833333333</v>
-      </c>
-      <c r="B178">
-        <v>1.0020040080160322E-5</v>
-      </c>
-      <c r="C178">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D178">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E178" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F178" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>2927.1662083333335</v>
-      </c>
-      <c r="B179">
-        <v>2.0040080160320643E-5</v>
-      </c>
-      <c r="C179">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D179">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E179" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F179" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>6003.5740999999998</v>
-      </c>
-      <c r="B180">
-        <v>3.006012024048096E-5</v>
-      </c>
-      <c r="C180">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D180">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E180" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F180" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>10030.104591666666</v>
-      </c>
-      <c r="B181">
-        <v>4.0080160320641287E-5</v>
-      </c>
-      <c r="C181">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D181">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E181" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F181" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>14937.990291666667</v>
-      </c>
-      <c r="B182">
-        <v>5.0100200400801603E-5</v>
-      </c>
-      <c r="C182">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D182">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E182" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F182" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>20673.045025000003</v>
-      </c>
-      <c r="B183">
-        <v>6.012024048096192E-5</v>
-      </c>
-      <c r="C183">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D183">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E183" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F183" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>27192.227016666668</v>
-      </c>
-      <c r="B184">
-        <v>7.0140280561122257E-5</v>
-      </c>
-      <c r="C184">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D184">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E184" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F184" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>34461.94896666667</v>
-      </c>
-      <c r="B185">
-        <v>8.0160320641282573E-5</v>
-      </c>
-      <c r="C185">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D185">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E185" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F185" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>42463.264241666671</v>
-      </c>
-      <c r="B186">
-        <v>9.0180360721442876E-5</v>
-      </c>
-      <c r="C186">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D186">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E186" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F186" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>51176.670708333339</v>
-      </c>
-      <c r="B187">
-        <v>1.0020040080160321E-4</v>
-      </c>
-      <c r="C187">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D187">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E187" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F187" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>105251.24630833333</v>
-      </c>
-      <c r="B188">
-        <v>1.503006012024048E-4</v>
-      </c>
-      <c r="C188">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D188">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E188" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F188" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>177976.0877</v>
-      </c>
-      <c r="B189">
-        <v>2.0040080160320641E-4</v>
-      </c>
-      <c r="C189">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D189">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E189" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F189" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>270188.09240833332</v>
-      </c>
-      <c r="B190">
-        <v>2.50501002004008E-4</v>
-      </c>
-      <c r="C190">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D190">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E190" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F190" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>381014.03823333333</v>
-      </c>
-      <c r="B191">
-        <v>3.0060120240480961E-4</v>
-      </c>
-      <c r="C191">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D191">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E191" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F191" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>509577.04858333332</v>
-      </c>
-      <c r="B192">
-        <v>3.5070140280561122E-4</v>
-      </c>
-      <c r="C192">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D192">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E192" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F192" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>657691.73343333346</v>
-      </c>
-      <c r="B193">
-        <v>4.0080160320641282E-4</v>
-      </c>
-      <c r="C193">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D193">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E193" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F193" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>829242.27963333344</v>
-      </c>
-      <c r="B194">
-        <v>4.5090180360721443E-4</v>
-      </c>
-      <c r="C194">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D194">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E194" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F194" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>1023883.3626666667</v>
-      </c>
-      <c r="B195">
-        <v>5.0100200400801599E-4</v>
-      </c>
-      <c r="C195">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D195">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E195" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F195" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>1235408.4496416666</v>
-      </c>
-      <c r="B196">
-        <v>5.5110220440881771E-4</v>
-      </c>
-      <c r="C196">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D196">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E196" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F196" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>1457118.0309333336</v>
-      </c>
-      <c r="B197">
-        <v>6.0120240480961921E-4</v>
-      </c>
-      <c r="C197">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D197">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E197" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F197" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>1689320.01095</v>
-      </c>
-      <c r="B198">
-        <v>6.5130260521042082E-4</v>
-      </c>
-      <c r="C198">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D198">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E198" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F198" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>1932812.4605416667</v>
-      </c>
-      <c r="B199">
-        <v>7.0140280561122243E-4</v>
-      </c>
-      <c r="C199">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D199">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E199" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F199" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>2186599.2222833335</v>
-      </c>
-      <c r="B200">
-        <v>7.5150300601202404E-4</v>
-      </c>
-      <c r="C200">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D200">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E200" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F200" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>2449971.370616667</v>
-      </c>
-      <c r="B201">
-        <v>8.0160320641282565E-4</v>
-      </c>
-      <c r="C201">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D201">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E201" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F201" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>2721215.5247583333</v>
-      </c>
-      <c r="B202">
-        <v>8.5170340681362726E-4</v>
-      </c>
-      <c r="C202">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D202">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E202" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F202" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>3003762.3778416668</v>
-      </c>
-      <c r="B203">
-        <v>9.0180360721442887E-4</v>
-      </c>
-      <c r="C203">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D203">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E203" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F203" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>3303174.4525833335</v>
-      </c>
-      <c r="B204">
-        <v>9.5190380761523037E-4</v>
-      </c>
-      <c r="C204">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D204">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E204" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F204" s="33">
-        <v>5.0499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>3619524.9519416671</v>
-      </c>
-      <c r="B205">
-        <v>1.002004008016032E-3</v>
-      </c>
-      <c r="C205">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="D205">
-        <v>6.1575216010359955E-4</v>
-      </c>
-      <c r="E205" s="33">
-        <v>8.7000000000000001E-9</v>
-      </c>
-      <c r="F205" s="33">
-        <v>5.0499999999999998E-3</v>
+      <c r="E205">
+        <v>2694112.0426250002</v>
       </c>
     </row>
   </sheetData>

--- a/Dados_Forchheimer.xlsx
+++ b/Dados_Forchheimer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF9D08D-5BC2-4D19-B6B6-6F0CC56EFBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7968B3D4-D087-4750-89EF-956F5F43C3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="0" windowWidth="33970" windowHeight="19960" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="880" windowWidth="30440" windowHeight="19870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros" sheetId="4" r:id="rId1"/>
@@ -714,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,10 +818,13 @@
     <xf numFmtId="2" fontId="8" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -836,8 +839,14 @@
     <xf numFmtId="11" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -847,6 +856,42 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -872,33 +917,6 @@
     <xf numFmtId="2" fontId="9" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="10" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,22 +929,13 @@
     <xf numFmtId="11" fontId="10" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13833,13 +13842,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>379131</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>143062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>82178</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13869,13 +13878,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>26146</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>146796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>36232</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13905,13 +13914,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>7469</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>131855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>7471</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13941,13 +13950,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>180415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>717175</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>149412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14410,26 +14419,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="40"/>
+      <c r="H1" s="53"/>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="9"/>
       <c r="G2" s="11" t="s">
         <v>9</v>
@@ -14441,11 +14450,11 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="10"/>
       <c r="G3" s="13">
         <v>998</v>
@@ -14467,13 +14476,13 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -14483,16 +14492,16 @@
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="70">
+      <c r="B6" s="39">
         <v>0.33260000000000001</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="39">
         <v>0.3745</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="39">
         <v>0.39960000000000001</v>
       </c>
-      <c r="E6" s="71">
+      <c r="E6" s="40">
         <v>0.41620000000000001</v>
       </c>
       <c r="F6" s="8"/>
@@ -14596,13 +14605,13 @@
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="42">
         <f t="shared" ref="B11" si="1">120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -14612,13 +14621,13 @@
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="42">
         <f>14/1000</f>
         <v>1.4E-2</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -14628,13 +14637,13 @@
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="43">
+      <c r="B13" s="44">
         <f>PI()*B12^2</f>
         <v>6.1575216010359955E-4</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -14652,13 +14661,13 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -14668,16 +14677,16 @@
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="39">
         <v>0.33260000000000001</v>
       </c>
-      <c r="C16" s="70">
+      <c r="C16" s="39">
         <v>0.3745</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="39">
         <v>0.39960000000000001</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="40">
         <v>0.41620000000000001</v>
       </c>
       <c r="F16" s="8"/>
@@ -14781,13 +14790,13 @@
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="42">
         <f t="shared" ref="B21" si="4">120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -14797,13 +14806,13 @@
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="42">
         <f>13/1000</f>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="43"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -14813,13 +14822,13 @@
       <c r="A23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="44">
         <f>PI()*B22^2</f>
         <v>5.3092915845667494E-4</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -14837,32 +14846,32 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="70">
+      <c r="B26" s="39">
         <v>0.33260000000000001</v>
       </c>
-      <c r="C26" s="70">
+      <c r="C26" s="39">
         <v>0.3745</v>
       </c>
-      <c r="D26" s="70">
+      <c r="D26" s="39">
         <v>0.39960000000000001</v>
       </c>
-      <c r="E26" s="71">
+      <c r="E26" s="40">
         <v>0.41620000000000001</v>
       </c>
       <c r="F26" s="8"/>
@@ -14966,13 +14975,13 @@
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="42">
         <f t="shared" ref="B31" si="7">120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -14982,13 +14991,13 @@
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="42">
         <f>12/1000</f>
         <v>1.2E-2</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -14998,13 +15007,13 @@
       <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="43">
+      <c r="B33" s="44">
         <f>PI()*B32^2</f>
         <v>4.523893421169302E-4</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -15022,13 +15031,13 @@
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -15038,16 +15047,16 @@
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="70">
+      <c r="B36" s="39">
         <v>0.33260000000000001</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="39">
         <v>0.3745</v>
       </c>
-      <c r="D36" s="70">
+      <c r="D36" s="39">
         <v>0.39960000000000001</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="40">
         <v>0.41620000000000001</v>
       </c>
       <c r="F36" s="8"/>
@@ -15151,13 +15160,13 @@
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="42">
         <f t="shared" ref="B41" si="10">120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="43"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -15167,13 +15176,13 @@
       <c r="A42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="42">
         <f>10/1000</f>
         <v>0.01</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -15183,13 +15192,13 @@
       <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="43">
+      <c r="B43" s="44">
         <f>PI()*B42^2</f>
         <v>3.1415926535897931E-4</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="45"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -15230,14 +15239,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A35:E35"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
@@ -15248,6 +15249,14 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -15257,8 +15266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20253A0B-AC37-40BE-81EB-FCE066D46965}">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15275,42 +15284,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="I1" s="60" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
-      <c r="Q1" s="60" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="62"/>
-      <c r="Y1" s="60" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="57"/>
+      <c r="Y1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="62"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -16883,42 +16892,42 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="I17" s="63" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="I17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-      <c r="Q17" s="63" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="Q17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="65"/>
-      <c r="Y17" s="63" t="s">
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
+      <c r="Y17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="65"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
@@ -20101,164 +20110,164 @@
       </c>
     </row>
     <row r="48" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="61">
         <f>Parâmetros!$H$3 / F48</f>
         <v>2.7269148022420438E-8</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="58"/>
-      <c r="F48" s="49">
+      <c r="C48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="F48" s="64">
         <v>31308</v>
       </c>
-      <c r="G48" s="50"/>
-      <c r="I48" s="59" t="s">
+      <c r="G48" s="65"/>
+      <c r="I48" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="J48" s="57">
+      <c r="J48" s="61">
         <f>Parâmetros!$H$3 / N48</f>
         <v>5.4298956069830125E-8</v>
       </c>
-      <c r="K48" s="57"/>
-      <c r="L48" s="58"/>
-      <c r="N48" s="49">
+      <c r="K48" s="61"/>
+      <c r="L48" s="62"/>
+      <c r="N48" s="64">
         <v>15723</v>
       </c>
-      <c r="O48" s="50"/>
-      <c r="Q48" s="59" t="s">
+      <c r="O48" s="65"/>
+      <c r="Q48" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="R48" s="57">
+      <c r="R48" s="61">
         <f>Parâmetros!$H$3 / V48</f>
         <v>7.7754324798355109E-8</v>
       </c>
-      <c r="S48" s="57"/>
-      <c r="T48" s="58"/>
-      <c r="V48" s="49">
+      <c r="S48" s="61"/>
+      <c r="T48" s="62"/>
+      <c r="V48" s="64">
         <v>10980</v>
       </c>
-      <c r="W48" s="50"/>
-      <c r="Y48" s="59" t="s">
+      <c r="W48" s="65"/>
+      <c r="Y48" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Z48" s="57">
+      <c r="Z48" s="61">
         <f>Parâmetros!$H$3 / AD48</f>
         <v>9.8334771514160225E-8</v>
       </c>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="58"/>
-      <c r="AD48" s="49">
+      <c r="AA48" s="61"/>
+      <c r="AB48" s="62"/>
+      <c r="AD48" s="64">
         <v>8682</v>
       </c>
-      <c r="AE48" s="50"/>
+      <c r="AE48" s="65"/>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="59"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="58"/>
-      <c r="N49" s="51"/>
-      <c r="O49" s="52"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="58"/>
-      <c r="V49" s="51"/>
-      <c r="W49" s="52"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="58"/>
-      <c r="AD49" s="51"/>
-      <c r="AE49" s="52"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="67"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="62"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="67"/>
+      <c r="Q49" s="63"/>
+      <c r="R49" s="61"/>
+      <c r="S49" s="61"/>
+      <c r="T49" s="62"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="67"/>
+      <c r="Y49" s="63"/>
+      <c r="Z49" s="61"/>
+      <c r="AA49" s="61"/>
+      <c r="AB49" s="62"/>
+      <c r="AD49" s="66"/>
+      <c r="AE49" s="67"/>
     </row>
     <row r="50" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="57">
+      <c r="B50" s="61">
         <f>Parâmetros!$G$3 / F50</f>
         <v>8.3693236613694502E-3</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58"/>
-      <c r="F50" s="53">
+      <c r="C50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="F50" s="68">
         <v>119245</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="I50" s="59" t="s">
+      <c r="G50" s="69"/>
+      <c r="I50" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="57">
+      <c r="J50" s="61">
         <f>Parâmetros!$G$3 / N50</f>
         <v>1.2233390536896298E-2</v>
       </c>
-      <c r="K50" s="57"/>
-      <c r="L50" s="58"/>
-      <c r="N50" s="53">
+      <c r="K50" s="61"/>
+      <c r="L50" s="62"/>
+      <c r="N50" s="68">
         <v>81580</v>
       </c>
-      <c r="O50" s="54"/>
-      <c r="Q50" s="59" t="s">
+      <c r="O50" s="69"/>
+      <c r="Q50" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="R50" s="57">
+      <c r="R50" s="61">
         <f>Parâmetros!$G$3 / V50</f>
         <v>1.4981385853248468E-2</v>
       </c>
-      <c r="S50" s="57"/>
-      <c r="T50" s="58"/>
-      <c r="V50" s="53">
+      <c r="S50" s="61"/>
+      <c r="T50" s="62"/>
+      <c r="V50" s="68">
         <v>66616</v>
       </c>
-      <c r="W50" s="54"/>
-      <c r="Y50" s="59" t="s">
+      <c r="W50" s="69"/>
+      <c r="Y50" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="Z50" s="57">
+      <c r="Z50" s="61">
         <f>Parâmetros!$G$3 / AD50</f>
         <v>1.6753399362095016E-2</v>
       </c>
-      <c r="AA50" s="57"/>
-      <c r="AB50" s="58"/>
-      <c r="AD50" s="53">
+      <c r="AA50" s="61"/>
+      <c r="AB50" s="62"/>
+      <c r="AD50" s="68">
         <v>59570</v>
       </c>
-      <c r="AE50" s="54"/>
+      <c r="AE50" s="69"/>
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="59"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="58"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="56"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="58"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="56"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="58"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="56"/>
-      <c r="Y51" s="59"/>
-      <c r="Z51" s="57"/>
-      <c r="AA51" s="57"/>
-      <c r="AB51" s="58"/>
-      <c r="AD51" s="55"/>
-      <c r="AE51" s="56"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="62"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="71"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="62"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="71"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="62"/>
+      <c r="V51" s="70"/>
+      <c r="W51" s="71"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="61"/>
+      <c r="AA51" s="61"/>
+      <c r="AB51" s="62"/>
+      <c r="AD51" s="70"/>
+      <c r="AE51" s="71"/>
     </row>
     <row r="52" spans="1:31" ht="25" x14ac:dyDescent="0.35">
       <c r="N52" s="30"/>
@@ -20266,22 +20275,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="Y17:AE17"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:L51"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="B50:D51"/>
     <mergeCell ref="AD48:AE49"/>
     <mergeCell ref="AD50:AE51"/>
     <mergeCell ref="F48:G49"/>
@@ -20298,6 +20291,22 @@
     <mergeCell ref="Y50:Y51"/>
     <mergeCell ref="Z50:AB51"/>
     <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:L49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:L51"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B48:D49"/>
+    <mergeCell ref="B50:D51"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="Y17:AE17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20306,10 +20315,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93182110-318C-4606-A178-4CC63F538A66}">
-  <dimension ref="A1:AF66"/>
+  <dimension ref="A1:AF90"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20326,43 +20335,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="I1" s="60" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
-      <c r="Q1" s="60" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="62"/>
-      <c r="Y1" s="60" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="57"/>
+      <c r="Y1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="62"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="57"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -21980,43 +21989,43 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="I17" s="63" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="I17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-      <c r="Q17" s="63" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="Q17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="65"/>
-      <c r="Y17" s="63" t="s">
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
+      <c r="Y17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="64"/>
-      <c r="AF17" s="65"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="60"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
@@ -24961,7 +24970,7 @@
         <v>2459465.0829166663</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A45" s="22">
         <v>1</v>
       </c>
@@ -25070,181 +25079,949 @@
         <v>2694112.0426250002</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="59" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A46" s="76"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="78"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="77"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="77"/>
+      <c r="U46" s="77"/>
+      <c r="V46" s="77"/>
+      <c r="W46" s="78"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="77"/>
+      <c r="AA46" s="77"/>
+      <c r="AB46" s="77"/>
+      <c r="AC46" s="77"/>
+      <c r="AD46" s="77"/>
+      <c r="AE46" s="77"/>
+      <c r="AF46" s="78"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A47" s="76"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="78"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="77"/>
+      <c r="O47" s="78"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="77"/>
+      <c r="S47" s="77"/>
+      <c r="T47" s="77"/>
+      <c r="U47" s="77"/>
+      <c r="V47" s="77"/>
+      <c r="W47" s="78"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="77"/>
+      <c r="AA47" s="77"/>
+      <c r="AB47" s="77"/>
+      <c r="AC47" s="77"/>
+      <c r="AD47" s="77"/>
+      <c r="AE47" s="77"/>
+      <c r="AF47" s="78"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="78"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="78"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="77"/>
+      <c r="AC48" s="77"/>
+      <c r="AD48" s="77"/>
+      <c r="AE48" s="77"/>
+      <c r="AF48" s="78"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A49" s="76"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="78"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="78"/>
+      <c r="Y49" s="76"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="77"/>
+      <c r="AC49" s="77"/>
+      <c r="AD49" s="77"/>
+      <c r="AE49" s="77"/>
+      <c r="AF49" s="78"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A50" s="76"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="77"/>
+      <c r="O50" s="78"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="78"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="77"/>
+      <c r="AA50" s="77"/>
+      <c r="AB50" s="77"/>
+      <c r="AC50" s="77"/>
+      <c r="AD50" s="77"/>
+      <c r="AE50" s="77"/>
+      <c r="AF50" s="78"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A51" s="76"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
+      <c r="N51" s="77"/>
+      <c r="O51" s="78"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="77"/>
+      <c r="S51" s="77"/>
+      <c r="T51" s="77"/>
+      <c r="U51" s="77"/>
+      <c r="V51" s="77"/>
+      <c r="W51" s="78"/>
+      <c r="Y51" s="76"/>
+      <c r="Z51" s="77"/>
+      <c r="AA51" s="77"/>
+      <c r="AB51" s="77"/>
+      <c r="AC51" s="77"/>
+      <c r="AD51" s="77"/>
+      <c r="AE51" s="77"/>
+      <c r="AF51" s="78"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A52" s="76"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="78"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="78"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="77"/>
+      <c r="AA52" s="77"/>
+      <c r="AB52" s="77"/>
+      <c r="AC52" s="77"/>
+      <c r="AD52" s="77"/>
+      <c r="AE52" s="77"/>
+      <c r="AF52" s="78"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A53" s="76"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77"/>
+      <c r="N53" s="77"/>
+      <c r="O53" s="78"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="77"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
+      <c r="U53" s="77"/>
+      <c r="V53" s="77"/>
+      <c r="W53" s="78"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="77"/>
+      <c r="AA53" s="77"/>
+      <c r="AB53" s="77"/>
+      <c r="AC53" s="77"/>
+      <c r="AD53" s="77"/>
+      <c r="AE53" s="77"/>
+      <c r="AF53" s="78"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="78"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="78"/>
+      <c r="Y54" s="76"/>
+      <c r="Z54" s="77"/>
+      <c r="AA54" s="77"/>
+      <c r="AB54" s="77"/>
+      <c r="AC54" s="77"/>
+      <c r="AD54" s="77"/>
+      <c r="AE54" s="77"/>
+      <c r="AF54" s="78"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A55" s="76"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="78"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="77"/>
+      <c r="W55" s="78"/>
+      <c r="Y55" s="76"/>
+      <c r="Z55" s="77"/>
+      <c r="AA55" s="77"/>
+      <c r="AB55" s="77"/>
+      <c r="AC55" s="77"/>
+      <c r="AD55" s="77"/>
+      <c r="AE55" s="77"/>
+      <c r="AF55" s="78"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A56" s="76"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="78"/>
+      <c r="I56" s="76"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="77"/>
+      <c r="N56" s="77"/>
+      <c r="O56" s="78"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="77"/>
+      <c r="S56" s="77"/>
+      <c r="T56" s="77"/>
+      <c r="U56" s="77"/>
+      <c r="V56" s="77"/>
+      <c r="W56" s="78"/>
+      <c r="Y56" s="76"/>
+      <c r="Z56" s="77"/>
+      <c r="AA56" s="77"/>
+      <c r="AB56" s="77"/>
+      <c r="AC56" s="77"/>
+      <c r="AD56" s="77"/>
+      <c r="AE56" s="77"/>
+      <c r="AF56" s="78"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A57" s="76"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="78"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
+      <c r="N57" s="77"/>
+      <c r="O57" s="78"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="77"/>
+      <c r="S57" s="77"/>
+      <c r="T57" s="77"/>
+      <c r="U57" s="77"/>
+      <c r="V57" s="77"/>
+      <c r="W57" s="78"/>
+      <c r="Y57" s="76"/>
+      <c r="Z57" s="77"/>
+      <c r="AA57" s="77"/>
+      <c r="AB57" s="77"/>
+      <c r="AC57" s="77"/>
+      <c r="AD57" s="77"/>
+      <c r="AE57" s="77"/>
+      <c r="AF57" s="78"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="78"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="77"/>
+      <c r="O58" s="78"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="77"/>
+      <c r="S58" s="77"/>
+      <c r="T58" s="77"/>
+      <c r="U58" s="77"/>
+      <c r="V58" s="77"/>
+      <c r="W58" s="78"/>
+      <c r="Y58" s="76"/>
+      <c r="Z58" s="77"/>
+      <c r="AA58" s="77"/>
+      <c r="AB58" s="77"/>
+      <c r="AC58" s="77"/>
+      <c r="AD58" s="77"/>
+      <c r="AE58" s="77"/>
+      <c r="AF58" s="78"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A59" s="76"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="78"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="78"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="77"/>
+      <c r="U59" s="77"/>
+      <c r="V59" s="77"/>
+      <c r="W59" s="78"/>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="77"/>
+      <c r="AB59" s="77"/>
+      <c r="AC59" s="77"/>
+      <c r="AD59" s="77"/>
+      <c r="AE59" s="77"/>
+      <c r="AF59" s="78"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="78"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="78"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="77"/>
+      <c r="S60" s="77"/>
+      <c r="T60" s="77"/>
+      <c r="U60" s="77"/>
+      <c r="V60" s="77"/>
+      <c r="W60" s="78"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="77"/>
+      <c r="AA60" s="77"/>
+      <c r="AB60" s="77"/>
+      <c r="AC60" s="77"/>
+      <c r="AD60" s="77"/>
+      <c r="AE60" s="77"/>
+      <c r="AF60" s="78"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A61" s="76"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="78"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="77"/>
+      <c r="N61" s="77"/>
+      <c r="O61" s="78"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="77"/>
+      <c r="S61" s="77"/>
+      <c r="T61" s="77"/>
+      <c r="U61" s="77"/>
+      <c r="V61" s="77"/>
+      <c r="W61" s="78"/>
+      <c r="Y61" s="76"/>
+      <c r="Z61" s="77"/>
+      <c r="AA61" s="77"/>
+      <c r="AB61" s="77"/>
+      <c r="AC61" s="77"/>
+      <c r="AD61" s="77"/>
+      <c r="AE61" s="77"/>
+      <c r="AF61" s="78"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A62" s="76"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="78"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="78"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="77"/>
+      <c r="S62" s="77"/>
+      <c r="T62" s="77"/>
+      <c r="U62" s="77"/>
+      <c r="V62" s="77"/>
+      <c r="W62" s="78"/>
+      <c r="Y62" s="76"/>
+      <c r="Z62" s="77"/>
+      <c r="AA62" s="77"/>
+      <c r="AB62" s="77"/>
+      <c r="AC62" s="77"/>
+      <c r="AD62" s="77"/>
+      <c r="AE62" s="77"/>
+      <c r="AF62" s="78"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A63" s="76"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="78"/>
+      <c r="I63" s="76"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="78"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="77"/>
+      <c r="S63" s="77"/>
+      <c r="T63" s="77"/>
+      <c r="U63" s="77"/>
+      <c r="V63" s="77"/>
+      <c r="W63" s="78"/>
+      <c r="Y63" s="76"/>
+      <c r="Z63" s="77"/>
+      <c r="AA63" s="77"/>
+      <c r="AB63" s="77"/>
+      <c r="AC63" s="77"/>
+      <c r="AD63" s="77"/>
+      <c r="AE63" s="77"/>
+      <c r="AF63" s="78"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A64" s="76"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="78"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="77"/>
+      <c r="O64" s="78"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="77"/>
+      <c r="S64" s="77"/>
+      <c r="T64" s="77"/>
+      <c r="U64" s="77"/>
+      <c r="V64" s="77"/>
+      <c r="W64" s="78"/>
+      <c r="Y64" s="76"/>
+      <c r="Z64" s="77"/>
+      <c r="AA64" s="77"/>
+      <c r="AB64" s="77"/>
+      <c r="AC64" s="77"/>
+      <c r="AD64" s="77"/>
+      <c r="AE64" s="77"/>
+      <c r="AF64" s="78"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A65" s="76"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="78"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="77"/>
+      <c r="S65" s="77"/>
+      <c r="T65" s="77"/>
+      <c r="U65" s="77"/>
+      <c r="V65" s="77"/>
+      <c r="W65" s="78"/>
+      <c r="Y65" s="76"/>
+      <c r="Z65" s="77"/>
+      <c r="AA65" s="77"/>
+      <c r="AB65" s="77"/>
+      <c r="AC65" s="77"/>
+      <c r="AD65" s="77"/>
+      <c r="AE65" s="77"/>
+      <c r="AF65" s="78"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66" s="76"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="78"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="77"/>
+      <c r="O66" s="78"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="77"/>
+      <c r="S66" s="77"/>
+      <c r="T66" s="77"/>
+      <c r="U66" s="77"/>
+      <c r="V66" s="77"/>
+      <c r="W66" s="78"/>
+      <c r="Y66" s="76"/>
+      <c r="Z66" s="77"/>
+      <c r="AA66" s="77"/>
+      <c r="AB66" s="77"/>
+      <c r="AC66" s="77"/>
+      <c r="AD66" s="77"/>
+      <c r="AE66" s="77"/>
+      <c r="AF66" s="78"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A67" s="76"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="78"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="77"/>
+      <c r="O67" s="78"/>
+      <c r="Q67" s="76"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="77"/>
+      <c r="T67" s="77"/>
+      <c r="U67" s="77"/>
+      <c r="V67" s="77"/>
+      <c r="W67" s="78"/>
+      <c r="Y67" s="76"/>
+      <c r="Z67" s="77"/>
+      <c r="AA67" s="77"/>
+      <c r="AB67" s="77"/>
+      <c r="AC67" s="77"/>
+      <c r="AD67" s="77"/>
+      <c r="AE67" s="77"/>
+      <c r="AF67" s="78"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A68" s="76"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="77"/>
+      <c r="D68" s="77"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="77"/>
+      <c r="G68" s="78"/>
+      <c r="I68" s="76"/>
+      <c r="J68" s="77"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="77"/>
+      <c r="N68" s="77"/>
+      <c r="O68" s="78"/>
+      <c r="Q68" s="76"/>
+      <c r="R68" s="77"/>
+      <c r="S68" s="77"/>
+      <c r="T68" s="77"/>
+      <c r="U68" s="77"/>
+      <c r="V68" s="77"/>
+      <c r="W68" s="78"/>
+      <c r="Y68" s="76"/>
+      <c r="Z68" s="77"/>
+      <c r="AA68" s="77"/>
+      <c r="AB68" s="77"/>
+      <c r="AC68" s="77"/>
+      <c r="AD68" s="77"/>
+      <c r="AE68" s="77"/>
+      <c r="AF68" s="78"/>
+    </row>
+    <row r="69" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="76"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="78"/>
+      <c r="I69" s="76"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="78"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="77"/>
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="77"/>
+      <c r="W69" s="78"/>
+      <c r="Y69" s="76"/>
+      <c r="Z69" s="77"/>
+      <c r="AA69" s="77"/>
+      <c r="AB69" s="77"/>
+      <c r="AC69" s="77"/>
+      <c r="AD69" s="77"/>
+      <c r="AE69" s="77"/>
+      <c r="AF69" s="78"/>
+    </row>
+    <row r="70" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="57">
-        <f>Parâmetros!$H$3 / F46</f>
+      <c r="B70" s="61">
+        <f>Parâmetros!$H$3 / F70</f>
         <v>3.9761660167474977E-9</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="58"/>
-      <c r="F46" s="49">
+      <c r="C70" s="61"/>
+      <c r="D70" s="62"/>
+      <c r="F70" s="64">
         <v>214715</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="I46" s="59" t="s">
+      <c r="G70" s="65"/>
+      <c r="I70" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="J46" s="57">
-        <f>Parâmetros!$H$3 / N46</f>
+      <c r="J70" s="61">
+        <f>Parâmetros!$H$3 / N70</f>
         <v>5.8778261062867577E-9</v>
       </c>
-      <c r="K46" s="57"/>
-      <c r="L46" s="58"/>
-      <c r="N46" s="49">
+      <c r="K70" s="61"/>
+      <c r="L70" s="62"/>
+      <c r="N70" s="64">
         <v>145248</v>
       </c>
-      <c r="O46" s="50"/>
-      <c r="Q46" s="59" t="s">
+      <c r="O70" s="65"/>
+      <c r="Q70" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="R46" s="57">
-        <f>Parâmetros!$H$3 / V46</f>
+      <c r="R70" s="61">
+        <f>Parâmetros!$H$3 / V70</f>
         <v>8.6965721328913011E-9</v>
       </c>
-      <c r="S46" s="57"/>
-      <c r="T46" s="58"/>
-      <c r="V46" s="49">
+      <c r="S70" s="61"/>
+      <c r="T70" s="62"/>
+      <c r="V70" s="64">
         <v>98170</v>
       </c>
-      <c r="W46" s="50"/>
-      <c r="Y46" s="59" t="s">
+      <c r="W70" s="65"/>
+      <c r="Y70" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Z46" s="57">
-        <f>Parâmetros!$H$3 / AE46</f>
+      <c r="Z70" s="61">
+        <f>Parâmetros!$H$3 / AE70</f>
         <v>1.4028434820170546E-8</v>
       </c>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="58"/>
-      <c r="AE46" s="49">
+      <c r="AA70" s="61"/>
+      <c r="AB70" s="62"/>
+      <c r="AE70" s="64">
         <v>60858</v>
       </c>
-      <c r="AF46" s="50"/>
-    </row>
-    <row r="47" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="59"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="58"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="52"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="58"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="52"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="58"/>
-      <c r="V47" s="51"/>
-      <c r="W47" s="52"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="57"/>
-      <c r="AA47" s="57"/>
-      <c r="AB47" s="58"/>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="52"/>
-    </row>
-    <row r="48" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="59" t="s">
+      <c r="AF70" s="65"/>
+    </row>
+    <row r="71" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="63"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="67"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="62"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="67"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="62"/>
+      <c r="V71" s="66"/>
+      <c r="W71" s="67"/>
+      <c r="Y71" s="63"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="62"/>
+      <c r="AE71" s="66"/>
+      <c r="AF71" s="67"/>
+    </row>
+    <row r="72" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="66">
-        <f>Parâmetros!$G$3 / F48</f>
+      <c r="B72" s="72">
+        <f>Parâmetros!$G$3 / F72</f>
         <v>2.6111095122353244E-3</v>
       </c>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="F48" s="53">
+      <c r="C72" s="72"/>
+      <c r="D72" s="73"/>
+      <c r="F72" s="68">
         <v>382213</v>
       </c>
-      <c r="G48" s="54"/>
-      <c r="I48" s="59" t="s">
+      <c r="G72" s="69"/>
+      <c r="I72" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="J48" s="66">
-        <f>Parâmetros!$G$3 / N48</f>
+      <c r="J72" s="72">
+        <f>Parâmetros!$G$3 / N72</f>
         <v>4.0999096212307948E-3</v>
       </c>
-      <c r="K48" s="66"/>
-      <c r="L48" s="67"/>
-      <c r="N48" s="53">
+      <c r="K72" s="72"/>
+      <c r="L72" s="73"/>
+      <c r="N72" s="68">
         <v>243420</v>
       </c>
-      <c r="O48" s="54"/>
-      <c r="Q48" s="59" t="s">
+      <c r="O72" s="69"/>
+      <c r="Q72" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="R48" s="66">
-        <f>Parâmetros!$G$3 / V48</f>
+      <c r="R72" s="72">
+        <f>Parâmetros!$G$3 / V72</f>
         <v>5.0489975362106214E-3</v>
       </c>
-      <c r="S48" s="66"/>
-      <c r="T48" s="67"/>
-      <c r="V48" s="53">
+      <c r="S72" s="72"/>
+      <c r="T72" s="73"/>
+      <c r="V72" s="68">
         <v>197663</v>
       </c>
-      <c r="W48" s="54"/>
-      <c r="Y48" s="59" t="s">
+      <c r="W72" s="69"/>
+      <c r="Y72" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="Z48" s="57">
-        <f>Parâmetros!$G$3 / AE48</f>
+      <c r="Z72" s="61">
+        <f>Parâmetros!$G$3 / AE72</f>
         <v>6.102482573070808E-3</v>
       </c>
-      <c r="AA48" s="57"/>
-      <c r="AB48" s="58"/>
-      <c r="AE48" s="53">
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="62"/>
+      <c r="AE72" s="68">
         <v>163540</v>
       </c>
-      <c r="AF48" s="54"/>
-    </row>
-    <row r="49" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="59"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="56"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="69"/>
-      <c r="V49" s="55"/>
-      <c r="W49" s="56"/>
-      <c r="Y49" s="59"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="58"/>
-      <c r="AE49" s="55"/>
-      <c r="AF49" s="56"/>
-    </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I65" s="15" t="s">
+      <c r="AF72" s="69"/>
+    </row>
+    <row r="73" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="63"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="74"/>
+      <c r="D73" s="75"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="71"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="75"/>
+      <c r="N73" s="70"/>
+      <c r="O73" s="71"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="74"/>
+      <c r="S73" s="74"/>
+      <c r="T73" s="75"/>
+      <c r="V73" s="70"/>
+      <c r="W73" s="71"/>
+      <c r="Y73" s="63"/>
+      <c r="Z73" s="61"/>
+      <c r="AA73" s="61"/>
+      <c r="AB73" s="62"/>
+      <c r="AE73" s="70"/>
+      <c r="AF73" s="71"/>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I89" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J65" s="15" t="s">
+      <c r="J89" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I66" s="15" t="s">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I90" s="15" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="V70:W71"/>
+    <mergeCell ref="V72:W73"/>
+    <mergeCell ref="J70:L71"/>
+    <mergeCell ref="AE70:AF71"/>
+    <mergeCell ref="AE72:AF73"/>
+    <mergeCell ref="Y70:Y71"/>
+    <mergeCell ref="Z70:AB71"/>
+    <mergeCell ref="Y72:Y73"/>
+    <mergeCell ref="Z72:AB73"/>
+    <mergeCell ref="J72:L73"/>
+    <mergeCell ref="Q70:Q71"/>
+    <mergeCell ref="R70:T71"/>
+    <mergeCell ref="Q72:Q73"/>
+    <mergeCell ref="R72:T73"/>
+    <mergeCell ref="N70:O71"/>
+    <mergeCell ref="N72:O73"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:D71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:D73"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="F70:G71"/>
+    <mergeCell ref="F72:G73"/>
+    <mergeCell ref="I72:I73"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:O1"/>
     <mergeCell ref="Q1:W1"/>
@@ -25253,30 +26030,6 @@
     <mergeCell ref="Q17:W17"/>
     <mergeCell ref="I17:O17"/>
     <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:D49"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="F46:G47"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="V46:W47"/>
-    <mergeCell ref="V48:W49"/>
-    <mergeCell ref="J46:L47"/>
-    <mergeCell ref="AE46:AF47"/>
-    <mergeCell ref="AE48:AF49"/>
-    <mergeCell ref="Y46:Y47"/>
-    <mergeCell ref="Z46:AB47"/>
-    <mergeCell ref="Y48:Y49"/>
-    <mergeCell ref="Z48:AB49"/>
-    <mergeCell ref="J48:L49"/>
-    <mergeCell ref="Q46:Q47"/>
-    <mergeCell ref="R46:T47"/>
-    <mergeCell ref="Q48:Q49"/>
-    <mergeCell ref="R48:T49"/>
-    <mergeCell ref="N46:O47"/>
-    <mergeCell ref="N48:O49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25304,42 +26057,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="I1" s="60" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="I1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
-      <c r="Q1" s="60" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
+      <c r="Q1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="62"/>
-      <c r="Y1" s="60" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="57"/>
+      <c r="Y1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="62"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -26520,42 +27273,42 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="I17" s="63" t="s">
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="I17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
-      <c r="Q17" s="63" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="Q17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="65"/>
-      <c r="Y17" s="63" t="s">
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
+      <c r="Y17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="65"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
@@ -29655,7 +30408,7 @@
         <v>214907.53445199999</v>
       </c>
       <c r="AE50" s="24">
-        <f t="shared" ref="AE50:AE81" si="8">AD50/0.12</f>
+        <f t="shared" ref="AE50:AE68" si="8">AD50/0.12</f>
         <v>1790896.1204333333</v>
       </c>
     </row>
@@ -31352,156 +32105,156 @@
       </c>
     </row>
     <row r="69" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="57">
+      <c r="B69" s="61">
         <f>Parâmetros!$H$3 / F69</f>
         <v>3.9761660167474977E-9</v>
       </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
-      <c r="F69" s="49">
+      <c r="C69" s="61"/>
+      <c r="D69" s="62"/>
+      <c r="F69" s="64">
         <v>214715</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="I69" s="59" t="s">
+      <c r="G69" s="65"/>
+      <c r="I69" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="J69" s="57">
+      <c r="J69" s="61">
         <f>Parâmetros!$H$3 / N69</f>
         <v>5.8778261062867577E-9</v>
       </c>
-      <c r="K69" s="57"/>
-      <c r="L69" s="58"/>
-      <c r="N69" s="49">
+      <c r="K69" s="61"/>
+      <c r="L69" s="62"/>
+      <c r="N69" s="64">
         <v>145248</v>
       </c>
-      <c r="O69" s="50"/>
-      <c r="Q69" s="59" t="s">
+      <c r="O69" s="65"/>
+      <c r="Q69" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="R69" s="57">
+      <c r="R69" s="61">
         <f>Parâmetros!$H$3 / V69</f>
         <v>8.6965721328913011E-9</v>
       </c>
-      <c r="S69" s="57"/>
-      <c r="T69" s="58"/>
-      <c r="V69" s="49">
+      <c r="S69" s="61"/>
+      <c r="T69" s="62"/>
+      <c r="V69" s="64">
         <v>98170</v>
       </c>
-      <c r="W69" s="50"/>
-      <c r="Y69" s="59" t="s">
+      <c r="W69" s="65"/>
+      <c r="Y69" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Z69" s="57" t="e">
+      <c r="Z69" s="61" t="e">
         <f>Parâmetros!$H$3 /#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AA69" s="57"/>
-      <c r="AB69" s="58"/>
-      <c r="AE69" s="50"/>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="62"/>
+      <c r="AE69" s="65"/>
     </row>
     <row r="70" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="59"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="58"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="52"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="58"/>
-      <c r="N70" s="51"/>
-      <c r="O70" s="52"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="58"/>
-      <c r="V70" s="51"/>
-      <c r="W70" s="52"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="57"/>
-      <c r="AA70" s="57"/>
-      <c r="AB70" s="58"/>
-      <c r="AE70" s="52"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="62"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="67"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="62"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="67"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="62"/>
+      <c r="V70" s="66"/>
+      <c r="W70" s="67"/>
+      <c r="Y70" s="63"/>
+      <c r="Z70" s="61"/>
+      <c r="AA70" s="61"/>
+      <c r="AB70" s="62"/>
+      <c r="AE70" s="67"/>
     </row>
     <row r="71" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="59" t="s">
+      <c r="A71" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="66">
+      <c r="B71" s="72">
         <f>Parâmetros!$G$3 / F71</f>
         <v>2.6111095122353244E-3</v>
       </c>
-      <c r="C71" s="66"/>
-      <c r="D71" s="67"/>
-      <c r="F71" s="53">
+      <c r="C71" s="72"/>
+      <c r="D71" s="73"/>
+      <c r="F71" s="68">
         <v>382213</v>
       </c>
-      <c r="G71" s="54"/>
-      <c r="I71" s="59" t="s">
+      <c r="G71" s="69"/>
+      <c r="I71" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="J71" s="66">
+      <c r="J71" s="72">
         <f>Parâmetros!$G$3 / N71</f>
         <v>4.0999096212307948E-3</v>
       </c>
-      <c r="K71" s="66"/>
-      <c r="L71" s="67"/>
-      <c r="N71" s="53">
+      <c r="K71" s="72"/>
+      <c r="L71" s="73"/>
+      <c r="N71" s="68">
         <v>243420</v>
       </c>
-      <c r="O71" s="54"/>
-      <c r="Q71" s="59" t="s">
+      <c r="O71" s="69"/>
+      <c r="Q71" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="R71" s="66">
+      <c r="R71" s="72">
         <f>Parâmetros!$G$3 / V71</f>
         <v>5.0489975362106214E-3</v>
       </c>
-      <c r="S71" s="66"/>
-      <c r="T71" s="67"/>
-      <c r="V71" s="53">
+      <c r="S71" s="72"/>
+      <c r="T71" s="73"/>
+      <c r="V71" s="68">
         <v>197663</v>
       </c>
-      <c r="W71" s="54"/>
-      <c r="Y71" s="59" t="s">
+      <c r="W71" s="69"/>
+      <c r="Y71" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="Z71" s="57" t="e">
+      <c r="Z71" s="61" t="e">
         <f>Parâmetros!$G$3 /#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AA71" s="57"/>
-      <c r="AB71" s="58"/>
-      <c r="AE71" s="54"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="62"/>
+      <c r="AE71" s="69"/>
     </row>
     <row r="72" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="59"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="69"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="56"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="69"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="56"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="68"/>
-      <c r="S72" s="68"/>
-      <c r="T72" s="69"/>
-      <c r="V72" s="55"/>
-      <c r="W72" s="56"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="57"/>
-      <c r="AA72" s="57"/>
-      <c r="AB72" s="58"/>
-      <c r="AE72" s="56"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="74"/>
+      <c r="D72" s="75"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="71"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="75"/>
+      <c r="N72" s="70"/>
+      <c r="O72" s="71"/>
+      <c r="Q72" s="63"/>
+      <c r="R72" s="74"/>
+      <c r="S72" s="74"/>
+      <c r="T72" s="75"/>
+      <c r="V72" s="70"/>
+      <c r="W72" s="71"/>
+      <c r="Y72" s="63"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="62"/>
+      <c r="AE72" s="71"/>
     </row>
     <row r="88" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I88" s="15" t="s">
@@ -31518,14 +32271,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="I17:O17"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="Y17:AE17"/>
+    <mergeCell ref="AE71:AE72"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:D72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="I71:I72"/>
+    <mergeCell ref="J71:L72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="Q71:Q72"/>
+    <mergeCell ref="R71:T72"/>
+    <mergeCell ref="V71:W72"/>
+    <mergeCell ref="Y71:Y72"/>
+    <mergeCell ref="Z71:AB72"/>
     <mergeCell ref="AE69:AE70"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:D70"/>
@@ -31538,18 +32295,14 @@
     <mergeCell ref="V69:W70"/>
     <mergeCell ref="Y69:Y70"/>
     <mergeCell ref="Z69:AB70"/>
-    <mergeCell ref="AE71:AE72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:D72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="I71:I72"/>
-    <mergeCell ref="J71:L72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="Q71:Q72"/>
-    <mergeCell ref="R71:T72"/>
-    <mergeCell ref="V71:W72"/>
-    <mergeCell ref="Y71:Y72"/>
-    <mergeCell ref="Z71:AB72"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="I17:O17"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="Y17:AE17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -31560,52 +32313,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9F48D9-2E9F-4EFF-B0AA-21BC673223EF}">
   <dimension ref="A1:AE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="62"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="57"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="60" t="s">
+      <c r="Q1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="62"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="57"/>
       <c r="X1" s="15"/>
-      <c r="Y1" s="60" t="s">
+      <c r="Y1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61"/>
-      <c r="AE1" s="62"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="57"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
@@ -32831,45 +33584,45 @@
       </c>
     </row>
     <row r="17" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="65"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
       <c r="P17" s="15"/>
-      <c r="Q17" s="63" t="s">
+      <c r="Q17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="65"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
       <c r="X17" s="15"/>
-      <c r="Y17" s="63" t="s">
+      <c r="Y17" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="Z17" s="64"/>
-      <c r="AA17" s="64"/>
-      <c r="AB17" s="64"/>
-      <c r="AC17" s="64"/>
-      <c r="AD17" s="64"/>
-      <c r="AE17" s="65"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="60"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
@@ -36068,7 +36821,7 @@
         <v>457014.20919999998</v>
       </c>
       <c r="AE50" s="24">
-        <f t="shared" ref="AE50:AE81" si="8">AD50/0.12</f>
+        <f t="shared" ref="AE50:AE68" si="8">AD50/0.12</f>
         <v>3808451.7433333332</v>
       </c>
     </row>
